--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7154F4-3A0E-4C70-ABE7-2539EA857749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A66F3C-C384-47DD-959E-256028D2BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,28 @@
     <sheet name="MCC" sheetId="14" r:id="rId11"/>
     <sheet name="F1S" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="320">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -984,6 +995,18 @@
   </si>
   <si>
     <t>0.954930116496401</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Comparison: Sparsification Method</t>
+  </si>
+  <si>
+    <t>Comparison: Design Method</t>
+  </si>
+  <si>
+    <t>Comparison: NN x KNN</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1036,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1368,11 +1391,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1536,6 +1641,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1554,10 +1665,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1840,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,31 +1975,62 @@
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+      <c r="M3" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="65"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,8 +2064,41 @@
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1945,8 +2132,49 @@
       <c r="K5" s="48">
         <v>0.92420484581497797</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="52">
+        <f t="shared" ref="P5:W8" si="0">D5-MAX(D5,D9,D13,D17)</f>
+        <v>-0.49532158590308301</v>
+      </c>
+      <c r="Q5" s="52">
+        <f t="shared" si="0"/>
+        <v>-2.8656387665197958E-2</v>
+      </c>
+      <c r="R5" s="52">
+        <f t="shared" si="0"/>
+        <v>-0.19340969162995503</v>
+      </c>
+      <c r="S5" s="52">
+        <f t="shared" si="0"/>
+        <v>-3.5561674008811051E-2</v>
+      </c>
+      <c r="T5" s="52">
+        <f t="shared" si="0"/>
+        <v>-2.5405286343613054E-2</v>
+      </c>
+      <c r="U5" s="52">
+        <f t="shared" si="0"/>
+        <v>-5.5885462555064991E-2</v>
+      </c>
+      <c r="V5" s="52">
+        <f t="shared" si="0"/>
+        <v>-0.365370044052863</v>
+      </c>
+      <c r="W5" s="66">
+        <f t="shared" si="0"/>
+        <v>-3.8105726872247003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1975,8 +2203,45 @@
       <c r="K6" s="15">
         <v>0.93748017621145396</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="49">
+        <f t="shared" si="0"/>
+        <v>-0.49610352422907394</v>
+      </c>
+      <c r="Q6" s="49">
+        <f t="shared" si="0"/>
+        <v>-2.9561674008811045E-2</v>
+      </c>
+      <c r="R6" s="49">
+        <f t="shared" si="0"/>
+        <v>-0.19204405286343595</v>
+      </c>
+      <c r="S6" s="49">
+        <f t="shared" si="0"/>
+        <v>-3.7832599118942989E-2</v>
+      </c>
+      <c r="T6" s="49">
+        <f t="shared" si="0"/>
+        <v>-2.3889867841410006E-2</v>
+      </c>
+      <c r="U6" s="49">
+        <f t="shared" si="0"/>
+        <v>-0.500162995594714</v>
+      </c>
+      <c r="V6" s="49">
+        <f t="shared" si="0"/>
+        <v>-0.52026872246695999</v>
+      </c>
+      <c r="W6" s="67">
+        <f t="shared" si="0"/>
+        <v>-2.2599118942731033E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2008,8 +2273,47 @@
       <c r="K7" s="15">
         <v>0.90893612334801799</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="49">
+        <f t="shared" si="0"/>
+        <v>-0.29751982378854602</v>
+      </c>
+      <c r="Q7" s="49">
+        <f t="shared" si="0"/>
+        <v>-1.4303964757709009E-2</v>
+      </c>
+      <c r="R7" s="49">
+        <f t="shared" si="0"/>
+        <v>-0.15537885462555101</v>
+      </c>
+      <c r="S7" s="49">
+        <f t="shared" si="0"/>
+        <v>-7.3634361233479995E-3</v>
+      </c>
+      <c r="T7" s="49">
+        <f t="shared" si="0"/>
+        <v>-3.9579295154186012E-2</v>
+      </c>
+      <c r="U7" s="49">
+        <f t="shared" si="0"/>
+        <v>-2.2048458149780403E-3</v>
+      </c>
+      <c r="V7" s="49">
+        <f t="shared" si="0"/>
+        <v>-0.23043832599118907</v>
+      </c>
+      <c r="W7" s="67">
+        <f t="shared" si="0"/>
+        <v>-5.7841409691629986E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2039,8 +2343,45 @@
       <c r="K8" s="51">
         <v>0.94875110132158602</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="50">
+        <f t="shared" si="0"/>
+        <v>-0.17217180616740102</v>
+      </c>
+      <c r="Q8" s="50">
+        <f t="shared" si="0"/>
+        <v>-8.1453744493389379E-3</v>
+      </c>
+      <c r="R8" s="50">
+        <f t="shared" si="0"/>
+        <v>-6.4493392070484989E-2</v>
+      </c>
+      <c r="S8" s="50">
+        <f t="shared" si="0"/>
+        <v>-6.3436123348009632E-3</v>
+      </c>
+      <c r="T8" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.1046255506608094E-2</v>
+      </c>
+      <c r="U8" s="50">
+        <f t="shared" si="0"/>
+        <v>-8.4713656387670477E-3</v>
+      </c>
+      <c r="V8" s="50">
+        <f t="shared" si="0"/>
+        <v>-0.21682599118942802</v>
+      </c>
+      <c r="W8" s="68">
+        <f t="shared" si="0"/>
+        <v>-1.1920704845814978E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2074,8 +2415,49 @@
       <c r="K9" s="54">
         <v>0.88706607929515402</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="52">
+        <f t="shared" ref="P9:W12" si="1">D9-MAX(D5,D9,D13,D17)</f>
+        <v>-1.2585903083700001E-2</v>
+      </c>
+      <c r="Q9" s="52">
+        <f t="shared" si="1"/>
+        <v>-4.5361233480175955E-2</v>
+      </c>
+      <c r="R9" s="52">
+        <f t="shared" si="1"/>
+        <v>-1.5099118942730971E-2</v>
+      </c>
+      <c r="S9" s="52">
+        <f t="shared" si="1"/>
+        <v>-4.1724669603525055E-2</v>
+      </c>
+      <c r="T9" s="52">
+        <f t="shared" si="1"/>
+        <v>-1.1555066079295018E-2</v>
+      </c>
+      <c r="U9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="66">
+        <f t="shared" si="1"/>
+        <v>-7.5244493392070955E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2104,8 +2486,45 @@
       <c r="K10" s="15">
         <v>0.93820264317180602</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="49">
+        <f t="shared" si="1"/>
+        <v>-2.06079295154179E-2</v>
+      </c>
+      <c r="Q10" s="49">
+        <f t="shared" si="1"/>
+        <v>-1.9189427312774954E-2</v>
+      </c>
+      <c r="R10" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.8328193832599E-2</v>
+      </c>
+      <c r="S10" s="49">
+        <f t="shared" si="1"/>
+        <v>-1.3383259911894041E-2</v>
+      </c>
+      <c r="T10" s="49">
+        <f t="shared" si="1"/>
+        <v>-5.4533039647576942E-2</v>
+      </c>
+      <c r="U10" s="49">
+        <f t="shared" si="1"/>
+        <v>-7.2511013215860176E-3</v>
+      </c>
+      <c r="V10" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="67">
+        <f t="shared" si="1"/>
+        <v>-2.1876651982378981E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2137,8 +2556,47 @@
       <c r="K11" s="15">
         <v>0.938196035242291</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.5541850220264015E-2</v>
+      </c>
+      <c r="T11" s="49">
+        <f t="shared" si="1"/>
+        <v>-4.190748898678498E-2</v>
+      </c>
+      <c r="U11" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="67">
+        <f t="shared" si="1"/>
+        <v>-2.8581497797356969E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2168,8 +2626,45 @@
       <c r="K12" s="51">
         <v>0.960123348017621</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="50">
+        <f t="shared" si="1"/>
+        <v>-8.7819383259899464E-3</v>
+      </c>
+      <c r="R12" s="50">
+        <f t="shared" si="1"/>
+        <v>-9.0308370044100972E-4</v>
+      </c>
+      <c r="S12" s="50">
+        <f t="shared" si="1"/>
+        <v>-1.0143171806166973E-2</v>
+      </c>
+      <c r="T12" s="50">
+        <f t="shared" si="1"/>
+        <v>-1.2121145374449083E-2</v>
+      </c>
+      <c r="U12" s="50">
+        <f t="shared" si="1"/>
+        <v>-1.030837004404983E-3</v>
+      </c>
+      <c r="V12" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="68">
+        <f t="shared" si="1"/>
+        <v>-5.4845814977999563E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2203,8 +2698,49 @@
       <c r="K13" s="54">
         <v>0.95140528634361199</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="52">
+        <f t="shared" ref="P13:W16" si="2">D13-MAX(D5,D9,D13,D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="52">
+        <f t="shared" si="2"/>
+        <v>-1.3878854625551051E-2</v>
+      </c>
+      <c r="T13" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="52">
+        <f t="shared" si="2"/>
+        <v>-1.3002202643170979E-2</v>
+      </c>
+      <c r="V13" s="52">
+        <f t="shared" si="2"/>
+        <v>-5.2416299559471025E-2</v>
+      </c>
+      <c r="W13" s="66">
+        <f t="shared" si="2"/>
+        <v>-1.0905286343612985E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2233,8 +2769,45 @@
       <c r="K14" s="15">
         <v>0.94988325991189404</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="49">
+        <f t="shared" si="2"/>
+        <v>-1.1544052863435961E-2</v>
+      </c>
+      <c r="R14" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="49">
+        <f t="shared" si="2"/>
+        <v>-1.2475770925109986E-2</v>
+      </c>
+      <c r="T14" s="49">
+        <f t="shared" si="2"/>
+        <v>-1.136563876651997E-2</v>
+      </c>
+      <c r="U14" s="49">
+        <f t="shared" si="2"/>
+        <v>-1.0455947136564059E-2</v>
+      </c>
+      <c r="V14" s="49">
+        <f t="shared" si="2"/>
+        <v>-2.4511013215859023E-2</v>
+      </c>
+      <c r="W14" s="67">
+        <f t="shared" si="2"/>
+        <v>-1.0196035242290957E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2266,8 +2839,47 @@
       <c r="K15" s="15">
         <v>0.63487224669603504</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="49">
+        <f t="shared" si="2"/>
+        <v>-0.19132599118942706</v>
+      </c>
+      <c r="Q15" s="49">
+        <f t="shared" si="2"/>
+        <v>-0.316640969162996</v>
+      </c>
+      <c r="R15" s="49">
+        <f t="shared" si="2"/>
+        <v>-0.33295154185022102</v>
+      </c>
+      <c r="S15" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="49">
+        <f t="shared" si="2"/>
+        <v>-0.32293832599118999</v>
+      </c>
+      <c r="U15" s="49">
+        <f t="shared" si="2"/>
+        <v>-9.645374449339994E-3</v>
+      </c>
+      <c r="V15" s="49">
+        <f t="shared" si="2"/>
+        <v>-0.332530837004405</v>
+      </c>
+      <c r="W15" s="67">
+        <f t="shared" si="2"/>
+        <v>-0.33190528634361294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2297,8 +2909,45 @@
       <c r="K16" s="51">
         <v>0.62222026431718103</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.28578414096916305</v>
+      </c>
+      <c r="Q16" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.33986123348017594</v>
+      </c>
+      <c r="R16" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.19651101321585895</v>
+      </c>
+      <c r="S16" s="50">
+        <f t="shared" si="2"/>
+        <v>-4.9925110132158057E-2</v>
+      </c>
+      <c r="T16" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.34306828193832606</v>
+      </c>
+      <c r="U16" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.34256607929515404</v>
+      </c>
+      <c r="V16" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.29114537444933897</v>
+      </c>
+      <c r="W16" s="68">
+        <f t="shared" si="2"/>
+        <v>-0.33845154185021997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2332,8 +2981,49 @@
       <c r="K17" s="54">
         <v>0.96231057268722497</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="52">
+        <f t="shared" ref="P17:W20" si="3">D17-MAX(D5,D9,D13,D17)</f>
+        <v>-0.67971145374449304</v>
+      </c>
+      <c r="Q17" s="52">
+        <f t="shared" si="3"/>
+        <v>-1.2004405286339948E-3</v>
+      </c>
+      <c r="R17" s="52">
+        <f t="shared" si="3"/>
+        <v>-0.69981497797356795</v>
+      </c>
+      <c r="S17" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="52">
+        <f t="shared" si="3"/>
+        <v>-3.657929515418501E-2</v>
+      </c>
+      <c r="U17" s="52">
+        <f t="shared" si="3"/>
+        <v>-6.5074889867841046E-2</v>
+      </c>
+      <c r="V17" s="52">
+        <f t="shared" si="3"/>
+        <v>-0.32921806167400902</v>
+      </c>
+      <c r="W17" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -2362,8 +3052,45 @@
       <c r="K18" s="15">
         <v>0.960079295154185</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="4"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.44895374449339198</v>
+      </c>
+      <c r="Q18" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="49">
+        <f t="shared" si="3"/>
+        <v>-3.0883259911894001E-2</v>
+      </c>
+      <c r="S18" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.46617621145374499</v>
+      </c>
+      <c r="W18" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2395,8 +3122,47 @@
       <c r="K19" s="15">
         <v>0.96677753303964797</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.332345814977973</v>
+      </c>
+      <c r="Q19" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.12478193832599105</v>
+      </c>
+      <c r="R19" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.33973788546255501</v>
+      </c>
+      <c r="S19" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.33479295154184996</v>
+      </c>
+      <c r="T19" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.32296035242290799</v>
+      </c>
+      <c r="V19" s="49">
+        <f t="shared" si="3"/>
+        <v>-0.32086563876652008</v>
+      </c>
+      <c r="W19" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2426,8 +3192,45 @@
       <c r="K20" s="51">
         <v>0.960671806167401</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="50">
+        <f t="shared" si="3"/>
+        <v>-0.11037444933920704</v>
+      </c>
+      <c r="Q20" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="50">
+        <f t="shared" si="3"/>
+        <v>-0.251874449339207</v>
+      </c>
+      <c r="W20" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2437,188 +3240,1363 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="M22" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="65"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="47">
+        <f>D5-MAX(D5,D7)</f>
+        <v>-0.19480616740088103</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" ref="E24:K25" si="4">E5-MAX(E5,E7)</f>
+        <v>-1.1037444933921003E-2</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="4"/>
+        <v>-4.9162995594713044E-2</v>
+      </c>
+      <c r="G24" s="47">
+        <f t="shared" si="4"/>
+        <v>-1.2837004405286012E-2</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="4"/>
+        <v>-8.1938325991204319E-4</v>
+      </c>
+      <c r="I24" s="47">
+        <f t="shared" si="4"/>
+        <v>-5.3339207048457959E-2</v>
+      </c>
+      <c r="J24" s="47">
+        <f t="shared" si="4"/>
+        <v>-0.15094493392070496</v>
+      </c>
+      <c r="K24" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="47">
+        <f>D5-MAX(D5,D6)</f>
+        <v>-1.6960352422910052E-3</v>
+      </c>
+      <c r="Q24" s="47">
+        <f t="shared" ref="Q24:W24" si="5">E5-MAX(E5,E6)</f>
+        <v>-1.2449339207047938E-2</v>
+      </c>
+      <c r="R24" s="47">
+        <f t="shared" si="5"/>
+        <v>-6.9383259911890427E-3</v>
+      </c>
+      <c r="S24" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="47">
+        <f t="shared" si="5"/>
+        <v>-1.4563876651982999E-2</v>
+      </c>
+      <c r="U24" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="47">
+        <f t="shared" si="5"/>
+        <v>-1.3275330396475993E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="49">
+        <f>D6-MAX(D6,D8)</f>
+        <v>-0.28170704845814903</v>
+      </c>
+      <c r="E25" s="49">
+        <f t="shared" si="4"/>
+        <v>-1.9682819383260108E-2</v>
+      </c>
+      <c r="F25" s="49">
+        <f t="shared" si="4"/>
+        <v>-0.11338325991189402</v>
+      </c>
+      <c r="G25" s="49">
+        <f t="shared" si="4"/>
+        <v>-2.9398678414098045E-2</v>
+      </c>
+      <c r="H25" s="49">
+        <f t="shared" si="4"/>
+        <v>-1.2942731277532982E-2</v>
+      </c>
+      <c r="I25" s="49">
+        <f t="shared" si="4"/>
+        <v>-0.49130616740088096</v>
+      </c>
+      <c r="J25" s="49">
+        <f t="shared" si="4"/>
+        <v>-0.30110352422907399</v>
+      </c>
+      <c r="K25" s="49">
+        <f t="shared" si="4"/>
+        <v>-1.1270925110132057E-2</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="49">
+        <f>D6-MAX(D5,D6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="49">
+        <f t="shared" ref="Q25:W25" si="6">E6-MAX(E5,E6)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="49">
+        <f t="shared" si="6"/>
+        <v>-5.8017621145379783E-3</v>
+      </c>
+      <c r="T25" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="49">
+        <f t="shared" si="6"/>
+        <v>-0.44316740088105799</v>
+      </c>
+      <c r="V25" s="49">
+        <f t="shared" si="6"/>
+        <v>-0.15418061674008804</v>
+      </c>
+      <c r="W25" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49">
+        <f>D7-MAX(D5,D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="49">
+        <f t="shared" ref="E26:K27" si="7">E7-MAX(E5,E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="49">
+        <f t="shared" si="7"/>
+        <v>-1.5268722466959983E-2</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="47">
+        <f>D7-MAX(D7,D8)</f>
+        <v>-8.8596916299559014E-2</v>
+      </c>
+      <c r="Q26" s="47">
+        <f t="shared" ref="Q26:W26" si="8">E7-MAX(E7,E8)</f>
+        <v>-2.1094713656387043E-2</v>
+      </c>
+      <c r="R26" s="47">
+        <f t="shared" si="8"/>
+        <v>-7.1158590308370018E-2</v>
+      </c>
+      <c r="S26" s="47">
+        <f t="shared" si="8"/>
+        <v>-1.0759911894274055E-2</v>
+      </c>
+      <c r="T26" s="47">
+        <f t="shared" si="8"/>
+        <v>-2.6687224669603937E-2</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="47">
+        <f t="shared" si="8"/>
+        <v>-3.9814977973568033E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="50">
+        <f>D8-MAX(D6,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="49">
+        <f>D8-MAX(D7,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="49">
+        <f t="shared" ref="Q27:W27" si="9">E8-MAX(E7,E8)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="49">
+        <f t="shared" si="9"/>
+        <v>-5.2004405286349975E-3</v>
+      </c>
+      <c r="V27" s="49">
+        <f t="shared" si="9"/>
+        <v>-4.0220264317190058E-3</v>
+      </c>
+      <c r="W27" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="47">
+        <f>D9-MAX(D9,D11)</f>
+        <v>-9.5903083700440428E-3</v>
+      </c>
+      <c r="E28" s="47">
+        <f t="shared" ref="E28:K29" si="10">E9-MAX(E9,E11)</f>
+        <v>-4.204625550660801E-2</v>
+      </c>
+      <c r="F28" s="47">
+        <f t="shared" si="10"/>
+        <v>-2.6231277533039998E-2</v>
+      </c>
+      <c r="G28" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="47">
+        <f t="shared" si="10"/>
+        <v>-1.6013215859031038E-2</v>
+      </c>
+      <c r="K28" s="47">
+        <f t="shared" si="10"/>
+        <v>-5.1129955947136985E-2</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="47">
+        <f>D9-MAX(D9,D10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="47">
+        <f t="shared" ref="Q28:W28" si="11">E9-MAX(E9,E10)</f>
+        <v>-3.9526431718062027E-2</v>
+      </c>
+      <c r="R28" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="47">
+        <f t="shared" si="11"/>
+        <v>-2.4810572687224974E-2</v>
+      </c>
+      <c r="T28" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="47">
+        <f t="shared" si="11"/>
+        <v>-7.1806167400900733E-4</v>
+      </c>
+      <c r="W28" s="47">
+        <f t="shared" si="11"/>
+        <v>-5.1136563876651997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="49">
+        <f>D10-MAX(D10,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="49">
+        <f t="shared" si="10"/>
+        <v>-8.6740088105730084E-3</v>
+      </c>
+      <c r="F29" s="49">
+        <f t="shared" si="10"/>
+        <v>-2.3257709251101044E-2</v>
+      </c>
+      <c r="G29" s="49">
+        <f t="shared" si="10"/>
+        <v>-1.1497797356830874E-3</v>
+      </c>
+      <c r="H29" s="49">
+        <f t="shared" si="10"/>
+        <v>-4.2511013215858928E-2</v>
+      </c>
+      <c r="I29" s="49">
+        <f t="shared" si="10"/>
+        <v>-5.8348017621150383E-3</v>
+      </c>
+      <c r="J29" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="49">
+        <f t="shared" si="10"/>
+        <v>-2.1920704845814987E-2</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="49">
+        <f>D10-MAX(D9,D10)</f>
+        <v>-5.5440528634359554E-3</v>
+      </c>
+      <c r="Q29" s="49">
+        <f t="shared" ref="Q29:W29" si="12">E10-MAX(E9,E10)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="49">
+        <f t="shared" si="12"/>
+        <v>-1.7656387665198059E-2</v>
+      </c>
+      <c r="S29" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="49">
+        <f t="shared" si="12"/>
+        <v>-2.9929515418501973E-2</v>
+      </c>
+      <c r="U29" s="49">
+        <f t="shared" si="12"/>
+        <v>-6.1409691629950025E-3</v>
+      </c>
+      <c r="V29" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="49">
+        <f>D11-MAX(D9,D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="49">
+        <f t="shared" ref="E30:K31" si="13">E11-MAX(E9,E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="49">
+        <f t="shared" si="13"/>
+        <v>-9.1784140969159989E-3</v>
+      </c>
+      <c r="H30" s="49">
+        <f t="shared" si="13"/>
+        <v>-1.5359030837004961E-2</v>
+      </c>
+      <c r="I30" s="49">
+        <f t="shared" si="13"/>
+        <v>-3.4140969162899104E-4</v>
+      </c>
+      <c r="J30" s="49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="47">
+        <f>D11-MAX(D11,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="47">
+        <f t="shared" ref="Q30:W30" si="14">E11-MAX(E11,E12)</f>
+        <v>-6.1541850220270256E-3</v>
+      </c>
+      <c r="R30" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="47">
+        <f t="shared" si="14"/>
+        <v>-3.5138766519824061E-2</v>
+      </c>
+      <c r="T30" s="47">
+        <f t="shared" si="14"/>
+        <v>-2.7940528634361916E-2</v>
+      </c>
+      <c r="U30" s="47">
+        <f t="shared" si="14"/>
+        <v>-3.524229074902685E-5</v>
+      </c>
+      <c r="V30" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="47">
+        <f t="shared" si="14"/>
+        <v>-2.1927312775329999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="50">
+        <f>D12-MAX(D10,D12)</f>
+        <v>-2.161674008810599E-2</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="50">
+        <f t="shared" si="13"/>
+        <v>-2.3392070484580252E-3</v>
+      </c>
+      <c r="K31" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="49">
+        <f>D12-MAX(D11,D12)</f>
+        <v>-3.6751101321585988E-2</v>
+      </c>
+      <c r="Q31" s="49">
+        <f t="shared" ref="Q31:W31" si="15">E12-MAX(E11,E12)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="49">
+        <f t="shared" si="15"/>
+        <v>-2.0629955947137013E-2</v>
+      </c>
+      <c r="S31" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="49">
+        <f t="shared" si="15"/>
+        <v>-1.7634361233480056E-2</v>
+      </c>
+      <c r="W31" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="47">
+        <f>D13-MAX(D13,D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="47">
+        <f t="shared" ref="E32:K33" si="16">E13-MAX(E13,E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="47">
+        <f t="shared" si="16"/>
+        <v>-3.0154185022019941E-3</v>
+      </c>
+      <c r="J32" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="47">
+        <f>D13-MAX(D13,D14)</f>
+        <v>-2.4779735682819437E-3</v>
+      </c>
+      <c r="Q32" s="47">
+        <f t="shared" ref="Q32:W32" si="17">E13-MAX(E13,E14)</f>
+        <v>-1.8105726872250649E-3</v>
+      </c>
+      <c r="R32" s="47">
+        <f t="shared" si="17"/>
+        <v>-5.5726872246699699E-3</v>
+      </c>
+      <c r="S32" s="47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="47">
+        <f t="shared" si="17"/>
+        <v>-1.6828193832599814E-3</v>
+      </c>
+      <c r="U32" s="47">
+        <f t="shared" si="17"/>
+        <v>-3.6563876651979355E-3</v>
+      </c>
+      <c r="V32" s="47">
+        <f t="shared" si="17"/>
+        <v>-2.8623348017621009E-2</v>
+      </c>
+      <c r="W32" s="47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="49">
+        <f>D14-MAX(D14,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="49">
+        <f>D14-MAX(D13,D14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="49">
+        <f t="shared" ref="Q33:W33" si="18">E14-MAX(E13,E14)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="49">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="49">
+        <f t="shared" si="18"/>
+        <v>-2.1277533039649743E-3</v>
+      </c>
+      <c r="T33" s="49">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="49">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="49">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="49">
+        <f t="shared" si="18"/>
+        <v>-1.5220264317179488E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="49">
+        <f>D15-MAX(D13,D15)</f>
+        <v>-0.19432158590308302</v>
+      </c>
+      <c r="E34" s="49">
+        <f t="shared" ref="E34:K35" si="19">E15-MAX(E13,E15)</f>
+        <v>-0.31995594713656395</v>
+      </c>
+      <c r="F34" s="49">
+        <f t="shared" si="19"/>
+        <v>-0.321819383259912</v>
+      </c>
+      <c r="G34" s="49">
+        <f t="shared" si="19"/>
+        <v>-1.4823788546259875E-3</v>
+      </c>
+      <c r="H34" s="49">
+        <f t="shared" si="19"/>
+        <v>-0.30794493392070499</v>
+      </c>
+      <c r="I34" s="49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="49">
+        <f t="shared" si="19"/>
+        <v>-0.26410132158590294</v>
+      </c>
+      <c r="K34" s="49">
+        <f t="shared" si="19"/>
+        <v>-0.31653303964757695</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="47">
+        <f>D15-MAX(D15,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="47">
+        <f t="shared" ref="Q34:W34" si="20">E15-MAX(E15,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="47">
+        <f t="shared" si="20"/>
+        <v>-0.11671365638766606</v>
+      </c>
+      <c r="S34" s="47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="47">
+        <f t="shared" si="20"/>
+        <v>-2.3751101321585977E-2</v>
+      </c>
+      <c r="W34" s="47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="50">
+        <f>D16-MAX(D14,D16)</f>
+        <v>-0.32800881057268694</v>
+      </c>
+      <c r="E35" s="50">
+        <f t="shared" si="19"/>
+        <v>-0.33005066079295198</v>
+      </c>
+      <c r="F35" s="50">
+        <f t="shared" si="19"/>
+        <v>-0.2106784140969159</v>
+      </c>
+      <c r="G35" s="50">
+        <f t="shared" si="19"/>
+        <v>-3.9539647577092052E-2</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="19"/>
+        <v>-0.33160352422907502</v>
+      </c>
+      <c r="I35" s="50">
+        <f t="shared" si="19"/>
+        <v>-0.33249559471365597</v>
+      </c>
+      <c r="J35" s="50">
+        <f t="shared" si="19"/>
+        <v>-0.26897356828193797</v>
+      </c>
+      <c r="K35" s="50">
+        <f t="shared" si="19"/>
+        <v>-0.32766299559471301</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="49">
+        <f>D16-MAX(D15,D16)</f>
+        <v>-0.13120925110132198</v>
+      </c>
+      <c r="Q35" s="49">
+        <f t="shared" ref="Q35:W35" si="21">E16-MAX(E15,E16)</f>
+        <v>-8.2841409691629675E-3</v>
+      </c>
+      <c r="R35" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="49">
+        <f t="shared" si="21"/>
+        <v>-4.0185022026431039E-2</v>
+      </c>
+      <c r="T35" s="49">
+        <f t="shared" si="21"/>
+        <v>-2.197577092511005E-2</v>
+      </c>
+      <c r="U35" s="49">
+        <f t="shared" si="21"/>
+        <v>-0.33185462555066003</v>
+      </c>
+      <c r="V35" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="49">
+        <f t="shared" si="21"/>
+        <v>-1.265198237885401E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="47">
+        <f>D17-MAX(D17,D19)</f>
+        <v>-0.34437004405286403</v>
+      </c>
+      <c r="E36" s="47">
+        <f t="shared" ref="E36:K37" si="22">E17-MAX(E17,E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="47">
+        <f t="shared" si="22"/>
+        <v>-0.37120925110132197</v>
+      </c>
+      <c r="G36" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="47">
+        <f t="shared" si="22"/>
+        <v>-5.1572687224670011E-2</v>
+      </c>
+      <c r="I36" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="47">
+        <f t="shared" si="22"/>
+        <v>-2.4365638766519981E-2</v>
+      </c>
+      <c r="K36" s="47">
+        <f t="shared" si="22"/>
+        <v>-4.4669603524229995E-3</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="47">
+        <f>D17-MAX(D17,D18)</f>
+        <v>-0.23323568281938295</v>
+      </c>
+      <c r="Q36" s="47">
+        <f t="shared" ref="Q36:W36" si="23">E17-MAX(E17,E18)</f>
+        <v>-1.455506607929502E-2</v>
+      </c>
+      <c r="R36" s="47">
+        <f t="shared" si="23"/>
+        <v>-0.67450440528634392</v>
+      </c>
+      <c r="S36" s="47">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="47">
+        <f t="shared" si="23"/>
+        <v>-4.9627753303964961E-2</v>
+      </c>
+      <c r="U36" s="47">
+        <f t="shared" si="23"/>
+        <v>-6.6185022026432061E-2</v>
+      </c>
+      <c r="V36" s="47">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="47">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="49">
+        <f>D18-MAX(D18,D20)</f>
+        <v>-0.29635462555066105</v>
+      </c>
+      <c r="E37" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="49">
+        <f t="shared" si="22"/>
+        <v>-1.6715859030837055E-2</v>
+      </c>
+      <c r="G37" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="49">
+        <f t="shared" si="22"/>
+        <v>-9.9118942731069026E-5</v>
+      </c>
+      <c r="I37" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="49">
+        <f t="shared" si="22"/>
+        <v>-0.21196255506607997</v>
+      </c>
+      <c r="K37" s="49">
+        <f t="shared" si="22"/>
+        <v>-5.9251101321600164E-4</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="49">
+        <f>D18-MAX(D17,D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="49">
+        <f t="shared" ref="Q37:W37" si="24">E18-MAX(E17,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="49">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="49">
+        <f t="shared" si="24"/>
+        <v>-3.53083700440604E-3</v>
+      </c>
+      <c r="T37" s="49">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="49">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="49">
+        <f t="shared" si="24"/>
+        <v>-0.13624008810572696</v>
+      </c>
+      <c r="W37" s="49">
+        <f t="shared" si="24"/>
+        <v>-2.231277533039977E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="49">
+        <f>D19-MAX(D17,D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="49">
+        <f t="shared" ref="E38:K39" si="25">E19-MAX(E17,E19)</f>
+        <v>-0.126896475770925</v>
+      </c>
+      <c r="F38" s="49">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="49">
+        <f t="shared" si="25"/>
+        <v>-0.350154185022027</v>
+      </c>
+      <c r="H38" s="49">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="49">
+        <f t="shared" si="25"/>
+        <v>-0.25822687224669594</v>
+      </c>
+      <c r="J38" s="49">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="49">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="47">
+        <f>D19-MAX(D19,D20)</f>
+        <v>-0.18522026431717997</v>
+      </c>
+      <c r="Q38" s="47">
+        <f t="shared" ref="Q38:W38" si="26">E19-MAX(E19,E20)</f>
+        <v>-0.13971806167400802</v>
+      </c>
+      <c r="R38" s="47">
+        <f t="shared" si="26"/>
+        <v>-0.32001101321585901</v>
+      </c>
+      <c r="S38" s="47">
+        <f t="shared" si="26"/>
+        <v>-0.34453303964757698</v>
+      </c>
+      <c r="T38" s="47">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="47">
+        <f t="shared" si="26"/>
+        <v>-0.324026431718062</v>
+      </c>
+      <c r="V38" s="47">
+        <f t="shared" si="26"/>
+        <v>-5.1356828193833026E-2</v>
+      </c>
+      <c r="W38" s="47">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="50">
+        <f>D20-MAX(D18,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="50">
+        <f t="shared" si="25"/>
+        <v>-1.7334801762119989E-3</v>
+      </c>
+      <c r="F39" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="50">
+        <f t="shared" si="25"/>
+        <v>-2.0903083700439806E-3</v>
+      </c>
+      <c r="H39" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="50">
+        <f t="shared" si="25"/>
+        <v>-3.8546255506599625E-4</v>
+      </c>
+      <c r="J39" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="49">
+        <f>D20-MAX(D19,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="49">
+        <f t="shared" ref="Q39:W39" si="27">E20-MAX(E19,E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="49">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="49">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="49">
+        <f t="shared" si="27"/>
+        <v>-1.8458149779739808E-3</v>
+      </c>
+      <c r="U39" s="49">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="49">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="49">
+        <f t="shared" si="27"/>
+        <v>-6.1057268722469749E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2628,7 +4606,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2638,7 +4616,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -2648,7 +4626,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -2658,7 +4636,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -2668,7 +4646,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -2678,7 +4656,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -2688,7 +4666,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -2698,7 +4676,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -2759,8 +4737,12 @@
       <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,61 +4771,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="57" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="57" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="57" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="57" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="57" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="57" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="59"/>
+      <c r="S3" s="61"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -4128,19 +6110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -4731,19 +6713,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -5341,19 +7323,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6269,19 +8251,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7039,19 +9021,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7967,19 +9949,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8737,19 +10719,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9507,19 +11489,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10277,19 +12259,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11028,7 +13010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6E2BB-CD7E-4FA9-A81B-F3147CB217E2}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -11052,24 +13034,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11079,29 +13061,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="57" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="57" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="59"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -11163,7 +13145,7 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="55">
         <v>128</v>
       </c>
       <c r="E5" s="35">
@@ -11869,7 +13851,7 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="56">
         <v>3.90625E-3</v>
       </c>
       <c r="E20" s="43">

--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A66F3C-C384-47DD-959E-256028D2BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0686E150-84F2-4640-B610-3175622DA747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1647,7 +1647,25 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1663,24 +1681,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1965,72 +1965,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-      <c r="M3" s="63" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="M3" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="65"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2169,12 +2169,12 @@
         <f t="shared" si="0"/>
         <v>-0.365370044052863</v>
       </c>
-      <c r="W5" s="66">
+      <c r="W5" s="57">
         <f t="shared" si="0"/>
         <v>-3.8105726872247003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2236,12 +2236,12 @@
         <f t="shared" si="0"/>
         <v>-0.52026872246695999</v>
       </c>
-      <c r="W6" s="67">
+      <c r="W6" s="58">
         <f t="shared" si="0"/>
         <v>-2.2599118942731033E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2308,12 +2308,12 @@
         <f t="shared" si="0"/>
         <v>-0.23043832599118907</v>
       </c>
-      <c r="W7" s="67">
+      <c r="W7" s="58">
         <f t="shared" si="0"/>
         <v>-5.7841409691629986E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2376,12 +2376,12 @@
         <f t="shared" si="0"/>
         <v>-0.21682599118942802</v>
       </c>
-      <c r="W8" s="68">
+      <c r="W8" s="59">
         <f t="shared" si="0"/>
         <v>-1.1920704845814978E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2452,12 +2452,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W9" s="66">
+      <c r="W9" s="57">
         <f t="shared" si="1"/>
         <v>-7.5244493392070955E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2519,12 +2519,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W10" s="67">
+      <c r="W10" s="58">
         <f t="shared" si="1"/>
         <v>-2.1876651982378981E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2591,12 +2591,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W11" s="67">
+      <c r="W11" s="58">
         <f t="shared" si="1"/>
         <v>-2.8581497797356969E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2659,12 +2659,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12" s="68">
+      <c r="W12" s="59">
         <f t="shared" si="1"/>
         <v>-5.4845814977999563E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2735,12 +2735,12 @@
         <f t="shared" si="2"/>
         <v>-5.2416299559471025E-2</v>
       </c>
-      <c r="W13" s="66">
+      <c r="W13" s="57">
         <f t="shared" si="2"/>
         <v>-1.0905286343612985E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2802,12 +2802,12 @@
         <f t="shared" si="2"/>
         <v>-2.4511013215859023E-2</v>
       </c>
-      <c r="W14" s="67">
+      <c r="W14" s="58">
         <f t="shared" si="2"/>
         <v>-1.0196035242290957E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2874,12 +2874,12 @@
         <f t="shared" si="2"/>
         <v>-0.332530837004405</v>
       </c>
-      <c r="W15" s="67">
+      <c r="W15" s="58">
         <f t="shared" si="2"/>
         <v>-0.33190528634361294</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2942,12 +2942,12 @@
         <f t="shared" si="2"/>
         <v>-0.29114537444933897</v>
       </c>
-      <c r="W16" s="68">
+      <c r="W16" s="59">
         <f t="shared" si="2"/>
         <v>-0.33845154185021997</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3018,12 +3018,12 @@
         <f t="shared" si="3"/>
         <v>-0.32921806167400902</v>
       </c>
-      <c r="W17" s="66">
+      <c r="W17" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -3085,12 +3085,12 @@
         <f t="shared" si="3"/>
         <v>-0.46617621145374499</v>
       </c>
-      <c r="W18" s="67">
+      <c r="W18" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3157,12 +3157,12 @@
         <f t="shared" si="3"/>
         <v>-0.32086563876652008</v>
       </c>
-      <c r="W19" s="67">
+      <c r="W19" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3225,12 +3225,12 @@
         <f t="shared" si="3"/>
         <v>-0.251874449339207</v>
       </c>
-      <c r="W20" s="68">
+      <c r="W20" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -3240,35 +3240,35 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="M22" s="63" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="M22" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="65"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="63"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>-1.3275330396475993E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
@@ -3575,7 +3575,7 @@
         <v>-3.9814977973568033E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>-5.1136563876651997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>-2.1927312775329999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -4125,7 +4125,7 @@
         <v>-1.5220264317179488E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1">
         <v>2</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -4281,7 +4281,7 @@
         <v>-1.265198237885401E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -4440,7 +4440,7 @@
         <v>-2.231277533039977E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="1">
         <v>2</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
@@ -4596,7 +4596,7 @@
         <v>-6.1057268722469749E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -4606,7 +4606,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -4616,7 +4616,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -4626,7 +4626,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -4636,7 +4636,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4646,7 +4646,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -4656,7 +4656,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -4666,7 +4666,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -4676,7 +4676,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -4686,7 +4686,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -4696,7 +4696,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -4706,7 +4706,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -4716,7 +4716,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -4726,7 +4726,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -4756,78 +4756,78 @@
       <selection activeCell="D5" sqref="D5:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="62" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="59" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="59" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="66"/>
+      <c r="P3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="59" t="s">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="61"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="67"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>102400100000000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -4999,7 +4999,7 @@
         <v>102400100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -5056,7 +5056,7 @@
         <v>102400100000000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -5111,7 +5111,7 @@
         <v>102400100000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -5281,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5449,7 +5449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -5506,7 +5506,7 @@
         <v>400097656250000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -5561,7 +5561,7 @@
         <v>800097656250000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>200097656250000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5674,7 +5674,7 @@
         <v>102400097656250</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5731,7 +5731,7 @@
         <v>640009765625000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5786,10 +5786,10 @@
         <v>512000976562500</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5806,7 +5806,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -5823,7 +5823,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -5840,7 +5840,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5857,7 +5857,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5874,7 +5874,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -5891,7 +5891,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -5908,7 +5908,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -5925,7 +5925,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -5942,7 +5942,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -5959,7 +5959,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5976,7 +5976,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5993,7 +5993,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6010,7 +6010,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6027,7 +6027,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6044,7 +6044,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6061,7 +6061,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6102,39 +6102,39 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -6235,7 +6235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6268,7 +6268,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6299,7 +6299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -6365,7 +6365,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6429,7 +6429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -6495,7 +6495,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6528,7 +6528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6559,7 +6559,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -6625,7 +6625,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -6658,7 +6658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6705,39 +6705,39 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -6838,7 +6838,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6871,7 +6871,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6902,7 +6902,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -6968,7 +6968,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7001,7 +7001,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7032,7 +7032,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -7098,7 +7098,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7162,7 +7162,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -7228,7 +7228,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7261,7 +7261,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7308,37 +7308,37 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>1.38845038066466E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7438,7 +7438,7 @@
         <v>1.05351087614896E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7471,7 +7471,7 @@
         <v>1.7785831432045301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7502,7 +7502,7 @@
         <v>8.3656548878919598E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>2.49774999403778E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7567,7 +7567,7 @@
         <v>9.7346327344933498E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7600,7 +7600,7 @@
         <v>9.3896542978780008E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7631,7 +7631,7 @@
         <v>6.3847046384691696E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>8.8123401867022597E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7696,7 +7696,7 @@
         <v>1.00553726978924E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7729,7 +7729,7 @@
         <v>0.10077634497173001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7760,7 +7760,7 @@
         <v>8.9865312631561098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>4.4440398166567998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7825,7 +7825,7 @@
         <v>7.2102775817640199E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7858,7 +7858,7 @@
         <v>4.4452703098963901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7889,7 +7889,7 @@
         <v>4.9093514512347503E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -7899,7 +7899,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -7910,7 +7910,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -7920,7 +7920,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -7930,7 +7930,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -7940,7 +7940,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -7950,7 +7950,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -7960,7 +7960,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -7970,7 +7970,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -7980,7 +7980,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -7990,7 +7990,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -8000,7 +8000,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -8010,7 +8010,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -8020,7 +8020,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -8030,7 +8030,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -8040,7 +8040,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -8050,7 +8050,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8060,7 +8060,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8070,7 +8070,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8080,7 +8080,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8090,7 +8090,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8100,7 +8100,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8110,7 +8110,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8120,7 +8120,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8130,7 +8130,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8140,7 +8140,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8150,7 +8150,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8160,7 +8160,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8170,7 +8170,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8180,7 +8180,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8190,7 +8190,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8200,7 +8200,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8210,7 +8210,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8236,37 +8236,37 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>0.92676211453744495</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8366,7 +8366,7 @@
         <v>0.93810572687224703</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8399,7 +8399,7 @@
         <v>0.91013215859030805</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8430,7 +8430,7 @@
         <v>0.94966960352422902</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.89008810572687203</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8495,7 +8495,7 @@
         <v>0.938766519823789</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>0.93920704845814995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8559,7 +8559,7 @@
         <v>0.96035242290748901</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0.95308370044052904</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -8624,7 +8624,7 @@
         <v>0.95066079295154204</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -8657,7 +8657,7 @@
         <v>0.65363436123347995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8688,7 +8688,7 @@
         <v>0.63171806167400901</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>0.961894273127753</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -8753,7 +8753,7 @@
         <v>0.96057268722467004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -8786,7 +8786,7 @@
         <v>0.96718061674008804</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -8817,10 +8817,10 @@
         <v>0.96123348017621202</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8830,7 +8830,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8840,7 +8840,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8850,7 +8850,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8860,7 +8860,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8870,7 +8870,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8880,7 +8880,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8890,7 +8890,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8900,7 +8900,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8910,7 +8910,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8920,7 +8920,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8930,7 +8930,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8940,7 +8940,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8950,7 +8950,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8960,7 +8960,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8970,7 +8970,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8980,7 +8980,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9006,37 +9006,37 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>0.94713656387665202</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -9136,7 +9136,7 @@
         <v>0.959471365638767</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9169,7 +9169,7 @@
         <v>0.94317180616740104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -9200,7 +9200,7 @@
         <v>0.96563876651982405</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>0.94162995594713705</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -9265,7 +9265,7 @@
         <v>0.95484581497797405</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -9298,7 +9298,7 @@
         <v>0.96784140969163002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -9329,7 +9329,7 @@
         <v>0.97400881057268696</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0.97290748898678403</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9394,7 +9394,7 @@
         <v>0.97246696035242297</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9427,7 +9427,7 @@
         <v>0.79537444933920698</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9458,7 +9458,7 @@
         <v>0.81762114537444897</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>0.97202643171806202</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9523,7 +9523,7 @@
         <v>0.97709251101321604</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9556,7 +9556,7 @@
         <v>0.97753303964757698</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -9587,7 +9587,7 @@
         <v>0.96982378854625595</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -9597,7 +9597,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -9608,7 +9608,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -9618,7 +9618,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -9628,7 +9628,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -9638,7 +9638,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -9648,7 +9648,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -9658,7 +9658,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -9668,7 +9668,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -9678,7 +9678,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -9688,7 +9688,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -9698,7 +9698,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -9708,7 +9708,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -9718,7 +9718,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -9728,7 +9728,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -9738,7 +9738,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -9748,7 +9748,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9758,7 +9758,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9768,7 +9768,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9778,7 +9778,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9788,7 +9788,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9798,7 +9798,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9808,7 +9808,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9818,7 +9818,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9828,7 +9828,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9838,7 +9838,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9848,7 +9848,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9858,7 +9858,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9868,7 +9868,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9878,7 +9878,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9888,7 +9888,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9898,7 +9898,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9908,7 +9908,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9930,41 +9930,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -10064,7 +10064,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10097,7 +10097,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -10128,7 +10128,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -10193,7 +10193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10226,7 +10226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -10257,7 +10257,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -10322,7 +10322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -10355,7 +10355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -10386,7 +10386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -10451,7 +10451,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -10484,7 +10484,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -10515,10 +10515,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10528,7 +10528,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10538,7 +10538,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10548,7 +10548,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10558,7 +10558,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10568,7 +10568,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -10578,7 +10578,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -10588,7 +10588,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -10598,7 +10598,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -10608,7 +10608,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10618,7 +10618,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -10628,7 +10628,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -10638,7 +10638,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10648,7 +10648,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -10658,7 +10658,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10668,7 +10668,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10678,7 +10678,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -10701,40 +10701,34 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -10769,7 +10763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10804,7 +10798,7 @@
         <v>114840000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -10834,7 +10828,7 @@
         <v>186790000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10867,7 +10861,7 @@
         <v>106820000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -10898,7 +10892,7 @@
         <v>161720000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10933,7 +10927,7 @@
         <v>575800000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -10963,7 +10957,7 @@
         <v>151200000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10996,7 +10990,7 @@
         <v>140270000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -11027,7 +11021,7 @@
         <v>196060000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11062,7 +11056,7 @@
         <v>712600000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -11092,7 +11086,7 @@
         <v>768800000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -11125,7 +11119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -11156,7 +11150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -11191,7 +11185,7 @@
         <v>691880000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -11221,7 +11215,7 @@
         <v>124770000000000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -11254,7 +11248,7 @@
         <v>713320000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -11285,10 +11279,13 @@
         <v>248810000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11298,7 +11295,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11308,7 +11305,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -11318,7 +11315,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -11328,7 +11325,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -11338,7 +11335,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -11348,7 +11345,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -11358,7 +11355,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -11368,7 +11365,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -11378,7 +11375,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11388,7 +11385,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -11398,7 +11395,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -11408,7 +11405,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -11418,7 +11415,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -11428,7 +11425,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -11438,7 +11435,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -11448,7 +11445,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -11474,37 +11471,37 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -11539,7 +11536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -11574,7 +11571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -11604,7 +11601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -11637,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -11668,7 +11665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -11703,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -11733,7 +11730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -11766,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -11797,7 +11794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11832,7 +11829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -11862,7 +11859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -11895,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -11926,7 +11923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -11961,7 +11958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -11991,7 +11988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -12024,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -12055,10 +12052,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12068,7 +12065,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -12078,7 +12075,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -12088,7 +12085,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -12098,7 +12095,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -12108,7 +12105,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -12118,7 +12115,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -12128,7 +12125,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -12138,7 +12135,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -12148,7 +12145,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -12158,7 +12155,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -12168,7 +12165,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -12178,7 +12175,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -12188,7 +12185,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -12198,7 +12195,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -12208,7 +12205,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -12218,7 +12215,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -12244,37 +12241,37 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -12344,7 +12341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -12374,7 +12371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -12407,7 +12404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -12438,7 +12435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -12473,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -12503,7 +12500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -12536,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -12567,7 +12564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -12602,7 +12599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -12632,7 +12629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -12665,7 +12662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -12696,7 +12693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -12731,7 +12728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -12761,7 +12758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -12794,7 +12791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -12825,10 +12822,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12838,7 +12835,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -12848,7 +12845,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -12858,7 +12855,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -12868,7 +12865,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -12878,7 +12875,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -12888,7 +12885,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -12898,7 +12895,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -12908,7 +12905,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -12918,7 +12915,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -12928,7 +12925,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -12938,7 +12935,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -12948,7 +12945,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -12958,7 +12955,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -12968,7 +12965,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -12978,7 +12975,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -12988,7 +12985,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -13014,78 +13011,78 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="59" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="61"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="67"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -13135,7 +13132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -13185,7 +13182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
@@ -13230,7 +13227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -13278,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
@@ -13324,7 +13321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -13374,7 +13371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
@@ -13419,7 +13416,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -13467,7 +13464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="23" t="s">
@@ -13513,7 +13510,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -13563,7 +13560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -13608,7 +13605,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -13656,7 +13653,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="23" t="s">
@@ -13702,7 +13699,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -13752,7 +13749,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
@@ -13797,7 +13794,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -13845,7 +13842,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="23" t="s">
@@ -13891,10 +13888,10 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -13908,7 +13905,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -13922,7 +13919,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -13936,7 +13933,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -13950,7 +13947,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -13964,7 +13961,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -13978,7 +13975,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -13992,7 +13989,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -14006,7 +14003,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -14020,7 +14017,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -14034,7 +14031,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -14048,7 +14045,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -14062,7 +14059,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -14076,7 +14073,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -14090,7 +14087,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -14104,7 +14101,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -14118,7 +14115,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>

--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0686E150-84F2-4640-B610-3175622DA747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A554E-02BF-4AB8-82E0-3D9E0FC083EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="v1_v2_best" sheetId="13" r:id="rId10"/>
     <sheet name="MCC" sheetId="14" r:id="rId11"/>
     <sheet name="F1S" sheetId="15" r:id="rId12"/>
+    <sheet name="Comp" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="320">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -1477,7 +1478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1681,6 +1682,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1963,10 +1988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1986,7 +2011,7 @@
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
@@ -2001,8 +2026,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="61" t="s">
         <v>316</v>
       </c>
@@ -2016,21 +2041,8 @@
       <c r="I3" s="62"/>
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
-      <c r="M3" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="63"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2064,41 +2076,8 @@
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2132,49 +2111,8 @@
       <c r="K5" s="48">
         <v>0.92420484581497797</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="52">
-        <f t="shared" ref="P5:W8" si="0">D5-MAX(D5,D9,D13,D17)</f>
-        <v>-0.49532158590308301</v>
-      </c>
-      <c r="Q5" s="52">
-        <f t="shared" si="0"/>
-        <v>-2.8656387665197958E-2</v>
-      </c>
-      <c r="R5" s="52">
-        <f t="shared" si="0"/>
-        <v>-0.19340969162995503</v>
-      </c>
-      <c r="S5" s="52">
-        <f t="shared" si="0"/>
-        <v>-3.5561674008811051E-2</v>
-      </c>
-      <c r="T5" s="52">
-        <f t="shared" si="0"/>
-        <v>-2.5405286343613054E-2</v>
-      </c>
-      <c r="U5" s="52">
-        <f t="shared" si="0"/>
-        <v>-5.5885462555064991E-2</v>
-      </c>
-      <c r="V5" s="52">
-        <f t="shared" si="0"/>
-        <v>-0.365370044052863</v>
-      </c>
-      <c r="W5" s="57">
-        <f t="shared" si="0"/>
-        <v>-3.8105726872247003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2203,45 +2141,8 @@
       <c r="K6" s="15">
         <v>0.93748017621145396</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="49">
-        <f t="shared" si="0"/>
-        <v>-0.49610352422907394</v>
-      </c>
-      <c r="Q6" s="49">
-        <f t="shared" si="0"/>
-        <v>-2.9561674008811045E-2</v>
-      </c>
-      <c r="R6" s="49">
-        <f t="shared" si="0"/>
-        <v>-0.19204405286343595</v>
-      </c>
-      <c r="S6" s="49">
-        <f t="shared" si="0"/>
-        <v>-3.7832599118942989E-2</v>
-      </c>
-      <c r="T6" s="49">
-        <f t="shared" si="0"/>
-        <v>-2.3889867841410006E-2</v>
-      </c>
-      <c r="U6" s="49">
-        <f t="shared" si="0"/>
-        <v>-0.500162995594714</v>
-      </c>
-      <c r="V6" s="49">
-        <f t="shared" si="0"/>
-        <v>-0.52026872246695999</v>
-      </c>
-      <c r="W6" s="58">
-        <f t="shared" si="0"/>
-        <v>-2.2599118942731033E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2273,47 +2174,8 @@
       <c r="K7" s="15">
         <v>0.90893612334801799</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="49">
-        <f t="shared" si="0"/>
-        <v>-0.29751982378854602</v>
-      </c>
-      <c r="Q7" s="49">
-        <f t="shared" si="0"/>
-        <v>-1.4303964757709009E-2</v>
-      </c>
-      <c r="R7" s="49">
-        <f t="shared" si="0"/>
-        <v>-0.15537885462555101</v>
-      </c>
-      <c r="S7" s="49">
-        <f t="shared" si="0"/>
-        <v>-7.3634361233479995E-3</v>
-      </c>
-      <c r="T7" s="49">
-        <f t="shared" si="0"/>
-        <v>-3.9579295154186012E-2</v>
-      </c>
-      <c r="U7" s="49">
-        <f t="shared" si="0"/>
-        <v>-2.2048458149780403E-3</v>
-      </c>
-      <c r="V7" s="49">
-        <f t="shared" si="0"/>
-        <v>-0.23043832599118907</v>
-      </c>
-      <c r="W7" s="58">
-        <f t="shared" si="0"/>
-        <v>-5.7841409691629986E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2343,45 +2205,8 @@
       <c r="K8" s="51">
         <v>0.94875110132158602</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="50">
-        <f t="shared" si="0"/>
-        <v>-0.17217180616740102</v>
-      </c>
-      <c r="Q8" s="50">
-        <f t="shared" si="0"/>
-        <v>-8.1453744493389379E-3</v>
-      </c>
-      <c r="R8" s="50">
-        <f t="shared" si="0"/>
-        <v>-6.4493392070484989E-2</v>
-      </c>
-      <c r="S8" s="50">
-        <f t="shared" si="0"/>
-        <v>-6.3436123348009632E-3</v>
-      </c>
-      <c r="T8" s="50">
-        <f t="shared" si="0"/>
-        <v>-1.1046255506608094E-2</v>
-      </c>
-      <c r="U8" s="50">
-        <f t="shared" si="0"/>
-        <v>-8.4713656387670477E-3</v>
-      </c>
-      <c r="V8" s="50">
-        <f t="shared" si="0"/>
-        <v>-0.21682599118942802</v>
-      </c>
-      <c r="W8" s="59">
-        <f t="shared" si="0"/>
-        <v>-1.1920704845814978E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2415,49 +2240,8 @@
       <c r="K9" s="54">
         <v>0.88706607929515402</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="52">
-        <f t="shared" ref="P9:W12" si="1">D9-MAX(D5,D9,D13,D17)</f>
-        <v>-1.2585903083700001E-2</v>
-      </c>
-      <c r="Q9" s="52">
-        <f t="shared" si="1"/>
-        <v>-4.5361233480175955E-2</v>
-      </c>
-      <c r="R9" s="52">
-        <f t="shared" si="1"/>
-        <v>-1.5099118942730971E-2</v>
-      </c>
-      <c r="S9" s="52">
-        <f t="shared" si="1"/>
-        <v>-4.1724669603525055E-2</v>
-      </c>
-      <c r="T9" s="52">
-        <f t="shared" si="1"/>
-        <v>-1.1555066079295018E-2</v>
-      </c>
-      <c r="U9" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="57">
-        <f t="shared" si="1"/>
-        <v>-7.5244493392070955E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2486,45 +2270,8 @@
       <c r="K10" s="15">
         <v>0.93820264317180602</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="49">
-        <f t="shared" si="1"/>
-        <v>-2.06079295154179E-2</v>
-      </c>
-      <c r="Q10" s="49">
-        <f t="shared" si="1"/>
-        <v>-1.9189427312774954E-2</v>
-      </c>
-      <c r="R10" s="49">
-        <f t="shared" si="1"/>
-        <v>-3.8328193832599E-2</v>
-      </c>
-      <c r="S10" s="49">
-        <f t="shared" si="1"/>
-        <v>-1.3383259911894041E-2</v>
-      </c>
-      <c r="T10" s="49">
-        <f t="shared" si="1"/>
-        <v>-5.4533039647576942E-2</v>
-      </c>
-      <c r="U10" s="49">
-        <f t="shared" si="1"/>
-        <v>-7.2511013215860176E-3</v>
-      </c>
-      <c r="V10" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="58">
-        <f t="shared" si="1"/>
-        <v>-2.1876651982378981E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2556,47 +2303,8 @@
       <c r="K11" s="15">
         <v>0.938196035242291</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="49">
-        <f t="shared" si="1"/>
-        <v>-3.5541850220264015E-2</v>
-      </c>
-      <c r="T11" s="49">
-        <f t="shared" si="1"/>
-        <v>-4.190748898678498E-2</v>
-      </c>
-      <c r="U11" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="58">
-        <f t="shared" si="1"/>
-        <v>-2.8581497797356969E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2626,45 +2334,8 @@
       <c r="K12" s="51">
         <v>0.960123348017621</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="50">
-        <f t="shared" si="1"/>
-        <v>-8.7819383259899464E-3</v>
-      </c>
-      <c r="R12" s="50">
-        <f t="shared" si="1"/>
-        <v>-9.0308370044100972E-4</v>
-      </c>
-      <c r="S12" s="50">
-        <f t="shared" si="1"/>
-        <v>-1.0143171806166973E-2</v>
-      </c>
-      <c r="T12" s="50">
-        <f t="shared" si="1"/>
-        <v>-1.2121145374449083E-2</v>
-      </c>
-      <c r="U12" s="50">
-        <f t="shared" si="1"/>
-        <v>-1.030837004404983E-3</v>
-      </c>
-      <c r="V12" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="59">
-        <f t="shared" si="1"/>
-        <v>-5.4845814977999563E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2698,49 +2369,8 @@
       <c r="K13" s="54">
         <v>0.95140528634361199</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="52">
-        <f t="shared" ref="P13:W16" si="2">D13-MAX(D5,D9,D13,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="52">
-        <f t="shared" si="2"/>
-        <v>-1.3878854625551051E-2</v>
-      </c>
-      <c r="T13" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="52">
-        <f t="shared" si="2"/>
-        <v>-1.3002202643170979E-2</v>
-      </c>
-      <c r="V13" s="52">
-        <f t="shared" si="2"/>
-        <v>-5.2416299559471025E-2</v>
-      </c>
-      <c r="W13" s="57">
-        <f t="shared" si="2"/>
-        <v>-1.0905286343612985E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2769,45 +2399,8 @@
       <c r="K14" s="15">
         <v>0.94988325991189404</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="49">
-        <f t="shared" si="2"/>
-        <v>-1.1544052863435961E-2</v>
-      </c>
-      <c r="R14" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="49">
-        <f t="shared" si="2"/>
-        <v>-1.2475770925109986E-2</v>
-      </c>
-      <c r="T14" s="49">
-        <f t="shared" si="2"/>
-        <v>-1.136563876651997E-2</v>
-      </c>
-      <c r="U14" s="49">
-        <f t="shared" si="2"/>
-        <v>-1.0455947136564059E-2</v>
-      </c>
-      <c r="V14" s="49">
-        <f t="shared" si="2"/>
-        <v>-2.4511013215859023E-2</v>
-      </c>
-      <c r="W14" s="58">
-        <f t="shared" si="2"/>
-        <v>-1.0196035242290957E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2839,47 +2432,8 @@
       <c r="K15" s="15">
         <v>0.63487224669603504</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="49">
-        <f t="shared" si="2"/>
-        <v>-0.19132599118942706</v>
-      </c>
-      <c r="Q15" s="49">
-        <f t="shared" si="2"/>
-        <v>-0.316640969162996</v>
-      </c>
-      <c r="R15" s="49">
-        <f t="shared" si="2"/>
-        <v>-0.33295154185022102</v>
-      </c>
-      <c r="S15" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="49">
-        <f t="shared" si="2"/>
-        <v>-0.32293832599118999</v>
-      </c>
-      <c r="U15" s="49">
-        <f t="shared" si="2"/>
-        <v>-9.645374449339994E-3</v>
-      </c>
-      <c r="V15" s="49">
-        <f t="shared" si="2"/>
-        <v>-0.332530837004405</v>
-      </c>
-      <c r="W15" s="58">
-        <f t="shared" si="2"/>
-        <v>-0.33190528634361294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2909,45 +2463,8 @@
       <c r="K16" s="51">
         <v>0.62222026431718103</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="50">
-        <f t="shared" si="2"/>
-        <v>-0.28578414096916305</v>
-      </c>
-      <c r="Q16" s="50">
-        <f t="shared" si="2"/>
-        <v>-0.33986123348017594</v>
-      </c>
-      <c r="R16" s="50">
-        <f t="shared" si="2"/>
-        <v>-0.19651101321585895</v>
-      </c>
-      <c r="S16" s="50">
-        <f t="shared" si="2"/>
-        <v>-4.9925110132158057E-2</v>
-      </c>
-      <c r="T16" s="50">
-        <f t="shared" si="2"/>
-        <v>-0.34306828193832606</v>
-      </c>
-      <c r="U16" s="50">
-        <f t="shared" si="2"/>
-        <v>-0.34256607929515404</v>
-      </c>
-      <c r="V16" s="50">
-        <f t="shared" si="2"/>
-        <v>-0.29114537444933897</v>
-      </c>
-      <c r="W16" s="59">
-        <f t="shared" si="2"/>
-        <v>-0.33845154185021997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2981,49 +2498,8 @@
       <c r="K17" s="54">
         <v>0.96231057268722497</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="52">
-        <f t="shared" ref="P17:W20" si="3">D17-MAX(D5,D9,D13,D17)</f>
-        <v>-0.67971145374449304</v>
-      </c>
-      <c r="Q17" s="52">
-        <f t="shared" si="3"/>
-        <v>-1.2004405286339948E-3</v>
-      </c>
-      <c r="R17" s="52">
-        <f t="shared" si="3"/>
-        <v>-0.69981497797356795</v>
-      </c>
-      <c r="S17" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="52">
-        <f t="shared" si="3"/>
-        <v>-3.657929515418501E-2</v>
-      </c>
-      <c r="U17" s="52">
-        <f t="shared" si="3"/>
-        <v>-6.5074889867841046E-2</v>
-      </c>
-      <c r="V17" s="52">
-        <f t="shared" si="3"/>
-        <v>-0.32921806167400902</v>
-      </c>
-      <c r="W17" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -3052,45 +2528,8 @@
       <c r="K18" s="15">
         <v>0.960079295154185</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.44895374449339198</v>
-      </c>
-      <c r="Q18" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="49">
-        <f t="shared" si="3"/>
-        <v>-3.0883259911894001E-2</v>
-      </c>
-      <c r="S18" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.46617621145374499</v>
-      </c>
-      <c r="W18" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3122,47 +2561,8 @@
       <c r="K19" s="15">
         <v>0.96677753303964797</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.332345814977973</v>
-      </c>
-      <c r="Q19" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.12478193832599105</v>
-      </c>
-      <c r="R19" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.33973788546255501</v>
-      </c>
-      <c r="S19" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.33479295154184996</v>
-      </c>
-      <c r="T19" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.32296035242290799</v>
-      </c>
-      <c r="V19" s="49">
-        <f t="shared" si="3"/>
-        <v>-0.32086563876652008</v>
-      </c>
-      <c r="W19" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3192,45 +2592,8 @@
       <c r="K20" s="51">
         <v>0.960671806167401</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="50">
-        <f t="shared" si="3"/>
-        <v>-0.11037444933920704</v>
-      </c>
-      <c r="Q20" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="50">
-        <f t="shared" si="3"/>
-        <v>-0.251874449339207</v>
-      </c>
-      <c r="W20" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -3240,1363 +2603,166 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="M22" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="63"/>
-    </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="47">
-        <f>D5-MAX(D5,D7)</f>
-        <v>-0.19480616740088103</v>
-      </c>
-      <c r="E24" s="47">
-        <f t="shared" ref="E24:K25" si="4">E5-MAX(E5,E7)</f>
-        <v>-1.1037444933921003E-2</v>
-      </c>
-      <c r="F24" s="47">
-        <f t="shared" si="4"/>
-        <v>-4.9162995594713044E-2</v>
-      </c>
-      <c r="G24" s="47">
-        <f t="shared" si="4"/>
-        <v>-1.2837004405286012E-2</v>
-      </c>
-      <c r="H24" s="47">
-        <f t="shared" si="4"/>
-        <v>-8.1938325991204319E-4</v>
-      </c>
-      <c r="I24" s="47">
-        <f t="shared" si="4"/>
-        <v>-5.3339207048457959E-2</v>
-      </c>
-      <c r="J24" s="47">
-        <f t="shared" si="4"/>
-        <v>-0.15094493392070496</v>
-      </c>
-      <c r="K24" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="47">
-        <f>D5-MAX(D5,D6)</f>
-        <v>-1.6960352422910052E-3</v>
-      </c>
-      <c r="Q24" s="47">
-        <f t="shared" ref="Q24:W24" si="5">E5-MAX(E5,E6)</f>
-        <v>-1.2449339207047938E-2</v>
-      </c>
-      <c r="R24" s="47">
-        <f t="shared" si="5"/>
-        <v>-6.9383259911890427E-3</v>
-      </c>
-      <c r="S24" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="47">
-        <f t="shared" si="5"/>
-        <v>-1.4563876651982999E-2</v>
-      </c>
-      <c r="U24" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="47">
-        <f t="shared" si="5"/>
-        <v>-1.3275330396475993E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="49">
-        <f>D6-MAX(D6,D8)</f>
-        <v>-0.28170704845814903</v>
-      </c>
-      <c r="E25" s="49">
-        <f t="shared" si="4"/>
-        <v>-1.9682819383260108E-2</v>
-      </c>
-      <c r="F25" s="49">
-        <f t="shared" si="4"/>
-        <v>-0.11338325991189402</v>
-      </c>
-      <c r="G25" s="49">
-        <f t="shared" si="4"/>
-        <v>-2.9398678414098045E-2</v>
-      </c>
-      <c r="H25" s="49">
-        <f t="shared" si="4"/>
-        <v>-1.2942731277532982E-2</v>
-      </c>
-      <c r="I25" s="49">
-        <f t="shared" si="4"/>
-        <v>-0.49130616740088096</v>
-      </c>
-      <c r="J25" s="49">
-        <f t="shared" si="4"/>
-        <v>-0.30110352422907399</v>
-      </c>
-      <c r="K25" s="49">
-        <f t="shared" si="4"/>
-        <v>-1.1270925110132057E-2</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="49">
-        <f>D6-MAX(D5,D6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="49">
-        <f t="shared" ref="Q25:W25" si="6">E6-MAX(E5,E6)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="49">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="49">
-        <f t="shared" si="6"/>
-        <v>-5.8017621145379783E-3</v>
-      </c>
-      <c r="T25" s="49">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="49">
-        <f t="shared" si="6"/>
-        <v>-0.44316740088105799</v>
-      </c>
-      <c r="V25" s="49">
-        <f t="shared" si="6"/>
-        <v>-0.15418061674008804</v>
-      </c>
-      <c r="W25" s="49">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="49">
-        <f>D7-MAX(D5,D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="49">
-        <f t="shared" ref="E26:K27" si="7">E7-MAX(E5,E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="49">
-        <f t="shared" si="7"/>
-        <v>-1.5268722466959983E-2</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="47">
-        <f>D7-MAX(D7,D8)</f>
-        <v>-8.8596916299559014E-2</v>
-      </c>
-      <c r="Q26" s="47">
-        <f t="shared" ref="Q26:W26" si="8">E7-MAX(E7,E8)</f>
-        <v>-2.1094713656387043E-2</v>
-      </c>
-      <c r="R26" s="47">
-        <f t="shared" si="8"/>
-        <v>-7.1158590308370018E-2</v>
-      </c>
-      <c r="S26" s="47">
-        <f t="shared" si="8"/>
-        <v>-1.0759911894274055E-2</v>
-      </c>
-      <c r="T26" s="47">
-        <f t="shared" si="8"/>
-        <v>-2.6687224669603937E-2</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="47">
-        <f t="shared" si="8"/>
-        <v>-3.9814977973568033E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="50">
-        <f>D8-MAX(D6,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" s="49">
-        <f>D8-MAX(D7,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="49">
-        <f t="shared" ref="Q27:W27" si="9">E8-MAX(E7,E8)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="49">
-        <f t="shared" si="9"/>
-        <v>-5.2004405286349975E-3</v>
-      </c>
-      <c r="V27" s="49">
-        <f t="shared" si="9"/>
-        <v>-4.0220264317190058E-3</v>
-      </c>
-      <c r="W27" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="47">
-        <f>D9-MAX(D9,D11)</f>
-        <v>-9.5903083700440428E-3</v>
-      </c>
-      <c r="E28" s="47">
-        <f t="shared" ref="E28:K29" si="10">E9-MAX(E9,E11)</f>
-        <v>-4.204625550660801E-2</v>
-      </c>
-      <c r="F28" s="47">
-        <f t="shared" si="10"/>
-        <v>-2.6231277533039998E-2</v>
-      </c>
-      <c r="G28" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="47">
-        <f t="shared" si="10"/>
-        <v>-1.6013215859031038E-2</v>
-      </c>
-      <c r="K28" s="47">
-        <f t="shared" si="10"/>
-        <v>-5.1129955947136985E-2</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
-      <c r="P28" s="47">
-        <f>D9-MAX(D9,D10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="47">
-        <f t="shared" ref="Q28:W28" si="11">E9-MAX(E9,E10)</f>
-        <v>-3.9526431718062027E-2</v>
-      </c>
-      <c r="R28" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="47">
-        <f t="shared" si="11"/>
-        <v>-2.4810572687224974E-2</v>
-      </c>
-      <c r="T28" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="47">
-        <f t="shared" si="11"/>
-        <v>-7.1806167400900733E-4</v>
-      </c>
-      <c r="W28" s="47">
-        <f t="shared" si="11"/>
-        <v>-5.1136563876651997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="49">
-        <f>D10-MAX(D10,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="49">
-        <f t="shared" si="10"/>
-        <v>-8.6740088105730084E-3</v>
-      </c>
-      <c r="F29" s="49">
-        <f t="shared" si="10"/>
-        <v>-2.3257709251101044E-2</v>
-      </c>
-      <c r="G29" s="49">
-        <f t="shared" si="10"/>
-        <v>-1.1497797356830874E-3</v>
-      </c>
-      <c r="H29" s="49">
-        <f t="shared" si="10"/>
-        <v>-4.2511013215858928E-2</v>
-      </c>
-      <c r="I29" s="49">
-        <f t="shared" si="10"/>
-        <v>-5.8348017621150383E-3</v>
-      </c>
-      <c r="J29" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="49">
-        <f t="shared" si="10"/>
-        <v>-2.1920704845814987E-2</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="49">
-        <f>D10-MAX(D9,D10)</f>
-        <v>-5.5440528634359554E-3</v>
-      </c>
-      <c r="Q29" s="49">
-        <f t="shared" ref="Q29:W29" si="12">E10-MAX(E9,E10)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="49">
-        <f t="shared" si="12"/>
-        <v>-1.7656387665198059E-2</v>
-      </c>
-      <c r="S29" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="49">
-        <f t="shared" si="12"/>
-        <v>-2.9929515418501973E-2</v>
-      </c>
-      <c r="U29" s="49">
-        <f t="shared" si="12"/>
-        <v>-6.1409691629950025E-3</v>
-      </c>
-      <c r="V29" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="49">
-        <f>D11-MAX(D9,D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="49">
-        <f t="shared" ref="E30:K31" si="13">E11-MAX(E9,E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="49">
-        <f t="shared" si="13"/>
-        <v>-9.1784140969159989E-3</v>
-      </c>
-      <c r="H30" s="49">
-        <f t="shared" si="13"/>
-        <v>-1.5359030837004961E-2</v>
-      </c>
-      <c r="I30" s="49">
-        <f t="shared" si="13"/>
-        <v>-3.4140969162899104E-4</v>
-      </c>
-      <c r="J30" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="1">
-        <v>2</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="47">
-        <f>D11-MAX(D11,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="47">
-        <f t="shared" ref="Q30:W30" si="14">E11-MAX(E11,E12)</f>
-        <v>-6.1541850220270256E-3</v>
-      </c>
-      <c r="R30" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="47">
-        <f t="shared" si="14"/>
-        <v>-3.5138766519824061E-2</v>
-      </c>
-      <c r="T30" s="47">
-        <f t="shared" si="14"/>
-        <v>-2.7940528634361916E-2</v>
-      </c>
-      <c r="U30" s="47">
-        <f t="shared" si="14"/>
-        <v>-3.524229074902685E-5</v>
-      </c>
-      <c r="V30" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="47">
-        <f t="shared" si="14"/>
-        <v>-2.1927312775329999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="50">
-        <f>D12-MAX(D10,D12)</f>
-        <v>-2.161674008810599E-2</v>
-      </c>
-      <c r="E31" s="50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="50">
-        <f t="shared" si="13"/>
-        <v>-2.3392070484580252E-3</v>
-      </c>
-      <c r="K31" s="50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="49">
-        <f>D12-MAX(D11,D12)</f>
-        <v>-3.6751101321585988E-2</v>
-      </c>
-      <c r="Q31" s="49">
-        <f t="shared" ref="Q31:W31" si="15">E12-MAX(E11,E12)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="49">
-        <f t="shared" si="15"/>
-        <v>-2.0629955947137013E-2</v>
-      </c>
-      <c r="S31" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="49">
-        <f t="shared" si="15"/>
-        <v>-1.7634361233480056E-2</v>
-      </c>
-      <c r="W31" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="47">
-        <f>D13-MAX(D13,D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="47">
-        <f t="shared" ref="E32:K33" si="16">E13-MAX(E13,E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="47">
-        <f t="shared" si="16"/>
-        <v>-3.0154185022019941E-3</v>
-      </c>
-      <c r="J32" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="P32" s="47">
-        <f>D13-MAX(D13,D14)</f>
-        <v>-2.4779735682819437E-3</v>
-      </c>
-      <c r="Q32" s="47">
-        <f t="shared" ref="Q32:W32" si="17">E13-MAX(E13,E14)</f>
-        <v>-1.8105726872250649E-3</v>
-      </c>
-      <c r="R32" s="47">
-        <f t="shared" si="17"/>
-        <v>-5.5726872246699699E-3</v>
-      </c>
-      <c r="S32" s="47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="47">
-        <f t="shared" si="17"/>
-        <v>-1.6828193832599814E-3</v>
-      </c>
-      <c r="U32" s="47">
-        <f t="shared" si="17"/>
-        <v>-3.6563876651979355E-3</v>
-      </c>
-      <c r="V32" s="47">
-        <f t="shared" si="17"/>
-        <v>-2.8623348017621009E-2</v>
-      </c>
-      <c r="W32" s="47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="49">
-        <f>D14-MAX(D14,D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P33" s="49">
-        <f>D14-MAX(D13,D14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="49">
-        <f t="shared" ref="Q33:W33" si="18">E14-MAX(E13,E14)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="49">
-        <f t="shared" si="18"/>
-        <v>-2.1277533039649743E-3</v>
-      </c>
-      <c r="T33" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="49">
-        <f t="shared" si="18"/>
-        <v>-1.5220264317179488E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="49">
-        <f>D15-MAX(D13,D15)</f>
-        <v>-0.19432158590308302</v>
-      </c>
-      <c r="E34" s="49">
-        <f t="shared" ref="E34:K35" si="19">E15-MAX(E13,E15)</f>
-        <v>-0.31995594713656395</v>
-      </c>
-      <c r="F34" s="49">
-        <f t="shared" si="19"/>
-        <v>-0.321819383259912</v>
-      </c>
-      <c r="G34" s="49">
-        <f t="shared" si="19"/>
-        <v>-1.4823788546259875E-3</v>
-      </c>
-      <c r="H34" s="49">
-        <f t="shared" si="19"/>
-        <v>-0.30794493392070499</v>
-      </c>
-      <c r="I34" s="49">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="49">
-        <f t="shared" si="19"/>
-        <v>-0.26410132158590294</v>
-      </c>
-      <c r="K34" s="49">
-        <f t="shared" si="19"/>
-        <v>-0.31653303964757695</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="1">
-        <v>2</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-      <c r="P34" s="47">
-        <f>D15-MAX(D15,D16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="47">
-        <f t="shared" ref="Q34:W34" si="20">E15-MAX(E15,E16)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="47">
-        <f t="shared" si="20"/>
-        <v>-0.11671365638766606</v>
-      </c>
-      <c r="S34" s="47">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="47">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="47">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="47">
-        <f t="shared" si="20"/>
-        <v>-2.3751101321585977E-2</v>
-      </c>
-      <c r="W34" s="47">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="50">
-        <f>D16-MAX(D14,D16)</f>
-        <v>-0.32800881057268694</v>
-      </c>
-      <c r="E35" s="50">
-        <f t="shared" si="19"/>
-        <v>-0.33005066079295198</v>
-      </c>
-      <c r="F35" s="50">
-        <f t="shared" si="19"/>
-        <v>-0.2106784140969159</v>
-      </c>
-      <c r="G35" s="50">
-        <f t="shared" si="19"/>
-        <v>-3.9539647577092052E-2</v>
-      </c>
-      <c r="H35" s="50">
-        <f t="shared" si="19"/>
-        <v>-0.33160352422907502</v>
-      </c>
-      <c r="I35" s="50">
-        <f t="shared" si="19"/>
-        <v>-0.33249559471365597</v>
-      </c>
-      <c r="J35" s="50">
-        <f t="shared" si="19"/>
-        <v>-0.26897356828193797</v>
-      </c>
-      <c r="K35" s="50">
-        <f t="shared" si="19"/>
-        <v>-0.32766299559471301</v>
-      </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" s="49">
-        <f>D16-MAX(D15,D16)</f>
-        <v>-0.13120925110132198</v>
-      </c>
-      <c r="Q35" s="49">
-        <f t="shared" ref="Q35:W35" si="21">E16-MAX(E15,E16)</f>
-        <v>-8.2841409691629675E-3</v>
-      </c>
-      <c r="R35" s="49">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="49">
-        <f t="shared" si="21"/>
-        <v>-4.0185022026431039E-2</v>
-      </c>
-      <c r="T35" s="49">
-        <f t="shared" si="21"/>
-        <v>-2.197577092511005E-2</v>
-      </c>
-      <c r="U35" s="49">
-        <f t="shared" si="21"/>
-        <v>-0.33185462555066003</v>
-      </c>
-      <c r="V35" s="49">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="49">
-        <f t="shared" si="21"/>
-        <v>-1.265198237885401E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="47">
-        <f>D17-MAX(D17,D19)</f>
-        <v>-0.34437004405286403</v>
-      </c>
-      <c r="E36" s="47">
-        <f t="shared" ref="E36:K37" si="22">E17-MAX(E17,E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="47">
-        <f t="shared" si="22"/>
-        <v>-0.37120925110132197</v>
-      </c>
-      <c r="G36" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="47">
-        <f t="shared" si="22"/>
-        <v>-5.1572687224670011E-2</v>
-      </c>
-      <c r="I36" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="47">
-        <f t="shared" si="22"/>
-        <v>-2.4365638766519981E-2</v>
-      </c>
-      <c r="K36" s="47">
-        <f t="shared" si="22"/>
-        <v>-4.4669603524229995E-3</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-      <c r="P36" s="47">
-        <f>D17-MAX(D17,D18)</f>
-        <v>-0.23323568281938295</v>
-      </c>
-      <c r="Q36" s="47">
-        <f t="shared" ref="Q36:W36" si="23">E17-MAX(E17,E18)</f>
-        <v>-1.455506607929502E-2</v>
-      </c>
-      <c r="R36" s="47">
-        <f t="shared" si="23"/>
-        <v>-0.67450440528634392</v>
-      </c>
-      <c r="S36" s="47">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="47">
-        <f t="shared" si="23"/>
-        <v>-4.9627753303964961E-2</v>
-      </c>
-      <c r="U36" s="47">
-        <f t="shared" si="23"/>
-        <v>-6.6185022026432061E-2</v>
-      </c>
-      <c r="V36" s="47">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="47">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="49">
-        <f>D18-MAX(D18,D20)</f>
-        <v>-0.29635462555066105</v>
-      </c>
-      <c r="E37" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="49">
-        <f t="shared" si="22"/>
-        <v>-1.6715859030837055E-2</v>
-      </c>
-      <c r="G37" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="49">
-        <f t="shared" si="22"/>
-        <v>-9.9118942731069026E-5</v>
-      </c>
-      <c r="I37" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="49">
-        <f t="shared" si="22"/>
-        <v>-0.21196255506607997</v>
-      </c>
-      <c r="K37" s="49">
-        <f t="shared" si="22"/>
-        <v>-5.9251101321600164E-4</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="49">
-        <f>D18-MAX(D17,D18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="49">
-        <f t="shared" ref="Q37:W37" si="24">E18-MAX(E17,E18)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="49">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="49">
-        <f t="shared" si="24"/>
-        <v>-3.53083700440604E-3</v>
-      </c>
-      <c r="T37" s="49">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="49">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="49">
-        <f t="shared" si="24"/>
-        <v>-0.13624008810572696</v>
-      </c>
-      <c r="W37" s="49">
-        <f t="shared" si="24"/>
-        <v>-2.231277533039977E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="49">
-        <f>D19-MAX(D17,D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="49">
-        <f t="shared" ref="E38:K39" si="25">E19-MAX(E17,E19)</f>
-        <v>-0.126896475770925</v>
-      </c>
-      <c r="F38" s="49">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="49">
-        <f t="shared" si="25"/>
-        <v>-0.350154185022027</v>
-      </c>
-      <c r="H38" s="49">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="49">
-        <f t="shared" si="25"/>
-        <v>-0.25822687224669594</v>
-      </c>
-      <c r="J38" s="49">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="49">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="1">
-        <v>2</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="47">
-        <f>D19-MAX(D19,D20)</f>
-        <v>-0.18522026431717997</v>
-      </c>
-      <c r="Q38" s="47">
-        <f t="shared" ref="Q38:W38" si="26">E19-MAX(E19,E20)</f>
-        <v>-0.13971806167400802</v>
-      </c>
-      <c r="R38" s="47">
-        <f t="shared" si="26"/>
-        <v>-0.32001101321585901</v>
-      </c>
-      <c r="S38" s="47">
-        <f t="shared" si="26"/>
-        <v>-0.34453303964757698</v>
-      </c>
-      <c r="T38" s="47">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="47">
-        <f t="shared" si="26"/>
-        <v>-0.324026431718062</v>
-      </c>
-      <c r="V38" s="47">
-        <f t="shared" si="26"/>
-        <v>-5.1356828193833026E-2</v>
-      </c>
-      <c r="W38" s="47">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="50">
-        <f>D20-MAX(D18,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="50">
-        <f t="shared" si="25"/>
-        <v>-1.7334801762119989E-3</v>
-      </c>
-      <c r="F39" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="50">
-        <f t="shared" si="25"/>
-        <v>-2.0903083700439806E-3</v>
-      </c>
-      <c r="H39" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="50">
-        <f t="shared" si="25"/>
-        <v>-3.8546255506599625E-4</v>
-      </c>
-      <c r="J39" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P39" s="49">
-        <f>D20-MAX(D19,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="49">
-        <f t="shared" ref="Q39:W39" si="27">E20-MAX(E19,E20)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="49">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="49">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="49">
-        <f t="shared" si="27"/>
-        <v>-1.8458149779739808E-3</v>
-      </c>
-      <c r="U39" s="49">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="49">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="49">
-        <f t="shared" si="27"/>
-        <v>-6.1057268722469749E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -4606,7 +2772,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -4616,7 +2782,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -4626,7 +2792,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -4636,7 +2802,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4646,7 +2812,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -4656,7 +2822,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -4666,7 +2832,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -4676,7 +2842,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -4737,12 +2903,9 @@
       <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="M3:W3"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4753,7 +2916,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:S20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4761,10 +2924,16 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -6096,10 +4265,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6107,6 +4276,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -6689,6 +4859,168 @@
         <v>188</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -6699,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6710,6 +5042,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -7292,9 +5625,2260 @@
         <v>315</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D171A0C-005F-4734-927B-3561058410D4}">
+  <dimension ref="A2:W39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="M3" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47">
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D7)</f>
+        <v>-0.19480616740088103</v>
+      </c>
+      <c r="E5" s="47">
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E7)</f>
+        <v>-1.1037444933921003E-2</v>
+      </c>
+      <c r="F5" s="47">
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F7)</f>
+        <v>-4.9162995594713044E-2</v>
+      </c>
+      <c r="G5" s="47">
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G7)</f>
+        <v>-1.2837004405286012E-2</v>
+      </c>
+      <c r="H5" s="47">
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H7)</f>
+        <v>-8.1938325991204319E-4</v>
+      </c>
+      <c r="I5" s="47">
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I7)</f>
+        <v>-5.3339207048457959E-2</v>
+      </c>
+      <c r="J5" s="47">
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J7)</f>
+        <v>-0.15094493392070496</v>
+      </c>
+      <c r="K5" s="47">
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="52">
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>-0.49532158590308301</v>
+      </c>
+      <c r="Q5" s="52">
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>-2.8656387665197958E-2</v>
+      </c>
+      <c r="R5" s="52">
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>-0.19340969162995503</v>
+      </c>
+      <c r="S5" s="52">
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>-3.5561674008811051E-2</v>
+      </c>
+      <c r="T5" s="52">
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>-2.5405286343613054E-2</v>
+      </c>
+      <c r="U5" s="52">
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>-5.5885462555064991E-2</v>
+      </c>
+      <c r="V5" s="52">
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>-0.365370044052863</v>
+      </c>
+      <c r="W5" s="57">
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>-3.8105726872247003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="49">
+        <f>acc_mean!D6-MAX(acc_mean!D6,acc_mean!D8)</f>
+        <v>-0.28170704845814903</v>
+      </c>
+      <c r="E6" s="49">
+        <f>acc_mean!E6-MAX(acc_mean!E6,acc_mean!E8)</f>
+        <v>-1.9682819383260108E-2</v>
+      </c>
+      <c r="F6" s="49">
+        <f>acc_mean!F6-MAX(acc_mean!F6,acc_mean!F8)</f>
+        <v>-0.11338325991189402</v>
+      </c>
+      <c r="G6" s="49">
+        <f>acc_mean!G6-MAX(acc_mean!G6,acc_mean!G8)</f>
+        <v>-2.9398678414098045E-2</v>
+      </c>
+      <c r="H6" s="49">
+        <f>acc_mean!H6-MAX(acc_mean!H6,acc_mean!H8)</f>
+        <v>-1.2942731277532982E-2</v>
+      </c>
+      <c r="I6" s="49">
+        <f>acc_mean!I6-MAX(acc_mean!I6,acc_mean!I8)</f>
+        <v>-0.49130616740088096</v>
+      </c>
+      <c r="J6" s="49">
+        <f>acc_mean!J6-MAX(acc_mean!J6,acc_mean!J8)</f>
+        <v>-0.30110352422907399</v>
+      </c>
+      <c r="K6" s="49">
+        <f>acc_mean!K6-MAX(acc_mean!K6,acc_mean!K8)</f>
+        <v>-1.1270925110132057E-2</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="49">
+        <f>acc_mean!D6-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>-0.49610352422907394</v>
+      </c>
+      <c r="Q6" s="49">
+        <f>acc_mean!E6-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>-2.9561674008811045E-2</v>
+      </c>
+      <c r="R6" s="49">
+        <f>acc_mean!F6-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>-0.19204405286343595</v>
+      </c>
+      <c r="S6" s="49">
+        <f>acc_mean!G6-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>-3.7832599118942989E-2</v>
+      </c>
+      <c r="T6" s="49">
+        <f>acc_mean!H6-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>-2.3889867841410006E-2</v>
+      </c>
+      <c r="U6" s="49">
+        <f>acc_mean!I6-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>-0.500162995594714</v>
+      </c>
+      <c r="V6" s="49">
+        <f>acc_mean!J6-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>-0.52026872246695999</v>
+      </c>
+      <c r="W6" s="58">
+        <f>acc_mean!K6-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>-2.2599118942731033E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <f>acc_mean!D7-MAX(acc_mean!D5,acc_mean!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="49">
+        <f>acc_mean!E7-MAX(acc_mean!E5,acc_mean!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <f>acc_mean!F7-MAX(acc_mean!F5,acc_mean!F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <f>acc_mean!G7-MAX(acc_mean!G5,acc_mean!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <f>acc_mean!H7-MAX(acc_mean!H5,acc_mean!H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="49">
+        <f>acc_mean!I7-MAX(acc_mean!I5,acc_mean!I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="49">
+        <f>acc_mean!J7-MAX(acc_mean!J5,acc_mean!J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="49">
+        <f>acc_mean!K7-MAX(acc_mean!K5,acc_mean!K7)</f>
+        <v>-1.5268722466959983E-2</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="49">
+        <f>acc_mean!D7-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>-0.29751982378854602</v>
+      </c>
+      <c r="Q7" s="49">
+        <f>acc_mean!E7-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>-1.4303964757709009E-2</v>
+      </c>
+      <c r="R7" s="49">
+        <f>acc_mean!F7-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>-0.15537885462555101</v>
+      </c>
+      <c r="S7" s="49">
+        <f>acc_mean!G7-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>-7.3634361233479995E-3</v>
+      </c>
+      <c r="T7" s="49">
+        <f>acc_mean!H7-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>-3.9579295154186012E-2</v>
+      </c>
+      <c r="U7" s="49">
+        <f>acc_mean!I7-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>-2.2048458149780403E-3</v>
+      </c>
+      <c r="V7" s="49">
+        <f>acc_mean!J7-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>-0.23043832599118907</v>
+      </c>
+      <c r="W7" s="58">
+        <f>acc_mean!K7-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>-5.7841409691629986E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="50">
+        <f>acc_mean!D8-MAX(acc_mean!D6,acc_mean!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="50">
+        <f>acc_mean!E8-MAX(acc_mean!E6,acc_mean!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="50">
+        <f>acc_mean!F8-MAX(acc_mean!F6,acc_mean!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="50">
+        <f>acc_mean!G8-MAX(acc_mean!G6,acc_mean!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="50">
+        <f>acc_mean!H8-MAX(acc_mean!H6,acc_mean!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <f>acc_mean!I8-MAX(acc_mean!I6,acc_mean!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="50">
+        <f>acc_mean!J8-MAX(acc_mean!J6,acc_mean!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="50">
+        <f>acc_mean!K8-MAX(acc_mean!K6,acc_mean!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="50">
+        <f>acc_mean!D8-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>-0.17217180616740102</v>
+      </c>
+      <c r="Q8" s="50">
+        <f>acc_mean!E8-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>-8.1453744493389379E-3</v>
+      </c>
+      <c r="R8" s="50">
+        <f>acc_mean!F8-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>-6.4493392070484989E-2</v>
+      </c>
+      <c r="S8" s="50">
+        <f>acc_mean!G8-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>-6.3436123348009632E-3</v>
+      </c>
+      <c r="T8" s="50">
+        <f>acc_mean!H8-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>-1.1046255506608094E-2</v>
+      </c>
+      <c r="U8" s="50">
+        <f>acc_mean!I8-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>-8.4713656387670477E-3</v>
+      </c>
+      <c r="V8" s="50">
+        <f>acc_mean!J8-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>-0.21682599118942802</v>
+      </c>
+      <c r="W8" s="59">
+        <f>acc_mean!K8-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>-1.1920704845814978E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="47">
+        <f>acc_mean!D9-MAX(acc_mean!D9,acc_mean!D11)</f>
+        <v>-9.5903083700440428E-3</v>
+      </c>
+      <c r="E9" s="47">
+        <f>acc_mean!E9-MAX(acc_mean!E9,acc_mean!E11)</f>
+        <v>-4.204625550660801E-2</v>
+      </c>
+      <c r="F9" s="47">
+        <f>acc_mean!F9-MAX(acc_mean!F9,acc_mean!F11)</f>
+        <v>-2.6231277533039998E-2</v>
+      </c>
+      <c r="G9" s="47">
+        <f>acc_mean!G9-MAX(acc_mean!G9,acc_mean!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="47">
+        <f>acc_mean!H9-MAX(acc_mean!H9,acc_mean!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="47">
+        <f>acc_mean!I9-MAX(acc_mean!I9,acc_mean!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="47">
+        <f>acc_mean!J9-MAX(acc_mean!J9,acc_mean!J11)</f>
+        <v>-1.6013215859031038E-2</v>
+      </c>
+      <c r="K9" s="47">
+        <f>acc_mean!K9-MAX(acc_mean!K9,acc_mean!K11)</f>
+        <v>-5.1129955947136985E-2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="52">
+        <f>acc_mean!D9-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>-1.2585903083700001E-2</v>
+      </c>
+      <c r="Q9" s="52">
+        <f>acc_mean!E9-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>-4.5361233480175955E-2</v>
+      </c>
+      <c r="R9" s="52">
+        <f>acc_mean!F9-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>-1.5099118942730971E-2</v>
+      </c>
+      <c r="S9" s="52">
+        <f>acc_mean!G9-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>-4.1724669603525055E-2</v>
+      </c>
+      <c r="T9" s="52">
+        <f>acc_mean!H9-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>-1.1555066079295018E-2</v>
+      </c>
+      <c r="U9" s="52">
+        <f>acc_mean!I9-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="52">
+        <f>acc_mean!J9-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="57">
+        <f>acc_mean!K9-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>-7.5244493392070955E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="49">
+        <f>acc_mean!D10-MAX(acc_mean!D10,acc_mean!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="49">
+        <f>acc_mean!E10-MAX(acc_mean!E10,acc_mean!E12)</f>
+        <v>-8.6740088105730084E-3</v>
+      </c>
+      <c r="F10" s="49">
+        <f>acc_mean!F10-MAX(acc_mean!F10,acc_mean!F12)</f>
+        <v>-2.3257709251101044E-2</v>
+      </c>
+      <c r="G10" s="49">
+        <f>acc_mean!G10-MAX(acc_mean!G10,acc_mean!G12)</f>
+        <v>-1.1497797356830874E-3</v>
+      </c>
+      <c r="H10" s="49">
+        <f>acc_mean!H10-MAX(acc_mean!H10,acc_mean!H12)</f>
+        <v>-4.2511013215858928E-2</v>
+      </c>
+      <c r="I10" s="49">
+        <f>acc_mean!I10-MAX(acc_mean!I10,acc_mean!I12)</f>
+        <v>-5.8348017621150383E-3</v>
+      </c>
+      <c r="J10" s="49">
+        <f>acc_mean!J10-MAX(acc_mean!J10,acc_mean!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="49">
+        <f>acc_mean!K10-MAX(acc_mean!K10,acc_mean!K12)</f>
+        <v>-2.1920704845814987E-2</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="49">
+        <f>acc_mean!D10-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>-2.06079295154179E-2</v>
+      </c>
+      <c r="Q10" s="49">
+        <f>acc_mean!E10-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>-1.9189427312774954E-2</v>
+      </c>
+      <c r="R10" s="49">
+        <f>acc_mean!F10-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>-3.8328193832599E-2</v>
+      </c>
+      <c r="S10" s="49">
+        <f>acc_mean!G10-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>-1.3383259911894041E-2</v>
+      </c>
+      <c r="T10" s="49">
+        <f>acc_mean!H10-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>-5.4533039647576942E-2</v>
+      </c>
+      <c r="U10" s="49">
+        <f>acc_mean!I10-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>-7.2511013215860176E-3</v>
+      </c>
+      <c r="V10" s="49">
+        <f>acc_mean!J10-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="58">
+        <f>acc_mean!K10-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>-2.1876651982378981E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49">
+        <f>acc_mean!D11-MAX(acc_mean!D9,acc_mean!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
+        <f>acc_mean!E11-MAX(acc_mean!E9,acc_mean!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <f>acc_mean!F11-MAX(acc_mean!F9,acc_mean!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="49">
+        <f>acc_mean!G11-MAX(acc_mean!G9,acc_mean!G11)</f>
+        <v>-9.1784140969159989E-3</v>
+      </c>
+      <c r="H11" s="49">
+        <f>acc_mean!H11-MAX(acc_mean!H9,acc_mean!H11)</f>
+        <v>-1.5359030837004961E-2</v>
+      </c>
+      <c r="I11" s="49">
+        <f>acc_mean!I11-MAX(acc_mean!I9,acc_mean!I11)</f>
+        <v>-3.4140969162899104E-4</v>
+      </c>
+      <c r="J11" s="49">
+        <f>acc_mean!J11-MAX(acc_mean!J9,acc_mean!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="49">
+        <f>acc_mean!K11-MAX(acc_mean!K9,acc_mean!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="49">
+        <f>acc_mean!D11-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="49">
+        <f>acc_mean!E11-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="49">
+        <f>acc_mean!F11-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="49">
+        <f>acc_mean!G11-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>-3.5541850220264015E-2</v>
+      </c>
+      <c r="T11" s="49">
+        <f>acc_mean!H11-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>-4.190748898678498E-2</v>
+      </c>
+      <c r="U11" s="49">
+        <f>acc_mean!I11-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="49">
+        <f>acc_mean!J11-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="58">
+        <f>acc_mean!K11-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>-2.8581497797356969E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="50">
+        <f>acc_mean!D12-MAX(acc_mean!D10,acc_mean!D12)</f>
+        <v>-2.161674008810599E-2</v>
+      </c>
+      <c r="E12" s="50">
+        <f>acc_mean!E12-MAX(acc_mean!E10,acc_mean!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="50">
+        <f>acc_mean!F12-MAX(acc_mean!F10,acc_mean!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="50">
+        <f>acc_mean!G12-MAX(acc_mean!G10,acc_mean!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="50">
+        <f>acc_mean!H12-MAX(acc_mean!H10,acc_mean!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <f>acc_mean!I12-MAX(acc_mean!I10,acc_mean!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <f>acc_mean!J12-MAX(acc_mean!J10,acc_mean!J12)</f>
+        <v>-2.3392070484580252E-3</v>
+      </c>
+      <c r="K12" s="50">
+        <f>acc_mean!K12-MAX(acc_mean!K10,acc_mean!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="50">
+        <f>acc_mean!D12-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="50">
+        <f>acc_mean!E12-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>-8.7819383259899464E-3</v>
+      </c>
+      <c r="R12" s="50">
+        <f>acc_mean!F12-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>-9.0308370044100972E-4</v>
+      </c>
+      <c r="S12" s="50">
+        <f>acc_mean!G12-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>-1.0143171806166973E-2</v>
+      </c>
+      <c r="T12" s="50">
+        <f>acc_mean!H12-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>-1.2121145374449083E-2</v>
+      </c>
+      <c r="U12" s="50">
+        <f>acc_mean!I12-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>-1.030837004404983E-3</v>
+      </c>
+      <c r="V12" s="50">
+        <f>acc_mean!J12-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="59">
+        <f>acc_mean!K12-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>-5.4845814977999563E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47">
+        <f>acc_mean!D13-MAX(acc_mean!D13,acc_mean!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="47">
+        <f>acc_mean!E13-MAX(acc_mean!E13,acc_mean!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="47">
+        <f>acc_mean!F13-MAX(acc_mean!F13,acc_mean!F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="47">
+        <f>acc_mean!G13-MAX(acc_mean!G13,acc_mean!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="47">
+        <f>acc_mean!H13-MAX(acc_mean!H13,acc_mean!H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <f>acc_mean!I13-MAX(acc_mean!I13,acc_mean!I15)</f>
+        <v>-3.0154185022019941E-3</v>
+      </c>
+      <c r="J13" s="47">
+        <f>acc_mean!J13-MAX(acc_mean!J13,acc_mean!J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="47">
+        <f>acc_mean!K13-MAX(acc_mean!K13,acc_mean!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="52">
+        <f>acc_mean!D13-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="52">
+        <f>acc_mean!E13-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="52">
+        <f>acc_mean!F13-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="52">
+        <f>acc_mean!G13-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>-1.3878854625551051E-2</v>
+      </c>
+      <c r="T13" s="52">
+        <f>acc_mean!H13-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="52">
+        <f>acc_mean!I13-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>-1.3002202643170979E-2</v>
+      </c>
+      <c r="V13" s="52">
+        <f>acc_mean!J13-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>-5.2416299559471025E-2</v>
+      </c>
+      <c r="W13" s="57">
+        <f>acc_mean!K13-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>-1.0905286343612985E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="49">
+        <f>acc_mean!D14-MAX(acc_mean!D14,acc_mean!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
+        <f>acc_mean!E14-MAX(acc_mean!E14,acc_mean!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="49">
+        <f>acc_mean!F14-MAX(acc_mean!F14,acc_mean!F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="49">
+        <f>acc_mean!G14-MAX(acc_mean!G14,acc_mean!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <f>acc_mean!H14-MAX(acc_mean!H14,acc_mean!H16)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="49">
+        <f>acc_mean!I14-MAX(acc_mean!I14,acc_mean!I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="49">
+        <f>acc_mean!J14-MAX(acc_mean!J14,acc_mean!J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="49">
+        <f>acc_mean!K14-MAX(acc_mean!K14,acc_mean!K16)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="49">
+        <f>acc_mean!D14-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="49">
+        <f>acc_mean!E14-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>-1.1544052863435961E-2</v>
+      </c>
+      <c r="R14" s="49">
+        <f>acc_mean!F14-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="49">
+        <f>acc_mean!G14-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>-1.2475770925109986E-2</v>
+      </c>
+      <c r="T14" s="49">
+        <f>acc_mean!H14-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>-1.136563876651997E-2</v>
+      </c>
+      <c r="U14" s="49">
+        <f>acc_mean!I14-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>-1.0455947136564059E-2</v>
+      </c>
+      <c r="V14" s="49">
+        <f>acc_mean!J14-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>-2.4511013215859023E-2</v>
+      </c>
+      <c r="W14" s="58">
+        <f>acc_mean!K14-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>-1.0196035242290957E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="49">
+        <f>acc_mean!D15-MAX(acc_mean!D13,acc_mean!D15)</f>
+        <v>-0.19432158590308302</v>
+      </c>
+      <c r="E15" s="49">
+        <f>acc_mean!E15-MAX(acc_mean!E13,acc_mean!E15)</f>
+        <v>-0.31995594713656395</v>
+      </c>
+      <c r="F15" s="49">
+        <f>acc_mean!F15-MAX(acc_mean!F13,acc_mean!F15)</f>
+        <v>-0.321819383259912</v>
+      </c>
+      <c r="G15" s="49">
+        <f>acc_mean!G15-MAX(acc_mean!G13,acc_mean!G15)</f>
+        <v>-1.4823788546259875E-3</v>
+      </c>
+      <c r="H15" s="49">
+        <f>acc_mean!H15-MAX(acc_mean!H13,acc_mean!H15)</f>
+        <v>-0.30794493392070499</v>
+      </c>
+      <c r="I15" s="49">
+        <f>acc_mean!I15-MAX(acc_mean!I13,acc_mean!I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="49">
+        <f>acc_mean!J15-MAX(acc_mean!J13,acc_mean!J15)</f>
+        <v>-0.26410132158590294</v>
+      </c>
+      <c r="K15" s="49">
+        <f>acc_mean!K15-MAX(acc_mean!K13,acc_mean!K15)</f>
+        <v>-0.31653303964757695</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="49">
+        <f>acc_mean!D15-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>-0.19132599118942706</v>
+      </c>
+      <c r="Q15" s="49">
+        <f>acc_mean!E15-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>-0.316640969162996</v>
+      </c>
+      <c r="R15" s="49">
+        <f>acc_mean!F15-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>-0.33295154185022102</v>
+      </c>
+      <c r="S15" s="49">
+        <f>acc_mean!G15-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="49">
+        <f>acc_mean!H15-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>-0.32293832599118999</v>
+      </c>
+      <c r="U15" s="49">
+        <f>acc_mean!I15-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>-9.645374449339994E-3</v>
+      </c>
+      <c r="V15" s="49">
+        <f>acc_mean!J15-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>-0.332530837004405</v>
+      </c>
+      <c r="W15" s="58">
+        <f>acc_mean!K15-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>-0.33190528634361294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="50">
+        <f>acc_mean!D16-MAX(acc_mean!D14,acc_mean!D16)</f>
+        <v>-0.32800881057268694</v>
+      </c>
+      <c r="E16" s="50">
+        <f>acc_mean!E16-MAX(acc_mean!E14,acc_mean!E16)</f>
+        <v>-0.33005066079295198</v>
+      </c>
+      <c r="F16" s="50">
+        <f>acc_mean!F16-MAX(acc_mean!F14,acc_mean!F16)</f>
+        <v>-0.2106784140969159</v>
+      </c>
+      <c r="G16" s="50">
+        <f>acc_mean!G16-MAX(acc_mean!G14,acc_mean!G16)</f>
+        <v>-3.9539647577092052E-2</v>
+      </c>
+      <c r="H16" s="50">
+        <f>acc_mean!H16-MAX(acc_mean!H14,acc_mean!H16)</f>
+        <v>-0.33160352422907502</v>
+      </c>
+      <c r="I16" s="50">
+        <f>acc_mean!I16-MAX(acc_mean!I14,acc_mean!I16)</f>
+        <v>-0.33249559471365597</v>
+      </c>
+      <c r="J16" s="50">
+        <f>acc_mean!J16-MAX(acc_mean!J14,acc_mean!J16)</f>
+        <v>-0.26897356828193797</v>
+      </c>
+      <c r="K16" s="50">
+        <f>acc_mean!K16-MAX(acc_mean!K14,acc_mean!K16)</f>
+        <v>-0.32766299559471301</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="50">
+        <f>acc_mean!D16-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>-0.28578414096916305</v>
+      </c>
+      <c r="Q16" s="50">
+        <f>acc_mean!E16-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>-0.33986123348017594</v>
+      </c>
+      <c r="R16" s="50">
+        <f>acc_mean!F16-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>-0.19651101321585895</v>
+      </c>
+      <c r="S16" s="50">
+        <f>acc_mean!G16-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>-4.9925110132158057E-2</v>
+      </c>
+      <c r="T16" s="50">
+        <f>acc_mean!H16-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>-0.34306828193832606</v>
+      </c>
+      <c r="U16" s="50">
+        <f>acc_mean!I16-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>-0.34256607929515404</v>
+      </c>
+      <c r="V16" s="50">
+        <f>acc_mean!J16-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>-0.29114537444933897</v>
+      </c>
+      <c r="W16" s="59">
+        <f>acc_mean!K16-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>-0.33845154185021997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="47">
+        <f>acc_mean!D17-MAX(acc_mean!D17,acc_mean!D19)</f>
+        <v>-0.34437004405286403</v>
+      </c>
+      <c r="E17" s="47">
+        <f>acc_mean!E17-MAX(acc_mean!E17,acc_mean!E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <f>acc_mean!F17-MAX(acc_mean!F17,acc_mean!F19)</f>
+        <v>-0.37120925110132197</v>
+      </c>
+      <c r="G17" s="47">
+        <f>acc_mean!G17-MAX(acc_mean!G17,acc_mean!G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <f>acc_mean!H17-MAX(acc_mean!H17,acc_mean!H19)</f>
+        <v>-5.1572687224670011E-2</v>
+      </c>
+      <c r="I17" s="47">
+        <f>acc_mean!I17-MAX(acc_mean!I17,acc_mean!I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <f>acc_mean!J17-MAX(acc_mean!J17,acc_mean!J19)</f>
+        <v>-2.4365638766519981E-2</v>
+      </c>
+      <c r="K17" s="47">
+        <f>acc_mean!K17-MAX(acc_mean!K17,acc_mean!K19)</f>
+        <v>-4.4669603524229995E-3</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="52">
+        <f>acc_mean!D17-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>-0.67971145374449304</v>
+      </c>
+      <c r="Q17" s="52">
+        <f>acc_mean!E17-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>-1.2004405286339948E-3</v>
+      </c>
+      <c r="R17" s="52">
+        <f>acc_mean!F17-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>-0.69981497797356795</v>
+      </c>
+      <c r="S17" s="52">
+        <f>acc_mean!G17-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="52">
+        <f>acc_mean!H17-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>-3.657929515418501E-2</v>
+      </c>
+      <c r="U17" s="52">
+        <f>acc_mean!I17-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>-6.5074889867841046E-2</v>
+      </c>
+      <c r="V17" s="52">
+        <f>acc_mean!J17-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>-0.32921806167400902</v>
+      </c>
+      <c r="W17" s="57">
+        <f>acc_mean!K17-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="49">
+        <f>acc_mean!D18-MAX(acc_mean!D18,acc_mean!D20)</f>
+        <v>-0.29635462555066105</v>
+      </c>
+      <c r="E18" s="49">
+        <f>acc_mean!E18-MAX(acc_mean!E18,acc_mean!E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="49">
+        <f>acc_mean!F18-MAX(acc_mean!F18,acc_mean!F20)</f>
+        <v>-1.6715859030837055E-2</v>
+      </c>
+      <c r="G18" s="49">
+        <f>acc_mean!G18-MAX(acc_mean!G18,acc_mean!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="49">
+        <f>acc_mean!H18-MAX(acc_mean!H18,acc_mean!H20)</f>
+        <v>-9.9118942731069026E-5</v>
+      </c>
+      <c r="I18" s="49">
+        <f>acc_mean!I18-MAX(acc_mean!I18,acc_mean!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="49">
+        <f>acc_mean!J18-MAX(acc_mean!J18,acc_mean!J20)</f>
+        <v>-0.21196255506607997</v>
+      </c>
+      <c r="K18" s="49">
+        <f>acc_mean!K18-MAX(acc_mean!K18,acc_mean!K20)</f>
+        <v>-5.9251101321600164E-4</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="49">
+        <f>acc_mean!D18-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>-0.44895374449339198</v>
+      </c>
+      <c r="Q18" s="49">
+        <f>acc_mean!E18-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="49">
+        <f>acc_mean!F18-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>-3.0883259911894001E-2</v>
+      </c>
+      <c r="S18" s="49">
+        <f>acc_mean!G18-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="49">
+        <f>acc_mean!H18-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="49">
+        <f>acc_mean!I18-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="49">
+        <f>acc_mean!J18-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>-0.46617621145374499</v>
+      </c>
+      <c r="W18" s="58">
+        <f>acc_mean!K18-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="49">
+        <f>acc_mean!D19-MAX(acc_mean!D17,acc_mean!D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
+        <f>acc_mean!E19-MAX(acc_mean!E17,acc_mean!E19)</f>
+        <v>-0.126896475770925</v>
+      </c>
+      <c r="F19" s="49">
+        <f>acc_mean!F19-MAX(acc_mean!F17,acc_mean!F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="49">
+        <f>acc_mean!G19-MAX(acc_mean!G17,acc_mean!G19)</f>
+        <v>-0.350154185022027</v>
+      </c>
+      <c r="H19" s="49">
+        <f>acc_mean!H19-MAX(acc_mean!H17,acc_mean!H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="49">
+        <f>acc_mean!I19-MAX(acc_mean!I17,acc_mean!I19)</f>
+        <v>-0.25822687224669594</v>
+      </c>
+      <c r="J19" s="49">
+        <f>acc_mean!J19-MAX(acc_mean!J17,acc_mean!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="49">
+        <f>acc_mean!K19-MAX(acc_mean!K17,acc_mean!K19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="49">
+        <f>acc_mean!D19-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>-0.332345814977973</v>
+      </c>
+      <c r="Q19" s="49">
+        <f>acc_mean!E19-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>-0.12478193832599105</v>
+      </c>
+      <c r="R19" s="49">
+        <f>acc_mean!F19-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>-0.33973788546255501</v>
+      </c>
+      <c r="S19" s="49">
+        <f>acc_mean!G19-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>-0.33479295154184996</v>
+      </c>
+      <c r="T19" s="49">
+        <f>acc_mean!H19-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="49">
+        <f>acc_mean!I19-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>-0.32296035242290799</v>
+      </c>
+      <c r="V19" s="49">
+        <f>acc_mean!J19-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>-0.32086563876652008</v>
+      </c>
+      <c r="W19" s="58">
+        <f>acc_mean!K19-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="50">
+        <f>acc_mean!D20-MAX(acc_mean!D18,acc_mean!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
+        <f>acc_mean!E20-MAX(acc_mean!E18,acc_mean!E20)</f>
+        <v>-1.7334801762119989E-3</v>
+      </c>
+      <c r="F20" s="50">
+        <f>acc_mean!F20-MAX(acc_mean!F18,acc_mean!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="50">
+        <f>acc_mean!G20-MAX(acc_mean!G18,acc_mean!G20)</f>
+        <v>-2.0903083700439806E-3</v>
+      </c>
+      <c r="H20" s="50">
+        <f>acc_mean!H20-MAX(acc_mean!H18,acc_mean!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="50">
+        <f>acc_mean!I20-MAX(acc_mean!I18,acc_mean!I20)</f>
+        <v>-3.8546255506599625E-4</v>
+      </c>
+      <c r="J20" s="50">
+        <f>acc_mean!J20-MAX(acc_mean!J18,acc_mean!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="50">
+        <f>acc_mean!K20-MAX(acc_mean!K18,acc_mean!K20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="50">
+        <f>acc_mean!D20-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>-0.11037444933920704</v>
+      </c>
+      <c r="Q20" s="50">
+        <f>acc_mean!E20-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="50">
+        <f>acc_mean!F20-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="50">
+        <f>acc_mean!G20-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="50">
+        <f>acc_mean!H20-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="50">
+        <f>acc_mean!I20-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="50">
+        <f>acc_mean!J20-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>-0.251874449339207</v>
+      </c>
+      <c r="W20" s="59">
+        <f>acc_mean!K20-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="63"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="47">
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D6)</f>
+        <v>-1.6960352422910052E-3</v>
+      </c>
+      <c r="Q24" s="47">
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E6)</f>
+        <v>-1.2449339207047938E-2</v>
+      </c>
+      <c r="R24" s="47">
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F6)</f>
+        <v>-6.9383259911890427E-3</v>
+      </c>
+      <c r="S24" s="47">
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="47">
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H6)</f>
+        <v>-1.4563876651982999E-2</v>
+      </c>
+      <c r="U24" s="47">
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I6)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="47">
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J6)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="47">
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K6)</f>
+        <v>-1.3275330396475993E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="49">
+        <f>acc_mean!D6-MAX(acc_mean!D5,acc_mean!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="49">
+        <f>acc_mean!E6-MAX(acc_mean!E5,acc_mean!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="49">
+        <f>acc_mean!F6-MAX(acc_mean!F5,acc_mean!F6)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="49">
+        <f>acc_mean!G6-MAX(acc_mean!G5,acc_mean!G6)</f>
+        <v>-5.8017621145379783E-3</v>
+      </c>
+      <c r="T25" s="49">
+        <f>acc_mean!H6-MAX(acc_mean!H5,acc_mean!H6)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="49">
+        <f>acc_mean!I6-MAX(acc_mean!I5,acc_mean!I6)</f>
+        <v>-0.44316740088105799</v>
+      </c>
+      <c r="V25" s="49">
+        <f>acc_mean!J6-MAX(acc_mean!J5,acc_mean!J6)</f>
+        <v>-0.15418061674008804</v>
+      </c>
+      <c r="W25" s="49">
+        <f>acc_mean!K6-MAX(acc_mean!K5,acc_mean!K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M26" s="4"/>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="47">
+        <f>acc_mean!D7-MAX(acc_mean!D7,acc_mean!D8)</f>
+        <v>-8.8596916299559014E-2</v>
+      </c>
+      <c r="Q26" s="47">
+        <f>acc_mean!E7-MAX(acc_mean!E7,acc_mean!E8)</f>
+        <v>-2.1094713656387043E-2</v>
+      </c>
+      <c r="R26" s="47">
+        <f>acc_mean!F7-MAX(acc_mean!F7,acc_mean!F8)</f>
+        <v>-7.1158590308370018E-2</v>
+      </c>
+      <c r="S26" s="47">
+        <f>acc_mean!G7-MAX(acc_mean!G7,acc_mean!G8)</f>
+        <v>-1.0759911894274055E-2</v>
+      </c>
+      <c r="T26" s="47">
+        <f>acc_mean!H7-MAX(acc_mean!H7,acc_mean!H8)</f>
+        <v>-2.6687224669603937E-2</v>
+      </c>
+      <c r="U26" s="47">
+        <f>acc_mean!I7-MAX(acc_mean!I7,acc_mean!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="47">
+        <f>acc_mean!J7-MAX(acc_mean!J7,acc_mean!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="47">
+        <f>acc_mean!K7-MAX(acc_mean!K7,acc_mean!K8)</f>
+        <v>-3.9814977973568033E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="49">
+        <f>acc_mean!D8-MAX(acc_mean!D7,acc_mean!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="49">
+        <f>acc_mean!E8-MAX(acc_mean!E7,acc_mean!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="49">
+        <f>acc_mean!F8-MAX(acc_mean!F7,acc_mean!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="49">
+        <f>acc_mean!G8-MAX(acc_mean!G7,acc_mean!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="49">
+        <f>acc_mean!H8-MAX(acc_mean!H7,acc_mean!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="49">
+        <f>acc_mean!I8-MAX(acc_mean!I7,acc_mean!I8)</f>
+        <v>-5.2004405286349975E-3</v>
+      </c>
+      <c r="V27" s="49">
+        <f>acc_mean!J8-MAX(acc_mean!J7,acc_mean!J8)</f>
+        <v>-4.0220264317190058E-3</v>
+      </c>
+      <c r="W27" s="49">
+        <f>acc_mean!K8-MAX(acc_mean!K7,acc_mean!K8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="47">
+        <f>acc_mean!D9-MAX(acc_mean!D9,acc_mean!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="47">
+        <f>acc_mean!E9-MAX(acc_mean!E9,acc_mean!E10)</f>
+        <v>-3.9526431718062027E-2</v>
+      </c>
+      <c r="R28" s="47">
+        <f>acc_mean!F9-MAX(acc_mean!F9,acc_mean!F10)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="47">
+        <f>acc_mean!G9-MAX(acc_mean!G9,acc_mean!G10)</f>
+        <v>-2.4810572687224974E-2</v>
+      </c>
+      <c r="T28" s="47">
+        <f>acc_mean!H9-MAX(acc_mean!H9,acc_mean!H10)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="47">
+        <f>acc_mean!I9-MAX(acc_mean!I9,acc_mean!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="47">
+        <f>acc_mean!J9-MAX(acc_mean!J9,acc_mean!J10)</f>
+        <v>-7.1806167400900733E-4</v>
+      </c>
+      <c r="W28" s="47">
+        <f>acc_mean!K9-MAX(acc_mean!K9,acc_mean!K10)</f>
+        <v>-5.1136563876651997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="49">
+        <f>acc_mean!D10-MAX(acc_mean!D9,acc_mean!D10)</f>
+        <v>-5.5440528634359554E-3</v>
+      </c>
+      <c r="Q29" s="49">
+        <f>acc_mean!E10-MAX(acc_mean!E9,acc_mean!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="49">
+        <f>acc_mean!F10-MAX(acc_mean!F9,acc_mean!F10)</f>
+        <v>-1.7656387665198059E-2</v>
+      </c>
+      <c r="S29" s="49">
+        <f>acc_mean!G10-MAX(acc_mean!G9,acc_mean!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="49">
+        <f>acc_mean!H10-MAX(acc_mean!H9,acc_mean!H10)</f>
+        <v>-2.9929515418501973E-2</v>
+      </c>
+      <c r="U29" s="49">
+        <f>acc_mean!I10-MAX(acc_mean!I9,acc_mean!I10)</f>
+        <v>-6.1409691629950025E-3</v>
+      </c>
+      <c r="V29" s="49">
+        <f>acc_mean!J10-MAX(acc_mean!J9,acc_mean!J10)</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="49">
+        <f>acc_mean!K10-MAX(acc_mean!K9,acc_mean!K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M30" s="4"/>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="47">
+        <f>acc_mean!D11-MAX(acc_mean!D11,acc_mean!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="47">
+        <f>acc_mean!E11-MAX(acc_mean!E11,acc_mean!E12)</f>
+        <v>-6.1541850220270256E-3</v>
+      </c>
+      <c r="R30" s="47">
+        <f>acc_mean!F11-MAX(acc_mean!F11,acc_mean!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="47">
+        <f>acc_mean!G11-MAX(acc_mean!G11,acc_mean!G12)</f>
+        <v>-3.5138766519824061E-2</v>
+      </c>
+      <c r="T30" s="47">
+        <f>acc_mean!H11-MAX(acc_mean!H11,acc_mean!H12)</f>
+        <v>-2.7940528634361916E-2</v>
+      </c>
+      <c r="U30" s="47">
+        <f>acc_mean!I11-MAX(acc_mean!I11,acc_mean!I12)</f>
+        <v>-3.524229074902685E-5</v>
+      </c>
+      <c r="V30" s="47">
+        <f>acc_mean!J11-MAX(acc_mean!J11,acc_mean!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="47">
+        <f>acc_mean!K11-MAX(acc_mean!K11,acc_mean!K12)</f>
+        <v>-2.1927312775329999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="49">
+        <f>acc_mean!D12-MAX(acc_mean!D11,acc_mean!D12)</f>
+        <v>-3.6751101321585988E-2</v>
+      </c>
+      <c r="Q31" s="49">
+        <f>acc_mean!E12-MAX(acc_mean!E11,acc_mean!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="49">
+        <f>acc_mean!F12-MAX(acc_mean!F11,acc_mean!F12)</f>
+        <v>-2.0629955947137013E-2</v>
+      </c>
+      <c r="S31" s="49">
+        <f>acc_mean!G12-MAX(acc_mean!G11,acc_mean!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="49">
+        <f>acc_mean!H12-MAX(acc_mean!H11,acc_mean!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="49">
+        <f>acc_mean!I12-MAX(acc_mean!I11,acc_mean!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="49">
+        <f>acc_mean!J12-MAX(acc_mean!J11,acc_mean!J12)</f>
+        <v>-1.7634361233480056E-2</v>
+      </c>
+      <c r="W31" s="49">
+        <f>acc_mean!K12-MAX(acc_mean!K11,acc_mean!K12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="47">
+        <f>acc_mean!D13-MAX(acc_mean!D13,acc_mean!D14)</f>
+        <v>-2.4779735682819437E-3</v>
+      </c>
+      <c r="Q32" s="47">
+        <f>acc_mean!E13-MAX(acc_mean!E13,acc_mean!E14)</f>
+        <v>-1.8105726872250649E-3</v>
+      </c>
+      <c r="R32" s="47">
+        <f>acc_mean!F13-MAX(acc_mean!F13,acc_mean!F14)</f>
+        <v>-5.5726872246699699E-3</v>
+      </c>
+      <c r="S32" s="47">
+        <f>acc_mean!G13-MAX(acc_mean!G13,acc_mean!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="47">
+        <f>acc_mean!H13-MAX(acc_mean!H13,acc_mean!H14)</f>
+        <v>-1.6828193832599814E-3</v>
+      </c>
+      <c r="U32" s="47">
+        <f>acc_mean!I13-MAX(acc_mean!I13,acc_mean!I14)</f>
+        <v>-3.6563876651979355E-3</v>
+      </c>
+      <c r="V32" s="47">
+        <f>acc_mean!J13-MAX(acc_mean!J13,acc_mean!J14)</f>
+        <v>-2.8623348017621009E-2</v>
+      </c>
+      <c r="W32" s="47">
+        <f>acc_mean!K13-MAX(acc_mean!K13,acc_mean!K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="49">
+        <f>acc_mean!D14-MAX(acc_mean!D13,acc_mean!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="49">
+        <f>acc_mean!E14-MAX(acc_mean!E13,acc_mean!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="49">
+        <f>acc_mean!F14-MAX(acc_mean!F13,acc_mean!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="49">
+        <f>acc_mean!G14-MAX(acc_mean!G13,acc_mean!G14)</f>
+        <v>-2.1277533039649743E-3</v>
+      </c>
+      <c r="T33" s="49">
+        <f>acc_mean!H14-MAX(acc_mean!H13,acc_mean!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="49">
+        <f>acc_mean!I14-MAX(acc_mean!I13,acc_mean!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="49">
+        <f>acc_mean!J14-MAX(acc_mean!J13,acc_mean!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="49">
+        <f>acc_mean!K14-MAX(acc_mean!K13,acc_mean!K14)</f>
+        <v>-1.5220264317179488E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M34" s="4"/>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="47">
+        <f>acc_mean!D15-MAX(acc_mean!D15,acc_mean!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="47">
+        <f>acc_mean!E15-MAX(acc_mean!E15,acc_mean!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="47">
+        <f>acc_mean!F15-MAX(acc_mean!F15,acc_mean!F16)</f>
+        <v>-0.11671365638766606</v>
+      </c>
+      <c r="S34" s="47">
+        <f>acc_mean!G15-MAX(acc_mean!G15,acc_mean!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="47">
+        <f>acc_mean!H15-MAX(acc_mean!H15,acc_mean!H16)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="47">
+        <f>acc_mean!I15-MAX(acc_mean!I15,acc_mean!I16)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="47">
+        <f>acc_mean!J15-MAX(acc_mean!J15,acc_mean!J16)</f>
+        <v>-2.3751101321585977E-2</v>
+      </c>
+      <c r="W34" s="47">
+        <f>acc_mean!K15-MAX(acc_mean!K15,acc_mean!K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="49">
+        <f>acc_mean!D16-MAX(acc_mean!D15,acc_mean!D16)</f>
+        <v>-0.13120925110132198</v>
+      </c>
+      <c r="Q35" s="49">
+        <f>acc_mean!E16-MAX(acc_mean!E15,acc_mean!E16)</f>
+        <v>-8.2841409691629675E-3</v>
+      </c>
+      <c r="R35" s="49">
+        <f>acc_mean!F16-MAX(acc_mean!F15,acc_mean!F16)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="49">
+        <f>acc_mean!G16-MAX(acc_mean!G15,acc_mean!G16)</f>
+        <v>-4.0185022026431039E-2</v>
+      </c>
+      <c r="T35" s="49">
+        <f>acc_mean!H16-MAX(acc_mean!H15,acc_mean!H16)</f>
+        <v>-2.197577092511005E-2</v>
+      </c>
+      <c r="U35" s="49">
+        <f>acc_mean!I16-MAX(acc_mean!I15,acc_mean!I16)</f>
+        <v>-0.33185462555066003</v>
+      </c>
+      <c r="V35" s="49">
+        <f>acc_mean!J16-MAX(acc_mean!J15,acc_mean!J16)</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="49">
+        <f>acc_mean!K16-MAX(acc_mean!K15,acc_mean!K16)</f>
+        <v>-1.265198237885401E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="47">
+        <f>acc_mean!D17-MAX(acc_mean!D17,acc_mean!D18)</f>
+        <v>-0.23323568281938295</v>
+      </c>
+      <c r="Q36" s="47">
+        <f>acc_mean!E17-MAX(acc_mean!E17,acc_mean!E18)</f>
+        <v>-1.455506607929502E-2</v>
+      </c>
+      <c r="R36" s="47">
+        <f>acc_mean!F17-MAX(acc_mean!F17,acc_mean!F18)</f>
+        <v>-0.67450440528634392</v>
+      </c>
+      <c r="S36" s="47">
+        <f>acc_mean!G17-MAX(acc_mean!G17,acc_mean!G18)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="47">
+        <f>acc_mean!H17-MAX(acc_mean!H17,acc_mean!H18)</f>
+        <v>-4.9627753303964961E-2</v>
+      </c>
+      <c r="U36" s="47">
+        <f>acc_mean!I17-MAX(acc_mean!I17,acc_mean!I18)</f>
+        <v>-6.6185022026432061E-2</v>
+      </c>
+      <c r="V36" s="47">
+        <f>acc_mean!J17-MAX(acc_mean!J17,acc_mean!J18)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="47">
+        <f>acc_mean!K17-MAX(acc_mean!K17,acc_mean!K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M37" s="4"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="49">
+        <f>acc_mean!D18-MAX(acc_mean!D17,acc_mean!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="49">
+        <f>acc_mean!E18-MAX(acc_mean!E17,acc_mean!E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="49">
+        <f>acc_mean!F18-MAX(acc_mean!F17,acc_mean!F18)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="49">
+        <f>acc_mean!G18-MAX(acc_mean!G17,acc_mean!G18)</f>
+        <v>-3.53083700440604E-3</v>
+      </c>
+      <c r="T37" s="49">
+        <f>acc_mean!H18-MAX(acc_mean!H17,acc_mean!H18)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="49">
+        <f>acc_mean!I18-MAX(acc_mean!I17,acc_mean!I18)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="49">
+        <f>acc_mean!J18-MAX(acc_mean!J17,acc_mean!J18)</f>
+        <v>-0.13624008810572696</v>
+      </c>
+      <c r="W37" s="49">
+        <f>acc_mean!K18-MAX(acc_mean!K17,acc_mean!K18)</f>
+        <v>-2.231277533039977E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M38" s="4"/>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="47">
+        <f>acc_mean!D19-MAX(acc_mean!D19,acc_mean!D20)</f>
+        <v>-0.18522026431717997</v>
+      </c>
+      <c r="Q38" s="47">
+        <f>acc_mean!E19-MAX(acc_mean!E19,acc_mean!E20)</f>
+        <v>-0.13971806167400802</v>
+      </c>
+      <c r="R38" s="47">
+        <f>acc_mean!F19-MAX(acc_mean!F19,acc_mean!F20)</f>
+        <v>-0.32001101321585901</v>
+      </c>
+      <c r="S38" s="47">
+        <f>acc_mean!G19-MAX(acc_mean!G19,acc_mean!G20)</f>
+        <v>-0.34453303964757698</v>
+      </c>
+      <c r="T38" s="47">
+        <f>acc_mean!H19-MAX(acc_mean!H19,acc_mean!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="47">
+        <f>acc_mean!I19-MAX(acc_mean!I19,acc_mean!I20)</f>
+        <v>-0.324026431718062</v>
+      </c>
+      <c r="V38" s="47">
+        <f>acc_mean!J19-MAX(acc_mean!J19,acc_mean!J20)</f>
+        <v>-5.1356828193833026E-2</v>
+      </c>
+      <c r="W38" s="47">
+        <f>acc_mean!K19-MAX(acc_mean!K19,acc_mean!K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="49">
+        <f>acc_mean!D20-MAX(acc_mean!D19,acc_mean!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="49">
+        <f>acc_mean!E20-MAX(acc_mean!E19,acc_mean!E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="49">
+        <f>acc_mean!F20-MAX(acc_mean!F19,acc_mean!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="49">
+        <f>acc_mean!G20-MAX(acc_mean!G19,acc_mean!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="49">
+        <f>acc_mean!H20-MAX(acc_mean!H19,acc_mean!H20)</f>
+        <v>-1.8458149779739808E-3</v>
+      </c>
+      <c r="U39" s="49">
+        <f>acc_mean!I20-MAX(acc_mean!I19,acc_mean!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="49">
+        <f>acc_mean!J20-MAX(acc_mean!J19,acc_mean!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="49">
+        <f>acc_mean!K20-MAX(acc_mean!K19,acc_mean!K20)</f>
+        <v>-6.1057268722469749E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7305,7 +7889,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7889,7 +8473,7 @@
         <v>4.9093514512347503E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -7899,96 +8483,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -8233,7 +8885,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8817,8 +9469,165 @@
         <v>0.96123348017621202</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9003,7 +9812,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9587,7 +10396,7 @@
         <v>0.96982378854625595</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -9597,96 +10406,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -9930,8 +10807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10515,8 +11392,165 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -10701,7 +11735,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11279,11 +12313,165 @@
         <v>248810000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -11468,7 +12656,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12052,8 +13240,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -12238,7 +13583,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12822,8 +14167,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -13008,7 +14510,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A554E-02BF-4AB8-82E0-3D9E0FC083EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88CB7F-AD78-4B76-951E-07F73159EAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1657,6 +1657,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1682,30 +1706,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,35 +2012,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2644,28 +2644,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="60">
+        <v>0.453482378854626</v>
+      </c>
+      <c r="E23" s="61">
+        <v>0.93337004405286295</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.75980837004405299</v>
+      </c>
+      <c r="G23" s="61">
+        <v>0.92945594713656399</v>
+      </c>
+      <c r="H23" s="61">
+        <v>0.93913876651982398</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0.90694933920704901</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0.57376651982378901</v>
+      </c>
+      <c r="K23" s="62">
+        <v>0.93748017621145396</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="63">
+        <v>0.73518942731277503</v>
+      </c>
+      <c r="E24" s="64">
+        <v>0.95305286343612305</v>
+      </c>
+      <c r="F24" s="64">
+        <v>0.87319162995594701</v>
+      </c>
+      <c r="G24" s="64">
+        <v>0.95305286343612405</v>
+      </c>
+      <c r="H24" s="64">
+        <v>0.95208149779735696</v>
+      </c>
+      <c r="I24" s="64">
+        <v>0.96028854625550697</v>
+      </c>
+      <c r="J24" s="64">
+        <v>0.72471145374449397</v>
+      </c>
+      <c r="K24" s="65">
+        <v>0.94875110132158602</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -2675,28 +2707,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="60">
+        <v>0.934522026431718</v>
+      </c>
+      <c r="E25" s="61">
+        <v>0.94374229074889904</v>
+      </c>
+      <c r="F25" s="61">
+        <v>0.93118061674008801</v>
+      </c>
+      <c r="G25" s="61">
+        <v>0.94810352422907496</v>
+      </c>
+      <c r="H25" s="61">
+        <v>0.93842511013215901</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0.962834801762114</v>
+      </c>
+      <c r="J25" s="61">
+        <v>0.93985462555066102</v>
+      </c>
+      <c r="K25" s="62">
+        <v>0.93820264317180602</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="63">
+        <v>0.94411233480176204</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0.95241629955947205</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0.95741189427312801</v>
+      </c>
+      <c r="G26" s="64">
+        <v>0.94925330396475804</v>
+      </c>
+      <c r="H26" s="64">
+        <v>0.95100660792951597</v>
+      </c>
+      <c r="I26" s="64">
+        <v>0.96252863436123404</v>
+      </c>
+      <c r="J26" s="64">
+        <v>0.95514977973568305</v>
+      </c>
+      <c r="K26" s="65">
+        <v>0.960123348017621</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -2706,14 +2770,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="60">
+        <v>0.94958590308369994</v>
+      </c>
+      <c r="E27" s="61">
+        <v>0.95138766519823803</v>
+      </c>
+      <c r="F27" s="61">
+        <v>0.95185242290748895</v>
+      </c>
+      <c r="G27" s="61">
+        <v>0.95113876651982399</v>
+      </c>
+      <c r="H27" s="61">
+        <v>0.95166299559471401</v>
+      </c>
+      <c r="I27" s="61">
+        <v>0.95348898678414096</v>
+      </c>
+      <c r="J27" s="61">
+        <v>0.91534361233480199</v>
+      </c>
+      <c r="K27" s="62">
+        <v>0.95140528634361199</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -2721,14 +2801,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="63">
+        <v>0.75278634361233498</v>
+      </c>
+      <c r="E28" s="64">
+        <v>0.62962114537444902</v>
+      </c>
+      <c r="F28" s="64">
+        <v>0.74117400881057305</v>
+      </c>
+      <c r="G28" s="64">
+        <v>0.949656387665198</v>
+      </c>
+      <c r="H28" s="64">
+        <v>0.64203524229074904</v>
+      </c>
+      <c r="I28" s="64">
+        <v>0.95284801762114502</v>
+      </c>
+      <c r="J28" s="64">
+        <v>0.64637004405286402</v>
+      </c>
+      <c r="K28" s="65">
+        <v>0.63487224669603504</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -2738,14 +2834,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="D29" s="66">
+        <v>0.50063215859030796</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.96293171806167399</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.92096916299559495</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.96501762114537504</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.96302863436123398</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.96394493392070502</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.60991850220264299</v>
+      </c>
+      <c r="K29" s="67">
+        <v>0.96231057268722497</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -2753,14 +2865,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="63">
+        <v>0.79698678414096902</v>
+      </c>
+      <c r="E30" s="64">
+        <v>0.96119823788546199</v>
+      </c>
+      <c r="F30" s="64">
+        <v>0.937685022026432</v>
+      </c>
+      <c r="G30" s="64">
+        <v>0.95939647577092502</v>
+      </c>
+      <c r="H30" s="64">
+        <v>0.96497356828193903</v>
+      </c>
+      <c r="I30" s="64">
+        <v>0.96355947136563902</v>
+      </c>
+      <c r="J30" s="64">
+        <v>0.68564096916299599</v>
+      </c>
+      <c r="K30" s="65">
+        <v>0.96677753303964797</v>
+      </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
@@ -2940,61 +3068,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="65" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="65" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="65" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="65" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="65" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="67"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -4280,19 +4408,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4901,14 +5029,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4916,14 +5044,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4933,14 +5061,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4948,14 +5076,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4965,14 +5093,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4980,14 +5108,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4997,14 +5125,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -5012,14 +5140,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5046,19 +5174,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5667,14 +5795,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -5682,14 +5810,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -5699,14 +5827,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -5714,14 +5842,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -5731,14 +5859,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -5746,14 +5874,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -5763,14 +5891,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -5778,14 +5906,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5816,32 +5944,32 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-      <c r="M3" s="61" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
+      <c r="M3" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="63"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="71"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -7177,19 +7305,19 @@
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M22" s="61" t="s">
+      <c r="M22" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="63"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="71"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M23" s="2" t="s">
@@ -7889,7 +8017,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7907,19 +8035,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8524,28 +8652,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="60">
+        <v>0.19797761655151999</v>
+      </c>
+      <c r="E23" s="61">
+        <v>1.06804852852762E-2</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.101130657573169</v>
+      </c>
+      <c r="G23" s="61">
+        <v>1.2667267411975099E-2</v>
+      </c>
+      <c r="H23" s="61">
+        <v>1.14077721769342E-2</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0.19792133062494399</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0.193677389942953</v>
+      </c>
+      <c r="K23" s="62">
+        <v>1.05351087614896E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="63">
+        <v>5.7605472041868402E-2</v>
+      </c>
+      <c r="E24" s="64">
+        <v>9.1322608617894901E-3</v>
+      </c>
+      <c r="F24" s="64">
+        <v>3.1656760659069999E-2</v>
+      </c>
+      <c r="G24" s="64">
+        <v>8.8291876062092604E-3</v>
+      </c>
+      <c r="H24" s="64">
+        <v>9.6463373212647297E-3</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1.7017490657803901E-2</v>
+      </c>
+      <c r="J24" s="64">
+        <v>7.9971478163737106E-2</v>
+      </c>
+      <c r="K24" s="65">
+        <v>8.3656548878919598E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -8555,28 +8715,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="60">
+        <v>1.1448089090154901E-2</v>
+      </c>
+      <c r="E25" s="61">
+        <v>8.6791072304151107E-3</v>
+      </c>
+      <c r="F25" s="61">
+        <v>1.20729544462313E-2</v>
+      </c>
+      <c r="G25" s="61">
+        <v>8.1543722425634502E-3</v>
+      </c>
+      <c r="H25" s="61">
+        <v>1.0123612125713799E-2</v>
+      </c>
+      <c r="I25" s="61">
+        <v>4.7838146200381102E-3</v>
+      </c>
+      <c r="J25" s="61">
+        <v>9.6862593987709095E-3</v>
+      </c>
+      <c r="K25" s="62">
+        <v>9.7346327344933498E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="63">
+        <v>8.2234905049506403E-3</v>
+      </c>
+      <c r="E26" s="64">
+        <v>9.2711277771383403E-3</v>
+      </c>
+      <c r="F26" s="64">
+        <v>5.0514391492671E-3</v>
+      </c>
+      <c r="G26" s="64">
+        <v>9.7397952326693897E-3</v>
+      </c>
+      <c r="H26" s="64">
+        <v>1.0151837272276599E-2</v>
+      </c>
+      <c r="I26" s="64">
+        <v>5.4014594982369603E-3</v>
+      </c>
+      <c r="J26" s="64">
+        <v>6.1688929674769402E-3</v>
+      </c>
+      <c r="K26" s="65">
+        <v>6.3847046384691696E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -8586,14 +8778,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="60">
+        <v>8.5225976186863797E-3</v>
+      </c>
+      <c r="E27" s="61">
+        <v>8.1806293082626498E-3</v>
+      </c>
+      <c r="F27" s="61">
+        <v>8.8131918302524499E-3</v>
+      </c>
+      <c r="G27" s="61">
+        <v>9.9683719526408292E-3</v>
+      </c>
+      <c r="H27" s="61">
+        <v>8.9403501615917206E-3</v>
+      </c>
+      <c r="I27" s="61">
+        <v>1.05432461383854E-2</v>
+      </c>
+      <c r="J27" s="61">
+        <v>2.5775844504552899E-2</v>
+      </c>
+      <c r="K27" s="62">
+        <v>8.8123401867022597E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -8601,14 +8809,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="63">
+        <v>7.8792393352685397E-2</v>
+      </c>
+      <c r="E28" s="64">
+        <v>9.2049566516306899E-2</v>
+      </c>
+      <c r="F28" s="64">
+        <v>7.5912327706227994E-2</v>
+      </c>
+      <c r="G28" s="64">
+        <v>9.3824085647959306E-3</v>
+      </c>
+      <c r="H28" s="64">
+        <v>9.5140122458859E-2</v>
+      </c>
+      <c r="I28" s="64">
+        <v>8.9034317499877003E-3</v>
+      </c>
+      <c r="J28" s="64">
+        <v>9.8002895653378899E-2</v>
+      </c>
+      <c r="K28" s="65">
+        <v>0.10077634497173001</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -8618,14 +8842,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="D29" s="66">
+        <v>0.16976367163780101</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4.81388319405655E-3</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1.3871335944112899E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>4.9898478118407903E-3</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5.49831396034483E-3</v>
+      </c>
+      <c r="I29" s="16">
+        <v>5.3075945063395698E-3</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.16036310831394299</v>
+      </c>
+      <c r="K29" s="67">
+        <v>4.4440398166567998E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -8633,14 +8873,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="63">
+        <v>6.2297269033274802E-2</v>
+      </c>
+      <c r="E30" s="64">
+        <v>6.50995463513423E-3</v>
+      </c>
+      <c r="F30" s="64">
+        <v>1.8249866252560702E-2</v>
+      </c>
+      <c r="G30" s="64">
+        <v>6.2810329512196401E-3</v>
+      </c>
+      <c r="H30" s="64">
+        <v>4.2599369501196997E-3</v>
+      </c>
+      <c r="I30" s="64">
+        <v>5.9979126816079899E-3</v>
+      </c>
+      <c r="J30" s="64">
+        <v>0.10486708342018999</v>
+      </c>
+      <c r="K30" s="65">
+        <v>4.4452703098963901E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -8903,19 +9159,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9511,28 +9767,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -9542,28 +9798,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -9573,14 +9829,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -9588,14 +9844,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -9605,14 +9861,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -9620,14 +9876,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9830,19 +10086,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10447,28 +10703,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -10478,28 +10734,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -10509,14 +10765,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -10524,14 +10780,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -10541,14 +10797,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -10556,14 +10812,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -10808,7 +11064,3162 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>5</v>
+      </c>
+      <c r="E5" s="19">
+        <v>163</v>
+      </c>
+      <c r="F5" s="19">
+        <v>14</v>
+      </c>
+      <c r="G5" s="19">
+        <v>160</v>
+      </c>
+      <c r="H5" s="19">
+        <v>138</v>
+      </c>
+      <c r="I5" s="19">
+        <v>732</v>
+      </c>
+      <c r="J5" s="19">
+        <v>8</v>
+      </c>
+      <c r="K5" s="19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19">
+        <v>6</v>
+      </c>
+      <c r="E6" s="19">
+        <v>159</v>
+      </c>
+      <c r="F6" s="19">
+        <v>22</v>
+      </c>
+      <c r="G6" s="19">
+        <v>110</v>
+      </c>
+      <c r="H6" s="19">
+        <v>174</v>
+      </c>
+      <c r="I6" s="19">
+        <v>725</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19">
+        <v>130</v>
+      </c>
+      <c r="F7" s="19">
+        <v>19</v>
+      </c>
+      <c r="G7" s="19">
+        <v>171</v>
+      </c>
+      <c r="H7" s="19">
+        <v>142</v>
+      </c>
+      <c r="I7" s="19">
+        <v>732</v>
+      </c>
+      <c r="J7" s="19">
+        <v>9</v>
+      </c>
+      <c r="K7" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
+        <v>162</v>
+      </c>
+      <c r="F8" s="19">
+        <v>51</v>
+      </c>
+      <c r="G8" s="19">
+        <v>165</v>
+      </c>
+      <c r="H8" s="19">
+        <v>137</v>
+      </c>
+      <c r="I8" s="19">
+        <v>732</v>
+      </c>
+      <c r="J8" s="19">
+        <v>15</v>
+      </c>
+      <c r="K8" s="19">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>139</v>
+      </c>
+      <c r="E9" s="19">
+        <v>83</v>
+      </c>
+      <c r="F9" s="19">
+        <v>201</v>
+      </c>
+      <c r="G9" s="19">
+        <v>111</v>
+      </c>
+      <c r="H9" s="19">
+        <v>174</v>
+      </c>
+      <c r="I9" s="19">
+        <v>732</v>
+      </c>
+      <c r="J9" s="19">
+        <v>180</v>
+      </c>
+      <c r="K9" s="19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>104</v>
+      </c>
+      <c r="E10" s="19">
+        <v>158</v>
+      </c>
+      <c r="F10" s="19">
+        <v>96</v>
+      </c>
+      <c r="G10" s="19">
+        <v>191</v>
+      </c>
+      <c r="H10" s="19">
+        <v>79</v>
+      </c>
+      <c r="I10" s="19">
+        <v>732</v>
+      </c>
+      <c r="J10" s="19">
+        <v>215</v>
+      </c>
+      <c r="K10" s="19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>151</v>
+      </c>
+      <c r="E11" s="19">
+        <v>175</v>
+      </c>
+      <c r="F11" s="19">
+        <v>262</v>
+      </c>
+      <c r="G11" s="19">
+        <v>97</v>
+      </c>
+      <c r="H11" s="19">
+        <v>115</v>
+      </c>
+      <c r="I11" s="19">
+        <v>732</v>
+      </c>
+      <c r="J11" s="19">
+        <v>214</v>
+      </c>
+      <c r="K11" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>84</v>
+      </c>
+      <c r="E12" s="19">
+        <v>125</v>
+      </c>
+      <c r="F12" s="19">
+        <v>132</v>
+      </c>
+      <c r="G12" s="19">
+        <v>122</v>
+      </c>
+      <c r="H12" s="19">
+        <v>152</v>
+      </c>
+      <c r="I12" s="19">
+        <v>732</v>
+      </c>
+      <c r="J12" s="19">
+        <v>204</v>
+      </c>
+      <c r="K12" s="19">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>61</v>
+      </c>
+      <c r="E13" s="19">
+        <v>69</v>
+      </c>
+      <c r="F13" s="19">
+        <v>71</v>
+      </c>
+      <c r="G13" s="19">
+        <v>77</v>
+      </c>
+      <c r="H13" s="19">
+        <v>73</v>
+      </c>
+      <c r="I13" s="19">
+        <v>80</v>
+      </c>
+      <c r="J13" s="19">
+        <v>38</v>
+      </c>
+      <c r="K13" s="19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <v>64</v>
+      </c>
+      <c r="E14" s="19">
+        <v>74</v>
+      </c>
+      <c r="F14" s="19">
+        <v>71</v>
+      </c>
+      <c r="G14" s="19">
+        <v>66</v>
+      </c>
+      <c r="H14" s="19">
+        <v>81</v>
+      </c>
+      <c r="I14" s="19">
+        <v>75</v>
+      </c>
+      <c r="J14" s="19">
+        <v>59</v>
+      </c>
+      <c r="K14" s="19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>15</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4</v>
+      </c>
+      <c r="G15" s="19">
+        <v>74</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4</v>
+      </c>
+      <c r="I15" s="19">
+        <v>72</v>
+      </c>
+      <c r="J15" s="19">
+        <v>4</v>
+      </c>
+      <c r="K15" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+      <c r="F16" s="19">
+        <v>20</v>
+      </c>
+      <c r="G16" s="19">
+        <v>55</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19">
+        <v>441</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>732</v>
+      </c>
+      <c r="H17" s="19">
+        <v>292</v>
+      </c>
+      <c r="I17" s="19">
+        <v>108</v>
+      </c>
+      <c r="J17" s="19">
+        <v>105</v>
+      </c>
+      <c r="K17" s="19">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19">
+        <v>11</v>
+      </c>
+      <c r="E18" s="19">
+        <v>171</v>
+      </c>
+      <c r="F18" s="19">
+        <v>210</v>
+      </c>
+      <c r="G18" s="19">
+        <v>143</v>
+      </c>
+      <c r="H18" s="19">
+        <v>124</v>
+      </c>
+      <c r="I18" s="19">
+        <v>229</v>
+      </c>
+      <c r="J18" s="19">
+        <v>7</v>
+      </c>
+      <c r="K18" s="19">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>7</v>
+      </c>
+      <c r="E19" s="19">
+        <v>126</v>
+      </c>
+      <c r="F19" s="19">
+        <v>9</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="19">
+        <v>634</v>
+      </c>
+      <c r="I19" s="19">
+        <v>4</v>
+      </c>
+      <c r="J19" s="19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="19">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19">
+        <v>26</v>
+      </c>
+      <c r="E20" s="19">
+        <v>132</v>
+      </c>
+      <c r="F20" s="19">
+        <v>354</v>
+      </c>
+      <c r="G20" s="19">
+        <v>137</v>
+      </c>
+      <c r="H20" s="19">
+        <v>133</v>
+      </c>
+      <c r="I20" s="19">
+        <v>190</v>
+      </c>
+      <c r="J20" s="19">
+        <v>10</v>
+      </c>
+      <c r="K20" s="19">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="60">
+        <v>6</v>
+      </c>
+      <c r="E23" s="61">
+        <v>159</v>
+      </c>
+      <c r="F23" s="61">
+        <v>22</v>
+      </c>
+      <c r="G23" s="61">
+        <v>160</v>
+      </c>
+      <c r="H23" s="61">
+        <v>174</v>
+      </c>
+      <c r="I23" s="61">
+        <v>732</v>
+      </c>
+      <c r="J23" s="61">
+        <v>8</v>
+      </c>
+      <c r="K23" s="62">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="63">
+        <v>12</v>
+      </c>
+      <c r="E24" s="64">
+        <v>162</v>
+      </c>
+      <c r="F24" s="64">
+        <v>51</v>
+      </c>
+      <c r="G24" s="64">
+        <v>165</v>
+      </c>
+      <c r="H24" s="64">
+        <v>137</v>
+      </c>
+      <c r="I24" s="64">
+        <v>732</v>
+      </c>
+      <c r="J24" s="64">
+        <v>9</v>
+      </c>
+      <c r="K24" s="65">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="60">
+        <v>139</v>
+      </c>
+      <c r="E25" s="61">
+        <v>158</v>
+      </c>
+      <c r="F25" s="61">
+        <v>201</v>
+      </c>
+      <c r="G25" s="61">
+        <v>191</v>
+      </c>
+      <c r="H25" s="61">
+        <v>174</v>
+      </c>
+      <c r="I25" s="61">
+        <v>732</v>
+      </c>
+      <c r="J25" s="61">
+        <v>215</v>
+      </c>
+      <c r="K25" s="62">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="63">
+        <v>151</v>
+      </c>
+      <c r="E26" s="64">
+        <v>125</v>
+      </c>
+      <c r="F26" s="64">
+        <v>262</v>
+      </c>
+      <c r="G26" s="64">
+        <v>122</v>
+      </c>
+      <c r="H26" s="64">
+        <v>152</v>
+      </c>
+      <c r="I26" s="64">
+        <v>732</v>
+      </c>
+      <c r="J26" s="64">
+        <v>214</v>
+      </c>
+      <c r="K26" s="65">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="60">
+        <v>64</v>
+      </c>
+      <c r="E27" s="61">
+        <v>74</v>
+      </c>
+      <c r="F27" s="61">
+        <v>71</v>
+      </c>
+      <c r="G27" s="61">
+        <v>77</v>
+      </c>
+      <c r="H27" s="61">
+        <v>81</v>
+      </c>
+      <c r="I27" s="61">
+        <v>75</v>
+      </c>
+      <c r="J27" s="61">
+        <v>59</v>
+      </c>
+      <c r="K27" s="62">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="63">
+        <v>15</v>
+      </c>
+      <c r="E28" s="64">
+        <v>4</v>
+      </c>
+      <c r="F28" s="64">
+        <v>20</v>
+      </c>
+      <c r="G28" s="64">
+        <v>74</v>
+      </c>
+      <c r="H28" s="64">
+        <v>4</v>
+      </c>
+      <c r="I28" s="64">
+        <v>72</v>
+      </c>
+      <c r="J28" s="64">
+        <v>4</v>
+      </c>
+      <c r="K28" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="66">
+        <v>11</v>
+      </c>
+      <c r="E29" s="16">
+        <v>171</v>
+      </c>
+      <c r="F29" s="16">
+        <v>210</v>
+      </c>
+      <c r="G29" s="16">
+        <v>732</v>
+      </c>
+      <c r="H29" s="16">
+        <v>124</v>
+      </c>
+      <c r="I29" s="16">
+        <v>229</v>
+      </c>
+      <c r="J29" s="16">
+        <v>105</v>
+      </c>
+      <c r="K29" s="67">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="63">
+        <v>26</v>
+      </c>
+      <c r="E30" s="64">
+        <v>132</v>
+      </c>
+      <c r="F30" s="64">
+        <v>354</v>
+      </c>
+      <c r="G30" s="64">
+        <v>137</v>
+      </c>
+      <c r="H30" s="64">
+        <v>634</v>
+      </c>
+      <c r="I30" s="64">
+        <v>190</v>
+      </c>
+      <c r="J30" s="64">
+        <v>10</v>
+      </c>
+      <c r="K30" s="65">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>394000000000000</v>
+      </c>
+      <c r="E5" s="19">
+        <v>154970000000000</v>
+      </c>
+      <c r="F5" s="19">
+        <v>178800000000000</v>
+      </c>
+      <c r="G5" s="19">
+        <v>152800000000000</v>
+      </c>
+      <c r="H5" s="19">
+        <v>134370000000000</v>
+      </c>
+      <c r="I5" s="19">
+        <v>611640000000000</v>
+      </c>
+      <c r="J5" s="19">
+        <v>623000000000000</v>
+      </c>
+      <c r="K5" s="19">
+        <v>114840000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19">
+        <v>533000000000000</v>
+      </c>
+      <c r="E6" s="19">
+        <v>161020000000000</v>
+      </c>
+      <c r="F6" s="19">
+        <v>164300000000000</v>
+      </c>
+      <c r="G6" s="19">
+        <v>109280000000000</v>
+      </c>
+      <c r="H6" s="19">
+        <v>170830000000000</v>
+      </c>
+      <c r="I6" s="19">
+        <v>171240000000000</v>
+      </c>
+      <c r="J6" s="19">
+        <v>374000000000000</v>
+      </c>
+      <c r="K6" s="19">
+        <v>186790000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>910000000000000</v>
+      </c>
+      <c r="E7" s="19">
+        <v>130110000000000</v>
+      </c>
+      <c r="F7" s="19">
+        <v>186800000000000</v>
+      </c>
+      <c r="G7" s="19">
+        <v>168140000000000</v>
+      </c>
+      <c r="H7" s="19">
+        <v>146800000000000</v>
+      </c>
+      <c r="I7" s="19">
+        <v>731590000000000</v>
+      </c>
+      <c r="J7" s="19">
+        <v>113500000000000</v>
+      </c>
+      <c r="K7" s="19">
+        <v>106820000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
+        <v>157520000000000</v>
+      </c>
+      <c r="F8" s="19">
+        <v>532000000000000</v>
+      </c>
+      <c r="G8" s="19">
+        <v>166240000000000</v>
+      </c>
+      <c r="H8" s="19">
+        <v>135160000000000</v>
+      </c>
+      <c r="I8" s="19">
+        <v>729760000000000</v>
+      </c>
+      <c r="J8" s="19">
+        <v>146700000000000</v>
+      </c>
+      <c r="K8" s="19">
+        <v>161720000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>142220000000000</v>
+      </c>
+      <c r="E9" s="19">
+        <v>802200000000000</v>
+      </c>
+      <c r="F9" s="19">
+        <v>190570000000000</v>
+      </c>
+      <c r="G9" s="19">
+        <v>112460000000000</v>
+      </c>
+      <c r="H9" s="19">
+        <v>165090000000000</v>
+      </c>
+      <c r="I9" s="19">
+        <v>732</v>
+      </c>
+      <c r="J9" s="19">
+        <v>178290000000000</v>
+      </c>
+      <c r="K9" s="19">
+        <v>575800000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>106460000000000</v>
+      </c>
+      <c r="E10" s="19">
+        <v>160270000000000</v>
+      </c>
+      <c r="F10" s="19">
+        <v>886100000000000</v>
+      </c>
+      <c r="G10" s="19">
+        <v>189310000000000</v>
+      </c>
+      <c r="H10" s="19">
+        <v>794400000000000</v>
+      </c>
+      <c r="I10" s="19">
+        <v>732</v>
+      </c>
+      <c r="J10" s="19">
+        <v>205040000000000</v>
+      </c>
+      <c r="K10" s="19">
+        <v>151200000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>151690000000000</v>
+      </c>
+      <c r="E11" s="19">
+        <v>176680000000000</v>
+      </c>
+      <c r="F11" s="19">
+        <v>259280000000000</v>
+      </c>
+      <c r="G11" s="19">
+        <v>985000000000000</v>
+      </c>
+      <c r="H11" s="19">
+        <v>111470000000000</v>
+      </c>
+      <c r="I11" s="19">
+        <v>732</v>
+      </c>
+      <c r="J11" s="19">
+        <v>217730000000000</v>
+      </c>
+      <c r="K11" s="19">
+        <v>140270000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>848100000000000</v>
+      </c>
+      <c r="E12" s="19">
+        <v>127690000000000</v>
+      </c>
+      <c r="F12" s="19">
+        <v>132240000000000</v>
+      </c>
+      <c r="G12" s="19">
+        <v>115800000000000</v>
+      </c>
+      <c r="H12" s="19">
+        <v>140900000000000</v>
+      </c>
+      <c r="I12" s="19">
+        <v>732</v>
+      </c>
+      <c r="J12" s="19">
+        <v>221090000000000</v>
+      </c>
+      <c r="K12" s="19">
+        <v>196060000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>678200000000000</v>
+      </c>
+      <c r="E13" s="19">
+        <v>703600000000000</v>
+      </c>
+      <c r="F13" s="19">
+        <v>689700000000000</v>
+      </c>
+      <c r="G13" s="19">
+        <v>724400000000000</v>
+      </c>
+      <c r="H13" s="19">
+        <v>708900000000000</v>
+      </c>
+      <c r="I13" s="19">
+        <v>705200000000000</v>
+      </c>
+      <c r="J13" s="19">
+        <v>376300000000000</v>
+      </c>
+      <c r="K13" s="19">
+        <v>712600000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <v>678500000000000</v>
+      </c>
+      <c r="E14" s="19">
+        <v>739200000000000</v>
+      </c>
+      <c r="F14" s="19">
+        <v>709400000000000</v>
+      </c>
+      <c r="G14" s="19">
+        <v>652800000000000</v>
+      </c>
+      <c r="H14" s="19">
+        <v>727100000000000</v>
+      </c>
+      <c r="I14" s="19">
+        <v>695300000000000</v>
+      </c>
+      <c r="J14" s="19">
+        <v>499700000000000</v>
+      </c>
+      <c r="K14" s="19">
+        <v>768800000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>188300000000000</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4</v>
+      </c>
+      <c r="G15" s="19">
+        <v>706400000000000</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4</v>
+      </c>
+      <c r="I15" s="19">
+        <v>725800000000000</v>
+      </c>
+      <c r="J15" s="19">
+        <v>4</v>
+      </c>
+      <c r="K15" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+      <c r="F16" s="19">
+        <v>178400000000000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>549700000000000</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>211000000000000</v>
+      </c>
+      <c r="E17" s="19">
+        <v>418020000000000</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>732</v>
+      </c>
+      <c r="H17" s="19">
+        <v>302210000000000</v>
+      </c>
+      <c r="I17" s="19">
+        <v>102020000000000</v>
+      </c>
+      <c r="J17" s="19">
+        <v>124840000000000</v>
+      </c>
+      <c r="K17" s="19">
+        <v>691880000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19">
+        <v>652000000000000</v>
+      </c>
+      <c r="E18" s="19">
+        <v>174770000000000</v>
+      </c>
+      <c r="F18" s="19">
+        <v>216380000000000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>129080000000000</v>
+      </c>
+      <c r="H18" s="19">
+        <v>124220000000000</v>
+      </c>
+      <c r="I18" s="19">
+        <v>219280000000000</v>
+      </c>
+      <c r="J18" s="19">
+        <v>627000000000000</v>
+      </c>
+      <c r="K18" s="19">
+        <v>124770000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>783000000000000</v>
+      </c>
+      <c r="E19" s="19">
+        <v>588000000000000</v>
+      </c>
+      <c r="F19" s="19">
+        <v>719000000000000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>402000000000000</v>
+      </c>
+      <c r="H19" s="19">
+        <v>644150000000000</v>
+      </c>
+      <c r="I19" s="19">
+        <v>4</v>
+      </c>
+      <c r="J19" s="19">
+        <v>460000000000000</v>
+      </c>
+      <c r="K19" s="19">
+        <v>713320000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19">
+        <v>281900000000000</v>
+      </c>
+      <c r="E20" s="19">
+        <v>134520000000000</v>
+      </c>
+      <c r="F20" s="19">
+        <v>369160000000000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>130540000000000</v>
+      </c>
+      <c r="H20" s="19">
+        <v>130920000000000</v>
+      </c>
+      <c r="I20" s="19">
+        <v>190690000000000</v>
+      </c>
+      <c r="J20" s="19">
+        <v>831000000000000</v>
+      </c>
+      <c r="K20" s="19">
+        <v>248810000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="60">
+        <v>5.33</v>
+      </c>
+      <c r="E23" s="61">
+        <v>1.6102000000000001</v>
+      </c>
+      <c r="F23" s="61">
+        <v>1.643</v>
+      </c>
+      <c r="G23" s="61">
+        <v>1.528</v>
+      </c>
+      <c r="H23" s="61">
+        <v>1.7082999999999999</v>
+      </c>
+      <c r="I23" s="61">
+        <v>6.1163999999999996</v>
+      </c>
+      <c r="J23" s="61">
+        <v>6.23</v>
+      </c>
+      <c r="K23" s="62">
+        <v>1.8678999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="63">
+        <v>12</v>
+      </c>
+      <c r="E24" s="64">
+        <v>1.5751999999999999</v>
+      </c>
+      <c r="F24" s="64">
+        <v>5.32</v>
+      </c>
+      <c r="G24" s="64">
+        <v>1.6624000000000001</v>
+      </c>
+      <c r="H24" s="64">
+        <v>1.3515999999999999</v>
+      </c>
+      <c r="I24" s="64">
+        <v>7.3159000000000001</v>
+      </c>
+      <c r="J24" s="64">
+        <v>1.135</v>
+      </c>
+      <c r="K24" s="65">
+        <v>1.6172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="60">
+        <v>1.4221999999999999</v>
+      </c>
+      <c r="E25" s="61">
+        <v>1.6027</v>
+      </c>
+      <c r="F25" s="61">
+        <v>1.9056999999999999</v>
+      </c>
+      <c r="G25" s="61">
+        <v>1.8931</v>
+      </c>
+      <c r="H25" s="61">
+        <v>1.6509</v>
+      </c>
+      <c r="I25" s="61">
+        <v>732</v>
+      </c>
+      <c r="J25" s="61">
+        <v>2.0503999999999998</v>
+      </c>
+      <c r="K25" s="62">
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="63">
+        <v>1.5168999999999999</v>
+      </c>
+      <c r="E26" s="64">
+        <v>1.2768999999999999</v>
+      </c>
+      <c r="F26" s="64">
+        <v>2.5928</v>
+      </c>
+      <c r="G26" s="64">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="H26" s="64">
+        <v>1.409</v>
+      </c>
+      <c r="I26" s="64">
+        <v>732</v>
+      </c>
+      <c r="J26" s="64">
+        <v>2.1772999999999998</v>
+      </c>
+      <c r="K26" s="65">
+        <v>1.9605999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="60">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="E27" s="61">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="F27" s="61">
+        <v>7.0940000000000003</v>
+      </c>
+      <c r="G27" s="61">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="H27" s="61">
+        <v>7.2709999999999999</v>
+      </c>
+      <c r="I27" s="61">
+        <v>6.9530000000000003</v>
+      </c>
+      <c r="J27" s="61">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="K27" s="62">
+        <v>7.1260000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="63">
+        <v>1.883</v>
+      </c>
+      <c r="E28" s="64">
+        <v>4</v>
+      </c>
+      <c r="F28" s="64">
+        <v>1.784</v>
+      </c>
+      <c r="G28" s="64">
+        <v>7.0640000000000001</v>
+      </c>
+      <c r="H28" s="64">
+        <v>4</v>
+      </c>
+      <c r="I28" s="64">
+        <v>7.258</v>
+      </c>
+      <c r="J28" s="64">
+        <v>4</v>
+      </c>
+      <c r="K28" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="66">
+        <v>6.52</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1.7477</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2.1638000000000002</v>
+      </c>
+      <c r="G29" s="16">
+        <v>732</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1.2422</v>
+      </c>
+      <c r="I29" s="16">
+        <v>2.1928000000000001</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1.2484</v>
+      </c>
+      <c r="K29" s="67">
+        <v>6.9188000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="63">
+        <v>2.819</v>
+      </c>
+      <c r="E30" s="64">
+        <v>1.3452</v>
+      </c>
+      <c r="F30" s="64">
+        <v>3.6916000000000002</v>
+      </c>
+      <c r="G30" s="64">
+        <v>1.3053999999999999</v>
+      </c>
+      <c r="H30" s="64">
+        <v>6.4414999999999996</v>
+      </c>
+      <c r="I30" s="64">
+        <v>1.9069</v>
+      </c>
+      <c r="J30" s="64">
+        <v>8.31</v>
+      </c>
+      <c r="K30" s="65">
+        <v>7.1332000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>9</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>9</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>8</v>
+      </c>
+      <c r="H8" s="19">
+        <v>9</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>6</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>8</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>7</v>
+      </c>
+      <c r="F12" s="19">
+        <v>3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>6</v>
+      </c>
+      <c r="H12" s="19">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>8</v>
+      </c>
+      <c r="K12" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19">
+        <v>4</v>
+      </c>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9</v>
+      </c>
+      <c r="K14" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>8</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="60">
+        <v>3</v>
+      </c>
+      <c r="E23" s="61">
+        <v>3</v>
+      </c>
+      <c r="F23" s="61">
+        <v>2</v>
+      </c>
+      <c r="G23" s="61">
+        <v>1</v>
+      </c>
+      <c r="H23" s="61">
+        <v>3</v>
+      </c>
+      <c r="I23" s="61">
+        <v>1</v>
+      </c>
+      <c r="J23" s="61">
+        <v>1</v>
+      </c>
+      <c r="K23" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="63">
+        <v>4</v>
+      </c>
+      <c r="E24" s="64">
+        <v>9</v>
+      </c>
+      <c r="F24" s="64">
+        <v>2</v>
+      </c>
+      <c r="G24" s="64">
+        <v>8</v>
+      </c>
+      <c r="H24" s="64">
+        <v>9</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1</v>
+      </c>
+      <c r="J24" s="64">
+        <v>1</v>
+      </c>
+      <c r="K24" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="60">
+        <v>1</v>
+      </c>
+      <c r="E25" s="61">
+        <v>9</v>
+      </c>
+      <c r="F25" s="61">
+        <v>1</v>
+      </c>
+      <c r="G25" s="61">
+        <v>7</v>
+      </c>
+      <c r="H25" s="61">
+        <v>1</v>
+      </c>
+      <c r="I25" s="61">
+        <v>1</v>
+      </c>
+      <c r="J25" s="61">
+        <v>3</v>
+      </c>
+      <c r="K25" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="63">
+        <v>1</v>
+      </c>
+      <c r="E26" s="64">
+        <v>7</v>
+      </c>
+      <c r="F26" s="64">
+        <v>1</v>
+      </c>
+      <c r="G26" s="64">
+        <v>6</v>
+      </c>
+      <c r="H26" s="64">
+        <v>10</v>
+      </c>
+      <c r="I26" s="64">
+        <v>2</v>
+      </c>
+      <c r="J26" s="64">
+        <v>1</v>
+      </c>
+      <c r="K26" s="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="60">
+        <v>2</v>
+      </c>
+      <c r="E27" s="61">
+        <v>2</v>
+      </c>
+      <c r="F27" s="61">
+        <v>2</v>
+      </c>
+      <c r="G27" s="61">
+        <v>1</v>
+      </c>
+      <c r="H27" s="61">
+        <v>4</v>
+      </c>
+      <c r="I27" s="61">
+        <v>7</v>
+      </c>
+      <c r="J27" s="61">
+        <v>9</v>
+      </c>
+      <c r="K27" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="63">
+        <v>1</v>
+      </c>
+      <c r="E28" s="64">
+        <v>1</v>
+      </c>
+      <c r="F28" s="64">
+        <v>2</v>
+      </c>
+      <c r="G28" s="64">
+        <v>1</v>
+      </c>
+      <c r="H28" s="64">
+        <v>1</v>
+      </c>
+      <c r="I28" s="64">
+        <v>1</v>
+      </c>
+      <c r="J28" s="64">
+        <v>4</v>
+      </c>
+      <c r="K28" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="66">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3</v>
+      </c>
+      <c r="F29" s="16">
+        <v>4</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1</v>
+      </c>
+      <c r="K29" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="63">
+        <v>2</v>
+      </c>
+      <c r="E30" s="64">
+        <v>2</v>
+      </c>
+      <c r="F30" s="64">
+        <v>2</v>
+      </c>
+      <c r="G30" s="64">
+        <v>2</v>
+      </c>
+      <c r="H30" s="64">
+        <v>1</v>
+      </c>
+      <c r="I30" s="64">
+        <v>4</v>
+      </c>
+      <c r="J30" s="64">
+        <v>2</v>
+      </c>
+      <c r="K30" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10826,19 +14237,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="A1" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10887,28 +14298,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="19">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="F5" s="19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G5" s="19">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="I5" s="19">
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="J5" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K5" s="19">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10917,28 +14328,28 @@
         <v>12</v>
       </c>
       <c r="D6" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="19">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G6" s="19">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="H6" s="19">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="I6" s="19">
-        <v>725</v>
+        <v>5</v>
       </c>
       <c r="J6" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6" s="19">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -10950,28 +14361,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7" s="19">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G7" s="19">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="H7" s="19">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="I7" s="19">
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="J7" s="19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K7" s="19">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10981,28 +14392,28 @@
         <v>12</v>
       </c>
       <c r="D8" s="19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E8" s="19">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="F8" s="19">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G8" s="19">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="H8" s="19">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="I8" s="19">
-        <v>732</v>
+        <v>2</v>
       </c>
       <c r="J8" s="19">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K8" s="19">
-        <v>162</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -11016,28 +14427,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="19">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="E9" s="19">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="F9" s="19">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="G9" s="19">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="H9" s="19">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="I9" s="19">
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="J9" s="19">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="K9" s="19">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -11046,28 +14457,28 @@
         <v>12</v>
       </c>
       <c r="D10" s="19">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E10" s="19">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="F10" s="19">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="G10" s="19">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="H10" s="19">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I10" s="19">
-        <v>732</v>
+        <v>8</v>
       </c>
       <c r="J10" s="19">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="K10" s="19">
-        <v>156</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -11079,28 +14490,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="19">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="E11" s="19">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="F11" s="19">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="G11" s="19">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="H11" s="19">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="I11" s="19">
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="J11" s="19">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="K11" s="19">
-        <v>142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11110,28 +14521,28 @@
         <v>12</v>
       </c>
       <c r="D12" s="19">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E12" s="19">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="F12" s="19">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="G12" s="19">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="H12" s="19">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="I12" s="19">
-        <v>732</v>
+        <v>2</v>
       </c>
       <c r="J12" s="19">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="K12" s="19">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -11145,28 +14556,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="19">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E13" s="19">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F13" s="19">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="G13" s="19">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="I13" s="19">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="J13" s="19">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K13" s="19">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -11175,28 +14586,28 @@
         <v>12</v>
       </c>
       <c r="D14" s="19">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E14" s="19">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F14" s="19">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="G14" s="19">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="H14" s="19">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="I14" s="19">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J14" s="19">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K14" s="19">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -11208,28 +14619,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="19">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="H15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="19">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="J15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11239,28 +14650,28 @@
         <v>12</v>
       </c>
       <c r="D16" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="19">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G16" s="19">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="H16" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J16" s="19">
         <v>4</v>
       </c>
       <c r="K16" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -11274,28 +14685,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="19">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="19">
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="H17" s="19">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="I17" s="19">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="J17" s="19">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="K17" s="19">
-        <v>700</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -11304,28 +14715,28 @@
         <v>12</v>
       </c>
       <c r="D18" s="19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E18" s="19">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="G18" s="19">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="H18" s="19">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="I18" s="19">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="J18" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K18" s="19">
-        <v>126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -11337,28 +14748,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E19" s="19">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="F19" s="19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G19" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="19">
-        <v>634</v>
+        <v>1</v>
       </c>
       <c r="I19" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19" s="19">
-        <v>724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11368,28 +14779,28 @@
         <v>12</v>
       </c>
       <c r="D20" s="19">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E20" s="19">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F20" s="19">
-        <v>354</v>
+        <v>2</v>
       </c>
       <c r="G20" s="19">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H20" s="19">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="I20" s="19">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="J20" s="19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K20" s="19">
-        <v>263</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -11434,28 +14845,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="60">
+        <v>3</v>
+      </c>
+      <c r="E23" s="61">
+        <v>3</v>
+      </c>
+      <c r="F23" s="61">
+        <v>2</v>
+      </c>
+      <c r="G23" s="61">
+        <v>1</v>
+      </c>
+      <c r="H23" s="61">
+        <v>3</v>
+      </c>
+      <c r="I23" s="61">
+        <v>1</v>
+      </c>
+      <c r="J23" s="61">
+        <v>1</v>
+      </c>
+      <c r="K23" s="62">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="63">
+        <v>4</v>
+      </c>
+      <c r="E24" s="64">
+        <v>9</v>
+      </c>
+      <c r="F24" s="64">
+        <v>2</v>
+      </c>
+      <c r="G24" s="64">
+        <v>8</v>
+      </c>
+      <c r="H24" s="64">
+        <v>9</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1</v>
+      </c>
+      <c r="J24" s="64">
+        <v>1</v>
+      </c>
+      <c r="K24" s="65">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -11465,28 +14908,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="60">
+        <v>1</v>
+      </c>
+      <c r="E25" s="61">
+        <v>9</v>
+      </c>
+      <c r="F25" s="61">
+        <v>1</v>
+      </c>
+      <c r="G25" s="61">
+        <v>7</v>
+      </c>
+      <c r="H25" s="61">
+        <v>1</v>
+      </c>
+      <c r="I25" s="61">
+        <v>1</v>
+      </c>
+      <c r="J25" s="61">
+        <v>3</v>
+      </c>
+      <c r="K25" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="63">
+        <v>1</v>
+      </c>
+      <c r="E26" s="64">
+        <v>7</v>
+      </c>
+      <c r="F26" s="64">
+        <v>1</v>
+      </c>
+      <c r="G26" s="64">
+        <v>6</v>
+      </c>
+      <c r="H26" s="64">
+        <v>10</v>
+      </c>
+      <c r="I26" s="64">
+        <v>2</v>
+      </c>
+      <c r="J26" s="64">
+        <v>1</v>
+      </c>
+      <c r="K26" s="65">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -11496,14 +14971,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="60">
+        <v>2</v>
+      </c>
+      <c r="E27" s="61">
+        <v>2</v>
+      </c>
+      <c r="F27" s="61">
+        <v>2</v>
+      </c>
+      <c r="G27" s="61">
+        <v>1</v>
+      </c>
+      <c r="H27" s="61">
+        <v>4</v>
+      </c>
+      <c r="I27" s="61">
+        <v>7</v>
+      </c>
+      <c r="J27" s="61">
+        <v>9</v>
+      </c>
+      <c r="K27" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -11511,14 +15002,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="63">
+        <v>1</v>
+      </c>
+      <c r="E28" s="64">
+        <v>1</v>
+      </c>
+      <c r="F28" s="64">
+        <v>2</v>
+      </c>
+      <c r="G28" s="64">
+        <v>1</v>
+      </c>
+      <c r="H28" s="64">
+        <v>1</v>
+      </c>
+      <c r="I28" s="64">
+        <v>1</v>
+      </c>
+      <c r="J28" s="64">
+        <v>4</v>
+      </c>
+      <c r="K28" s="65">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -11528,14 +15035,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="D29" s="66">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3</v>
+      </c>
+      <c r="F29" s="16">
+        <v>4</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1</v>
+      </c>
+      <c r="K29" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -11543,2789 +15066,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>394000000000000</v>
-      </c>
-      <c r="E5" s="19">
-        <v>154970000000000</v>
-      </c>
-      <c r="F5" s="19">
-        <v>178800000000000</v>
-      </c>
-      <c r="G5" s="19">
-        <v>152800000000000</v>
-      </c>
-      <c r="H5" s="19">
-        <v>134370000000000</v>
-      </c>
-      <c r="I5" s="19">
-        <v>611640000000000</v>
-      </c>
-      <c r="J5" s="19">
-        <v>623000000000000</v>
-      </c>
-      <c r="K5" s="19">
-        <v>114840000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
-        <v>533000000000000</v>
-      </c>
-      <c r="E6" s="19">
-        <v>161020000000000</v>
-      </c>
-      <c r="F6" s="19">
-        <v>164300000000000</v>
-      </c>
-      <c r="G6" s="19">
-        <v>109280000000000</v>
-      </c>
-      <c r="H6" s="19">
-        <v>170830000000000</v>
-      </c>
-      <c r="I6" s="19">
-        <v>171240000000000</v>
-      </c>
-      <c r="J6" s="19">
-        <v>374000000000000</v>
-      </c>
-      <c r="K6" s="19">
-        <v>186790000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>910000000000000</v>
-      </c>
-      <c r="E7" s="19">
-        <v>130110000000000</v>
-      </c>
-      <c r="F7" s="19">
-        <v>186800000000000</v>
-      </c>
-      <c r="G7" s="19">
-        <v>168140000000000</v>
-      </c>
-      <c r="H7" s="19">
-        <v>146800000000000</v>
-      </c>
-      <c r="I7" s="19">
-        <v>731590000000000</v>
-      </c>
-      <c r="J7" s="19">
-        <v>113500000000000</v>
-      </c>
-      <c r="K7" s="19">
-        <v>106820000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19">
-        <v>157520000000000</v>
-      </c>
-      <c r="F8" s="19">
-        <v>532000000000000</v>
-      </c>
-      <c r="G8" s="19">
-        <v>166240000000000</v>
-      </c>
-      <c r="H8" s="19">
-        <v>135160000000000</v>
-      </c>
-      <c r="I8" s="19">
-        <v>729760000000000</v>
-      </c>
-      <c r="J8" s="19">
-        <v>146700000000000</v>
-      </c>
-      <c r="K8" s="19">
-        <v>161720000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>142220000000000</v>
-      </c>
-      <c r="E9" s="19">
-        <v>802200000000000</v>
-      </c>
-      <c r="F9" s="19">
-        <v>190570000000000</v>
-      </c>
-      <c r="G9" s="19">
-        <v>112460000000000</v>
-      </c>
-      <c r="H9" s="19">
-        <v>165090000000000</v>
-      </c>
-      <c r="I9" s="19">
-        <v>732</v>
-      </c>
-      <c r="J9" s="19">
-        <v>178290000000000</v>
-      </c>
-      <c r="K9" s="19">
-        <v>575800000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>106460000000000</v>
-      </c>
-      <c r="E10" s="19">
-        <v>160270000000000</v>
-      </c>
-      <c r="F10" s="19">
-        <v>886100000000000</v>
-      </c>
-      <c r="G10" s="19">
-        <v>189310000000000</v>
-      </c>
-      <c r="H10" s="19">
-        <v>794400000000000</v>
-      </c>
-      <c r="I10" s="19">
-        <v>732</v>
-      </c>
-      <c r="J10" s="19">
-        <v>205040000000000</v>
-      </c>
-      <c r="K10" s="19">
-        <v>151200000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>151690000000000</v>
-      </c>
-      <c r="E11" s="19">
-        <v>176680000000000</v>
-      </c>
-      <c r="F11" s="19">
-        <v>259280000000000</v>
-      </c>
-      <c r="G11" s="19">
-        <v>985000000000000</v>
-      </c>
-      <c r="H11" s="19">
-        <v>111470000000000</v>
-      </c>
-      <c r="I11" s="19">
-        <v>732</v>
-      </c>
-      <c r="J11" s="19">
-        <v>217730000000000</v>
-      </c>
-      <c r="K11" s="19">
-        <v>140270000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>848100000000000</v>
-      </c>
-      <c r="E12" s="19">
-        <v>127690000000000</v>
-      </c>
-      <c r="F12" s="19">
-        <v>132240000000000</v>
-      </c>
-      <c r="G12" s="19">
-        <v>115800000000000</v>
-      </c>
-      <c r="H12" s="19">
-        <v>140900000000000</v>
-      </c>
-      <c r="I12" s="19">
-        <v>732</v>
-      </c>
-      <c r="J12" s="19">
-        <v>221090000000000</v>
-      </c>
-      <c r="K12" s="19">
-        <v>196060000000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D30" s="63">
+        <v>2</v>
+      </c>
+      <c r="E30" s="64">
+        <v>2</v>
+      </c>
+      <c r="F30" s="64">
+        <v>2</v>
+      </c>
+      <c r="G30" s="64">
+        <v>2</v>
+      </c>
+      <c r="H30" s="64">
+        <v>1</v>
+      </c>
+      <c r="I30" s="64">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>678200000000000</v>
-      </c>
-      <c r="E13" s="19">
-        <v>703600000000000</v>
-      </c>
-      <c r="F13" s="19">
-        <v>689700000000000</v>
-      </c>
-      <c r="G13" s="19">
-        <v>724400000000000</v>
-      </c>
-      <c r="H13" s="19">
-        <v>708900000000000</v>
-      </c>
-      <c r="I13" s="19">
-        <v>705200000000000</v>
-      </c>
-      <c r="J13" s="19">
-        <v>376300000000000</v>
-      </c>
-      <c r="K13" s="19">
-        <v>712600000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>678500000000000</v>
-      </c>
-      <c r="E14" s="19">
-        <v>739200000000000</v>
-      </c>
-      <c r="F14" s="19">
-        <v>709400000000000</v>
-      </c>
-      <c r="G14" s="19">
-        <v>652800000000000</v>
-      </c>
-      <c r="H14" s="19">
-        <v>727100000000000</v>
-      </c>
-      <c r="I14" s="19">
-        <v>695300000000000</v>
-      </c>
-      <c r="J14" s="19">
-        <v>499700000000000</v>
-      </c>
-      <c r="K14" s="19">
-        <v>768800000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>188300000000000</v>
-      </c>
-      <c r="E15" s="19">
-        <v>4</v>
-      </c>
-      <c r="F15" s="19">
-        <v>4</v>
-      </c>
-      <c r="G15" s="19">
-        <v>706400000000000</v>
-      </c>
-      <c r="H15" s="19">
-        <v>4</v>
-      </c>
-      <c r="I15" s="19">
-        <v>725800000000000</v>
-      </c>
-      <c r="J15" s="19">
-        <v>4</v>
-      </c>
-      <c r="K15" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>4</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4</v>
-      </c>
-      <c r="F16" s="19">
-        <v>178400000000000</v>
-      </c>
-      <c r="G16" s="19">
-        <v>549700000000000</v>
-      </c>
-      <c r="H16" s="19">
-        <v>4</v>
-      </c>
-      <c r="I16" s="19">
-        <v>4</v>
-      </c>
-      <c r="J16" s="19">
-        <v>4</v>
-      </c>
-      <c r="K16" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>211000000000000</v>
-      </c>
-      <c r="E17" s="19">
-        <v>418020000000000</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>732</v>
-      </c>
-      <c r="H17" s="19">
-        <v>302210000000000</v>
-      </c>
-      <c r="I17" s="19">
-        <v>102020000000000</v>
-      </c>
-      <c r="J17" s="19">
-        <v>124840000000000</v>
-      </c>
-      <c r="K17" s="19">
-        <v>691880000000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>652000000000000</v>
-      </c>
-      <c r="E18" s="19">
-        <v>174770000000000</v>
-      </c>
-      <c r="F18" s="19">
-        <v>216380000000000</v>
-      </c>
-      <c r="G18" s="19">
-        <v>129080000000000</v>
-      </c>
-      <c r="H18" s="19">
-        <v>124220000000000</v>
-      </c>
-      <c r="I18" s="19">
-        <v>219280000000000</v>
-      </c>
-      <c r="J18" s="19">
-        <v>627000000000000</v>
-      </c>
-      <c r="K18" s="19">
-        <v>124770000000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>783000000000000</v>
-      </c>
-      <c r="E19" s="19">
-        <v>588000000000000</v>
-      </c>
-      <c r="F19" s="19">
-        <v>719000000000000</v>
-      </c>
-      <c r="G19" s="19">
-        <v>402000000000000</v>
-      </c>
-      <c r="H19" s="19">
-        <v>644150000000000</v>
-      </c>
-      <c r="I19" s="19">
-        <v>4</v>
-      </c>
-      <c r="J19" s="19">
-        <v>460000000000000</v>
-      </c>
-      <c r="K19" s="19">
-        <v>713320000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>281900000000000</v>
-      </c>
-      <c r="E20" s="19">
-        <v>134520000000000</v>
-      </c>
-      <c r="F20" s="19">
-        <v>369160000000000</v>
-      </c>
-      <c r="G20" s="19">
-        <v>130540000000000</v>
-      </c>
-      <c r="H20" s="19">
-        <v>130920000000000</v>
-      </c>
-      <c r="I20" s="19">
-        <v>190690000000000</v>
-      </c>
-      <c r="J20" s="19">
-        <v>831000000000000</v>
-      </c>
-      <c r="K20" s="19">
-        <v>248810000000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>9</v>
-      </c>
-      <c r="H6" s="19">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5</v>
-      </c>
-      <c r="J6" s="19">
-        <v>8</v>
-      </c>
-      <c r="K6" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>9</v>
-      </c>
-      <c r="F8" s="19">
-        <v>2</v>
-      </c>
-      <c r="G8" s="19">
-        <v>8</v>
-      </c>
-      <c r="H8" s="19">
-        <v>9</v>
-      </c>
-      <c r="I8" s="19">
-        <v>2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>4</v>
-      </c>
-      <c r="K8" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>4</v>
-      </c>
-      <c r="E10" s="19">
-        <v>9</v>
-      </c>
-      <c r="F10" s="19">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19">
-        <v>7</v>
-      </c>
-      <c r="H10" s="19">
-        <v>3</v>
-      </c>
-      <c r="I10" s="19">
-        <v>8</v>
-      </c>
-      <c r="J10" s="19">
-        <v>3</v>
-      </c>
-      <c r="K10" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>7</v>
-      </c>
-      <c r="F12" s="19">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>6</v>
-      </c>
-      <c r="H12" s="19">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
-        <v>8</v>
-      </c>
-      <c r="K12" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19">
-        <v>4</v>
-      </c>
-      <c r="I14" s="19">
-        <v>7</v>
-      </c>
-      <c r="J14" s="19">
-        <v>9</v>
-      </c>
-      <c r="K14" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>8</v>
-      </c>
-      <c r="E16" s="19">
-        <v>5</v>
-      </c>
-      <c r="F16" s="19">
-        <v>2</v>
-      </c>
-      <c r="G16" s="19">
-        <v>3</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>8</v>
-      </c>
-      <c r="J16" s="19">
-        <v>4</v>
-      </c>
-      <c r="K16" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19">
-        <v>3</v>
-      </c>
-      <c r="F18" s="19">
-        <v>4</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>2</v>
-      </c>
-      <c r="I18" s="19">
-        <v>4</v>
-      </c>
-      <c r="J18" s="19">
-        <v>2</v>
-      </c>
-      <c r="K18" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19">
-        <v>2</v>
-      </c>
-      <c r="I20" s="19">
-        <v>4</v>
-      </c>
-      <c r="J20" s="19">
-        <v>2</v>
-      </c>
-      <c r="K20" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>9</v>
-      </c>
-      <c r="H6" s="19">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5</v>
-      </c>
-      <c r="J6" s="19">
-        <v>8</v>
-      </c>
-      <c r="K6" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>9</v>
-      </c>
-      <c r="F8" s="19">
-        <v>2</v>
-      </c>
-      <c r="G8" s="19">
-        <v>8</v>
-      </c>
-      <c r="H8" s="19">
-        <v>9</v>
-      </c>
-      <c r="I8" s="19">
-        <v>2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>4</v>
-      </c>
-      <c r="K8" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>4</v>
-      </c>
-      <c r="E10" s="19">
-        <v>9</v>
-      </c>
-      <c r="F10" s="19">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19">
-        <v>7</v>
-      </c>
-      <c r="H10" s="19">
-        <v>3</v>
-      </c>
-      <c r="I10" s="19">
-        <v>8</v>
-      </c>
-      <c r="J10" s="19">
-        <v>3</v>
-      </c>
-      <c r="K10" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>7</v>
-      </c>
-      <c r="F12" s="19">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>6</v>
-      </c>
-      <c r="H12" s="19">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
-        <v>8</v>
-      </c>
-      <c r="K12" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19">
-        <v>4</v>
-      </c>
-      <c r="I14" s="19">
-        <v>7</v>
-      </c>
-      <c r="J14" s="19">
-        <v>9</v>
-      </c>
-      <c r="K14" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>8</v>
-      </c>
-      <c r="E16" s="19">
-        <v>5</v>
-      </c>
-      <c r="F16" s="19">
-        <v>2</v>
-      </c>
-      <c r="G16" s="19">
-        <v>3</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>8</v>
-      </c>
-      <c r="J16" s="19">
-        <v>4</v>
-      </c>
-      <c r="K16" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19">
-        <v>3</v>
-      </c>
-      <c r="F18" s="19">
-        <v>4</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>2</v>
-      </c>
-      <c r="I18" s="19">
-        <v>4</v>
-      </c>
-      <c r="J18" s="19">
-        <v>2</v>
-      </c>
-      <c r="K18" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19">
-        <v>2</v>
-      </c>
-      <c r="I20" s="19">
-        <v>4</v>
-      </c>
-      <c r="J20" s="19">
-        <v>2</v>
-      </c>
-      <c r="K20" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="J30" s="64">
+        <v>2</v>
+      </c>
+      <c r="K30" s="65">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -14533,24 +15297,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14560,29 +15324,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="65" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="67"/>
+      <c r="P3" s="75"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88CB7F-AD78-4B76-951E-07F73159EAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44812691-C0BD-4721-BBD6-960A844282BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8016,8 +8016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FABDC-54DB-4F0C-8A5E-619A5BBC4590}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14218,8 +14218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44812691-C0BD-4721-BBD6-960A844282BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59772A-C85E-4AF9-A47C-213F3BD24D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,8 +1020,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1478,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1706,6 +1714,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1991,7 +2023,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,7 +2679,7 @@
       <c r="D23" s="60">
         <v>0.453482378854626</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="77">
         <v>0.93337004405286295</v>
       </c>
       <c r="F23" s="61">
@@ -2656,7 +2688,7 @@
       <c r="G23" s="61">
         <v>0.92945594713656399</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="77">
         <v>0.93913876651982398</v>
       </c>
       <c r="I23" s="61">
@@ -2665,7 +2697,7 @@
       <c r="J23" s="61">
         <v>0.57376651982378901</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="78">
         <v>0.93748017621145396</v>
       </c>
     </row>
@@ -2677,16 +2709,16 @@
       <c r="D24" s="63">
         <v>0.73518942731277503</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="79">
         <v>0.95305286343612305</v>
       </c>
       <c r="F24" s="64">
         <v>0.87319162995594701</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="79">
         <v>0.95305286343612405</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="79">
         <v>0.95208149779735696</v>
       </c>
       <c r="I24" s="64">
@@ -2710,19 +2742,19 @@
       <c r="D25" s="60">
         <v>0.934522026431718</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="77">
         <v>0.94374229074889904</v>
       </c>
       <c r="F25" s="61">
         <v>0.93118061674008801</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="77">
         <v>0.94810352422907496</v>
       </c>
       <c r="H25" s="61">
         <v>0.93842511013215901</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="77">
         <v>0.962834801762114</v>
       </c>
       <c r="J25" s="61">
@@ -2743,7 +2775,7 @@
       <c r="E26" s="64">
         <v>0.95241629955947205</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="79">
         <v>0.95741189427312801</v>
       </c>
       <c r="G26" s="64">
@@ -2752,13 +2784,13 @@
       <c r="H26" s="64">
         <v>0.95100660792951597</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="79">
         <v>0.96252863436123404</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="79">
         <v>0.95514977973568305</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="80">
         <v>0.960123348017621</v>
       </c>
     </row>
@@ -2770,28 +2802,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="60">
+      <c r="D27" s="81">
         <v>0.94958590308369994</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="77">
         <v>0.95138766519823803</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="77">
         <v>0.95185242290748895</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="77">
         <v>0.95113876651982399</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="77">
         <v>0.95166299559471401</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="77">
         <v>0.95348898678414096</v>
       </c>
       <c r="J27" s="61">
         <v>0.91534361233480199</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="78">
         <v>0.95140528634361199</v>
       </c>
     </row>
@@ -2801,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="63">
+      <c r="D28" s="82">
         <v>0.75278634361233498</v>
       </c>
       <c r="E28" s="64">
@@ -2810,13 +2842,13 @@
       <c r="F28" s="64">
         <v>0.74117400881057305</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="79">
         <v>0.949656387665198</v>
       </c>
       <c r="H28" s="64">
         <v>0.64203524229074904</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="79">
         <v>0.95284801762114502</v>
       </c>
       <c r="J28" s="64">
@@ -2837,25 +2869,25 @@
       <c r="D29" s="66">
         <v>0.50063215859030796</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="83">
         <v>0.96293171806167399</v>
       </c>
       <c r="F29" s="16">
         <v>0.92096916299559495</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="83">
         <v>0.96501762114537504</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="83">
         <v>0.96302863436123398</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="83">
         <v>0.96394493392070502</v>
       </c>
       <c r="J29" s="16">
         <v>0.60991850220264299</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="84">
         <v>0.96231057268722497</v>
       </c>
     </row>
@@ -2868,7 +2900,7 @@
       <c r="D30" s="63">
         <v>0.79698678414096902</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="79">
         <v>0.96119823788546199</v>
       </c>
       <c r="F30" s="64">
@@ -2877,16 +2909,16 @@
       <c r="G30" s="64">
         <v>0.95939647577092502</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="79">
         <v>0.96497356828193903</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="79">
         <v>0.96355947136563902</v>
       </c>
       <c r="J30" s="64">
         <v>0.68564096916299599</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="80">
         <v>0.96677753303964797</v>
       </c>
     </row>

--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59772A-C85E-4AF9-A47C-213F3BD24D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AAE62B-379B-4438-B8F9-CF038C8890DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1689,6 +1689,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1714,30 +1738,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,35 +2044,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2679,7 +2679,7 @@
       <c r="D23" s="60">
         <v>0.453482378854626</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="68">
         <v>0.93337004405286295</v>
       </c>
       <c r="F23" s="61">
@@ -2688,7 +2688,7 @@
       <c r="G23" s="61">
         <v>0.92945594713656399</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="68">
         <v>0.93913876651982398</v>
       </c>
       <c r="I23" s="61">
@@ -2697,7 +2697,7 @@
       <c r="J23" s="61">
         <v>0.57376651982378901</v>
       </c>
-      <c r="K23" s="78">
+      <c r="K23" s="69">
         <v>0.93748017621145396</v>
       </c>
     </row>
@@ -2709,19 +2709,19 @@
       <c r="D24" s="63">
         <v>0.73518942731277503</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="70">
         <v>0.95305286343612305</v>
       </c>
       <c r="F24" s="64">
         <v>0.87319162995594701</v>
       </c>
-      <c r="G24" s="79">
+      <c r="G24" s="70">
         <v>0.95305286343612405</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="70">
         <v>0.95208149779735696</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="70">
         <v>0.96028854625550697</v>
       </c>
       <c r="J24" s="64">
@@ -2742,19 +2742,19 @@
       <c r="D25" s="60">
         <v>0.934522026431718</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="68">
         <v>0.94374229074889904</v>
       </c>
       <c r="F25" s="61">
         <v>0.93118061674008801</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="68">
         <v>0.94810352422907496</v>
       </c>
       <c r="H25" s="61">
         <v>0.93842511013215901</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="68">
         <v>0.962834801762114</v>
       </c>
       <c r="J25" s="61">
@@ -2775,7 +2775,7 @@
       <c r="E26" s="64">
         <v>0.95241629955947205</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="70">
         <v>0.95741189427312801</v>
       </c>
       <c r="G26" s="64">
@@ -2784,13 +2784,13 @@
       <c r="H26" s="64">
         <v>0.95100660792951597</v>
       </c>
-      <c r="I26" s="79">
+      <c r="I26" s="70">
         <v>0.96252863436123404</v>
       </c>
-      <c r="J26" s="79">
+      <c r="J26" s="70">
         <v>0.95514977973568305</v>
       </c>
-      <c r="K26" s="80">
+      <c r="K26" s="71">
         <v>0.960123348017621</v>
       </c>
     </row>
@@ -2802,28 +2802,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="81">
+      <c r="D27" s="72">
         <v>0.94958590308369994</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="68">
         <v>0.95138766519823803</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="68">
         <v>0.95185242290748895</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="68">
         <v>0.95113876651982399</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="68">
         <v>0.95166299559471401</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="68">
         <v>0.95348898678414096</v>
       </c>
       <c r="J27" s="61">
         <v>0.91534361233480199</v>
       </c>
-      <c r="K27" s="78">
+      <c r="K27" s="69">
         <v>0.95140528634361199</v>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="82">
+      <c r="D28" s="73">
         <v>0.75278634361233498</v>
       </c>
       <c r="E28" s="64">
@@ -2842,13 +2842,13 @@
       <c r="F28" s="64">
         <v>0.74117400881057305</v>
       </c>
-      <c r="G28" s="79">
+      <c r="G28" s="70">
         <v>0.949656387665198</v>
       </c>
       <c r="H28" s="64">
         <v>0.64203524229074904</v>
       </c>
-      <c r="I28" s="79">
+      <c r="I28" s="70">
         <v>0.95284801762114502</v>
       </c>
       <c r="J28" s="64">
@@ -2869,25 +2869,25 @@
       <c r="D29" s="66">
         <v>0.50063215859030796</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="74">
         <v>0.96293171806167399</v>
       </c>
       <c r="F29" s="16">
         <v>0.92096916299559495</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="74">
         <v>0.96501762114537504</v>
       </c>
-      <c r="H29" s="83">
+      <c r="H29" s="74">
         <v>0.96302863436123398</v>
       </c>
-      <c r="I29" s="83">
+      <c r="I29" s="74">
         <v>0.96394493392070502</v>
       </c>
       <c r="J29" s="16">
         <v>0.60991850220264299</v>
       </c>
-      <c r="K29" s="84">
+      <c r="K29" s="75">
         <v>0.96231057268722497</v>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       <c r="D30" s="63">
         <v>0.79698678414096902</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="70">
         <v>0.96119823788546199</v>
       </c>
       <c r="F30" s="64">
@@ -2909,16 +2909,16 @@
       <c r="G30" s="64">
         <v>0.95939647577092502</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="70">
         <v>0.96497356828193903</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="70">
         <v>0.96355947136563902</v>
       </c>
       <c r="J30" s="64">
         <v>0.68564096916299599</v>
       </c>
-      <c r="K30" s="80">
+      <c r="K30" s="71">
         <v>0.96677753303964797</v>
       </c>
     </row>
@@ -3100,61 +3100,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="82"/>
+      <c r="H3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="73" t="s">
+      <c r="I3" s="82"/>
+      <c r="J3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="73" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="73" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="73" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="75"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -4440,19 +4440,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5206,19 +5206,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5976,32 +5976,32 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
-      <c r="M3" s="69" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
+      <c r="M3" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="71"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="79"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -7337,19 +7337,19 @@
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M22" s="69" t="s">
+      <c r="M22" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="71"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="79"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M23" s="2" t="s">
@@ -8067,19 +8067,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9191,19 +9191,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10118,19 +10118,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11095,8 +11095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11110,19 +11110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12146,7 +12146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -12159,19 +12159,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13195,8 +13195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13214,19 +13214,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14269,19 +14269,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15329,24 +15329,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15356,29 +15356,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="73" t="s">
+      <c r="L3" s="82"/>
+      <c r="M3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="73" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="75"/>
+      <c r="P3" s="83"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02_best.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AAE62B-379B-4438-B8F9-CF038C8890DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D023142-FF76-4CD4-8415-635FFF541996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1486,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1738,6 +1738,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11095,8 +11119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11718,28 +11742,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="60">
+      <c r="D23" s="85">
         <v>6</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="86">
         <v>159</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="86">
         <v>22</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="86">
         <v>160</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="86">
         <v>174</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="86">
         <v>732</v>
       </c>
-      <c r="J23" s="61">
+      <c r="J23" s="86">
         <v>8</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="87">
         <v>180</v>
       </c>
     </row>
@@ -11748,28 +11772,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="88">
         <v>12</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="89">
         <v>162</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="89">
         <v>51</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="89">
         <v>165</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="89">
         <v>137</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="89">
         <v>732</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="89">
         <v>9</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="90">
         <v>162</v>
       </c>
     </row>
@@ -11781,28 +11805,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="60">
+      <c r="D25" s="85">
         <v>139</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="86">
         <v>158</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="86">
         <v>201</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="86">
         <v>191</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="86">
         <v>174</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="86">
         <v>732</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="86">
         <v>215</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="87">
         <v>156</v>
       </c>
     </row>
@@ -11811,28 +11835,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="88">
         <v>151</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="89">
         <v>125</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="89">
         <v>262</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="89">
         <v>122</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="89">
         <v>152</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="89">
         <v>732</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="89">
         <v>214</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="90">
         <v>203</v>
       </c>
     </row>
@@ -11844,28 +11868,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="60">
+      <c r="D27" s="85">
         <v>64</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="86">
         <v>74</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="86">
         <v>71</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="86">
         <v>77</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="86">
         <v>81</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="86">
         <v>75</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="86">
         <v>59</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="87">
         <v>69</v>
       </c>
     </row>
@@ -11875,28 +11899,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="63">
+      <c r="D28" s="88">
         <v>15</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="89">
         <v>4</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="89">
         <v>20</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="89">
         <v>74</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="89">
         <v>4</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="89">
         <v>72</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="89">
         <v>4</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="90">
         <v>4</v>
       </c>
     </row>
@@ -11908,28 +11932,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="66">
+      <c r="D29" s="91">
         <v>11</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="11">
         <v>171</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="11">
         <v>210</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>732</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="11">
         <v>124</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="11">
         <v>229</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="11">
         <v>105</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="92">
         <v>700</v>
       </c>
     </row>
@@ -11939,28 +11963,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="63">
+      <c r="D30" s="88">
         <v>26</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="89">
         <v>132</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="89">
         <v>354</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="89">
         <v>137</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="89">
         <v>634</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="89">
         <v>190</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="89">
         <v>10</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="90">
         <v>724</v>
       </c>
     </row>
